--- a/IMED/DPP_Revised/Revised_package_cost3.xlsx
+++ b/IMED/DPP_Revised/Revised_package_cost3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="Revised" sheetId="15" r:id="rId1"/>
@@ -2294,11 +2294,11 @@
     <xf numFmtId="4" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2606,27 +2606,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B94" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B70" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="48" style="176" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="177" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="177" customWidth="1"/>
     <col min="4" max="4" width="12" style="175" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="176" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="176" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="177" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="176" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="176" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="177" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="176" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="176" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="176" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="176" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="177" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="176" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="176" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="177" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="176" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="176" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="184" t="s">
         <v>304</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="s">
         <v>374</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="201" t="s">
         <v>374</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="201" t="s">
         <v>36</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="201" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="M5" s="98"/>
       <c r="N5" s="98"/>
     </row>
-    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="201" t="s">
         <v>37</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="M6" s="98"/>
       <c r="N6" s="98"/>
     </row>
-    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
         <v>40</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="M7" s="98"/>
       <c r="N7" s="98"/>
     </row>
-    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="201" t="s">
         <v>40</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
     </row>
-    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="201" t="s">
         <v>36</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="M9" s="98"/>
       <c r="N9" s="98"/>
     </row>
-    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="201" t="s">
         <v>379</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="M10" s="98"/>
       <c r="N10" s="98"/>
     </row>
-    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="201" t="s">
         <v>39</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="M11" s="98"/>
       <c r="N11" s="98"/>
     </row>
-    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="201" t="s">
         <v>40</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="201" t="s">
         <v>40</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="M13" s="98"/>
       <c r="N13" s="98"/>
     </row>
-    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="201" t="s">
         <v>36</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="M14" s="98"/>
       <c r="N14" s="98"/>
     </row>
-    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="201" t="s">
         <v>41</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="M15" s="98"/>
       <c r="N15" s="98"/>
     </row>
-    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="201" t="s">
         <v>41</v>
       </c>
@@ -3220,7 +3220,7 @@
       <c r="M16" s="98"/>
       <c r="N16" s="98"/>
     </row>
-    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>37</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="201" t="s">
         <v>37</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
     </row>
-    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="201" t="s">
         <v>37</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
     </row>
-    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="201" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="98"/>
     </row>
-    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="201" t="s">
         <v>36</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="98"/>
     </row>
-    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="201" t="s">
         <v>379</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="M22" s="98"/>
       <c r="N22" s="98"/>
     </row>
-    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="201" t="s">
         <v>38</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
     </row>
-    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="201" t="s">
         <v>39</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="201" t="s">
         <v>39</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="M25" s="98"/>
       <c r="N25" s="98"/>
     </row>
-    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="201" t="s">
         <v>39</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="M26" s="98"/>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="201" t="s">
         <v>41</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="M27" s="98"/>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="201" t="s">
         <v>384</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="M28" s="193"/>
       <c r="N28" s="193"/>
     </row>
-    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="201" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="201" t="s">
         <v>28</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="201" t="s">
         <v>28</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="201" t="s">
         <v>353</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="201" t="s">
         <v>372</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="M33" s="98"/>
       <c r="N33" s="98"/>
     </row>
-    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="201" t="s">
         <v>354</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="M34" s="98"/>
       <c r="N34" s="98"/>
     </row>
-    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="201" t="s">
         <v>355</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="M35" s="98"/>
       <c r="N35" s="98"/>
     </row>
-    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="201" t="s">
         <v>9</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="M36" s="98"/>
       <c r="N36" s="98"/>
     </row>
-    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="201" t="s">
         <v>26</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="M37" s="98"/>
       <c r="N37" s="98"/>
     </row>
-    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="201" t="s">
         <v>28</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
     </row>
-    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="201" t="s">
         <v>9</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="M39" s="98"/>
       <c r="N39" s="98"/>
     </row>
-    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="201" t="s">
         <v>28</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
     </row>
-    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="201" t="s">
         <v>9</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="M41" s="98"/>
       <c r="N41" s="98"/>
     </row>
-    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="201" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="M42" s="98"/>
       <c r="N42" s="98"/>
     </row>
-    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="201" t="s">
         <v>28</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="M43" s="102"/>
       <c r="N43" s="102"/>
     </row>
-    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="201" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
     </row>
-    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="201" t="s">
         <v>29</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="M45" s="102"/>
       <c r="N45" s="102"/>
     </row>
-    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="201" t="s">
         <v>11</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="M46" s="102"/>
       <c r="N46" s="102"/>
     </row>
-    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="201" t="s">
         <v>26</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="M47" s="102"/>
       <c r="N47" s="102"/>
     </row>
-    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="201" t="s">
         <v>26</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="M48" s="102"/>
       <c r="N48" s="102"/>
     </row>
-    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="201" t="s">
         <v>29</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="M49" s="102"/>
       <c r="N49" s="102"/>
     </row>
-    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="201" t="s">
         <v>18</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="M50" s="102"/>
       <c r="N50" s="102"/>
     </row>
-    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="201" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
     </row>
-    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="201" t="s">
         <v>22</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
     </row>
-    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="201" t="s">
         <v>22</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="M53" s="102"/>
       <c r="N53" s="102"/>
     </row>
-    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="201" t="s">
         <v>11</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="M54" s="102"/>
       <c r="N54" s="102"/>
     </row>
-    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="201" t="s">
         <v>23</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="M55" s="102"/>
       <c r="N55" s="102"/>
     </row>
-    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="201" t="s">
         <v>29</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="M56" s="102"/>
       <c r="N56" s="102"/>
     </row>
-    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="201" t="s">
         <v>11</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="M57" s="102"/>
       <c r="N57" s="102"/>
     </row>
-    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="201" t="s">
         <v>29</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="M58" s="102"/>
       <c r="N58" s="102"/>
     </row>
-    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="201" t="s">
         <v>12</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="M59" s="102"/>
       <c r="N59" s="102"/>
     </row>
-    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="201" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
     </row>
-    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="201" t="s">
         <v>26</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="M61" s="102"/>
       <c r="N61" s="102"/>
     </row>
-    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="201" t="s">
         <v>13</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
     </row>
-    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="201" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="M63" s="102"/>
       <c r="N63" s="102"/>
     </row>
-    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="201" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="M64" s="102"/>
       <c r="N64" s="102"/>
     </row>
-    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="201" t="s">
         <v>14</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="M65" s="102"/>
       <c r="N65" s="102"/>
     </row>
-    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="201" t="s">
         <v>14</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="M66" s="102"/>
       <c r="N66" s="102"/>
     </row>
-    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="201" t="s">
         <v>31</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="M67" s="102"/>
       <c r="N67" s="102"/>
     </row>
-    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="201" t="s">
         <v>23</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="M68" s="102"/>
       <c r="N68" s="102"/>
     </row>
-    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="201" t="s">
         <v>31</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="M69" s="102"/>
       <c r="N69" s="102"/>
     </row>
-    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="201" t="s">
         <v>15</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
     </row>
-    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="201" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="M71" s="102"/>
       <c r="N71" s="102"/>
     </row>
-    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="229" t="s">
         <v>35</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="M72" s="102"/>
       <c r="N72" s="102"/>
     </row>
-    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="201" t="s">
         <v>15</v>
       </c>
@@ -5314,7 +5314,7 @@
       <c r="M73" s="102"/>
       <c r="N73" s="102"/>
     </row>
-    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="201" t="s">
         <v>15</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="M74" s="102"/>
       <c r="N74" s="102"/>
     </row>
-    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="201" t="s">
         <v>19</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="M75" s="102"/>
       <c r="N75" s="102"/>
     </row>
-    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="201" t="s">
         <v>31</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="M76" s="102"/>
       <c r="N76" s="102"/>
     </row>
-    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="201" t="s">
         <v>23</v>
       </c>
@@ -5460,7 +5460,7 @@
       <c r="M77" s="102"/>
       <c r="N77" s="102"/>
     </row>
-    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="201" t="s">
         <v>24</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
     </row>
-    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="201" t="s">
         <v>26</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="M79" s="102"/>
       <c r="N79" s="102"/>
     </row>
-    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="201" t="s">
         <v>26</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="M80" s="102"/>
       <c r="N80" s="102"/>
     </row>
-    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="201" t="s">
         <v>35</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="M81" s="102"/>
       <c r="N81" s="102"/>
     </row>
-    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="201" t="s">
         <v>35</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="M82" s="102"/>
       <c r="N82" s="102"/>
     </row>
-    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="201" t="s">
         <v>35</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="M83" s="102"/>
       <c r="N83" s="102"/>
     </row>
-    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="201" t="s">
         <v>18</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="M84" s="102"/>
       <c r="N84" s="102"/>
     </row>
-    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="201" t="s">
         <v>18</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="M85" s="102"/>
       <c r="N85" s="102"/>
     </row>
-    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="201" t="s">
         <v>19</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="M86" s="102"/>
       <c r="N86" s="102"/>
     </row>
-    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="201" t="s">
         <v>21</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="M87" s="102"/>
       <c r="N87" s="102"/>
     </row>
-    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="201" t="s">
         <v>23</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="M88" s="102"/>
       <c r="N88" s="102"/>
     </row>
-    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="201" t="s">
         <v>23</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="M89" s="102"/>
       <c r="N89" s="102"/>
     </row>
-    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="201" t="s">
         <v>15</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="M90" s="102"/>
       <c r="N90" s="102"/>
     </row>
-    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="201" t="s">
         <v>16</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="M91" s="102"/>
       <c r="N91" s="102"/>
     </row>
-    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="201" t="s">
         <v>33</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="M92" s="102"/>
       <c r="N92" s="102"/>
     </row>
-    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="201" t="s">
         <v>389</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="M93" s="102"/>
       <c r="N93" s="102"/>
     </row>
-    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="229" t="s">
         <v>35</v>
       </c>
@@ -6078,7 +6078,7 @@
       <c r="M94" s="102"/>
       <c r="N94" s="102"/>
     </row>
-    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="201" t="s">
         <v>19</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="M95" s="102"/>
       <c r="N95" s="102"/>
     </row>
-    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="201" t="s">
         <v>24</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="M96" s="102"/>
       <c r="N96" s="102"/>
     </row>
-    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="201" t="s">
         <v>26</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="M97" s="102"/>
       <c r="N97" s="102"/>
     </row>
-    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="201" t="s">
         <v>33</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="M98" s="102"/>
       <c r="N98" s="102"/>
     </row>
-    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="201" t="s">
         <v>35</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="D99" s="202">
         <v>4</v>
       </c>
-      <c r="E99" s="251">
+      <c r="E99" s="250">
         <v>41.87</v>
       </c>
       <c r="F99" s="210"/>
@@ -6262,7 +6262,7 @@
       <c r="M99" s="102"/>
       <c r="N99" s="102"/>
     </row>
-    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="201" t="s">
         <v>16</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="D100" s="202">
         <v>2</v>
       </c>
-      <c r="E100" s="251">
+      <c r="E100" s="250">
         <v>640.66999999999996</v>
       </c>
       <c r="F100" s="210"/>
@@ -6298,7 +6298,7 @@
       <c r="M100" s="102"/>
       <c r="N100" s="102"/>
     </row>
-    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="201" t="s">
         <v>20</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="D101" s="202">
         <v>1</v>
       </c>
-      <c r="E101" s="251">
+      <c r="E101" s="250">
         <v>39.54</v>
       </c>
       <c r="F101" s="210"/>
@@ -6334,7 +6334,7 @@
       <c r="M101" s="102"/>
       <c r="N101" s="102"/>
     </row>
-    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="201" t="s">
         <v>27</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="D102" s="202">
         <v>1.925</v>
       </c>
-      <c r="E102" s="251">
+      <c r="E102" s="250">
         <v>32.630000000000003</v>
       </c>
       <c r="F102" s="210"/>
@@ -6372,7 +6372,7 @@
       <c r="M102" s="102"/>
       <c r="N102" s="102"/>
     </row>
-    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="201" t="s">
         <v>33</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="D103" s="202">
         <v>4.51</v>
       </c>
-      <c r="E103" s="251">
+      <c r="E103" s="250">
         <v>105.29</v>
       </c>
       <c r="F103" s="212">
@@ -6413,7 +6413,7 @@
       <c r="M103" s="102"/>
       <c r="N103" s="102"/>
     </row>
-    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="201" t="s">
         <v>33</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="M104" s="102"/>
       <c r="N104" s="102"/>
     </row>
-    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="201" t="s">
         <v>35</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="M105" s="102"/>
       <c r="N105" s="102"/>
     </row>
-    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="201" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="M106" s="102"/>
       <c r="N106" s="102"/>
     </row>
-    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="201" t="s">
         <v>20</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="M107" s="102"/>
       <c r="N107" s="102"/>
     </row>
-    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="201" t="s">
         <v>24</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="M108" s="102"/>
       <c r="N108" s="102"/>
     </row>
-    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="201" t="s">
         <v>25</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="M109" s="102"/>
       <c r="N109" s="102"/>
     </row>
-    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="201" t="s">
         <v>27</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="M110" s="102"/>
       <c r="N110" s="102"/>
     </row>
-    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="201" t="s">
         <v>27</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="M111" s="102"/>
       <c r="N111" s="102"/>
     </row>
-    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="201" t="s">
         <v>34</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="M112" s="102"/>
       <c r="N112" s="102"/>
     </row>
-    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="201" t="s">
         <v>17</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="M113" s="102"/>
       <c r="N113" s="102"/>
     </row>
-    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="201" t="s">
         <v>17</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="M114" s="102"/>
       <c r="N114" s="102"/>
     </row>
-    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="201" t="s">
         <v>20</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="M115" s="102"/>
       <c r="N115" s="102"/>
     </row>
-    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="201" t="s">
         <v>26</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="M116" s="98"/>
       <c r="N116" s="98"/>
     </row>
-    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="201" t="s">
         <v>26</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="M117" s="98"/>
       <c r="N117" s="98"/>
     </row>
-    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="241" t="s">
         <v>352</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="M118" s="98"/>
       <c r="N118" s="98"/>
     </row>
-    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="201" t="s">
         <v>371</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="M119" s="98"/>
       <c r="N119" s="98"/>
     </row>
-    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="201" t="s">
         <v>31</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="M120" s="98"/>
       <c r="N120" s="98"/>
     </row>
-    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="201" t="s">
         <v>31</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="M121" s="98"/>
       <c r="N121" s="98"/>
     </row>
-    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="201" t="s">
         <v>32</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="M122" s="98"/>
       <c r="N122" s="98"/>
     </row>
-    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="201" t="s">
         <v>29</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="M123" s="98"/>
       <c r="N123" s="98"/>
     </row>
-    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="201" t="s">
         <v>400</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="M124" s="98"/>
       <c r="N124" s="98"/>
     </row>
-    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="201" t="s">
         <v>399</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="M125" s="98"/>
       <c r="N125" s="98"/>
     </row>
-    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="201" t="s">
         <v>398</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="M126" s="98"/>
       <c r="N126" s="98"/>
     </row>
-    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="201" t="s">
         <v>394</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="M127" s="98"/>
       <c r="N127" s="98"/>
     </row>
-    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="201" t="s">
         <v>396</v>
       </c>
@@ -7321,7 +7321,7 @@
       <c r="M128" s="98"/>
       <c r="N128" s="98"/>
     </row>
-    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="201" t="s">
         <v>46</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="M129" s="98"/>
       <c r="N129" s="98"/>
     </row>
-    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="201" t="s">
         <v>46</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="M130" s="98"/>
       <c r="N130" s="98"/>
     </row>
-    <row r="131" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="201" t="s">
         <v>44</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="201" t="s">
         <v>45</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="201" t="s">
         <v>45</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="201" t="s">
         <v>43</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="M134" s="98"/>
       <c r="N134" s="98"/>
     </row>
-    <row r="135" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="201" t="s">
         <v>45</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="201" t="s">
         <v>46</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="201" t="s">
         <v>48</v>
       </c>
@@ -7643,7 +7643,7 @@
       <c r="M137" s="98"/>
       <c r="N137" s="98"/>
     </row>
-    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="201" t="s">
         <v>49</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="M138" s="98"/>
       <c r="N138" s="98"/>
     </row>
-    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="201" t="s">
         <v>49</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="M139" s="98"/>
       <c r="N139" s="98"/>
     </row>
-    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="201" t="s">
         <v>45</v>
       </c>
@@ -7749,7 +7749,7 @@
       <c r="M140" s="98"/>
       <c r="N140" s="98"/>
     </row>
-    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="201" t="s">
         <v>45</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="M141" s="98"/>
       <c r="N141" s="98"/>
     </row>
-    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="201" t="s">
         <v>47</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="M142" s="98"/>
       <c r="N142" s="98"/>
     </row>
-    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="201" t="s">
         <v>49</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="M143" s="98"/>
       <c r="N143" s="98"/>
     </row>
-    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="201" t="s">
         <v>49</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="M144" s="98"/>
       <c r="N144" s="98"/>
     </row>
-    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="201" t="s">
         <v>43</v>
       </c>
@@ -7929,7 +7929,7 @@
       <c r="M145" s="98"/>
       <c r="N145" s="98"/>
     </row>
-    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="201" t="s">
         <v>43</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="M146" s="98"/>
       <c r="N146" s="98"/>
     </row>
-    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="201" t="s">
         <v>47</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="M147" s="98"/>
       <c r="N147" s="98"/>
     </row>
-    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="201" t="s">
         <v>42</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="M148" s="98"/>
       <c r="N148" s="98"/>
     </row>
-    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="201" t="s">
         <v>44</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="M149" s="98"/>
       <c r="N149" s="98"/>
     </row>
-    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="201" t="s">
         <v>44</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="M150" s="98"/>
       <c r="N150" s="98"/>
     </row>
-    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="201" t="s">
         <v>47</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="M151" s="98"/>
       <c r="N151" s="98"/>
     </row>
-    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="201" t="s">
         <v>44</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="M152" s="98"/>
       <c r="N152" s="98"/>
     </row>
-    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="201" t="s">
         <v>42</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="M153" s="98"/>
       <c r="N153" s="98"/>
     </row>
-    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="201" t="s">
         <v>44</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="M154" s="98"/>
       <c r="N154" s="98"/>
     </row>
-    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="201" t="s">
         <v>44</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="M155" s="98"/>
       <c r="N155" s="98"/>
     </row>
-    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="201" t="s">
         <v>47</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="M156" s="98"/>
       <c r="N156" s="98"/>
     </row>
-    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="201" t="s">
         <v>50</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="M157" s="98"/>
       <c r="N157" s="98"/>
     </row>
-    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="201" t="s">
         <v>52</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="M158" s="98"/>
       <c r="N158" s="98"/>
     </row>
-    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="201" t="s">
         <v>54</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="M159" s="98"/>
       <c r="N159" s="98"/>
     </row>
-    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="201" t="s">
         <v>368</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="M160" s="98"/>
       <c r="N160" s="98"/>
     </row>
-    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="201" t="s">
         <v>55</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="M161" s="98"/>
       <c r="N161" s="98"/>
     </row>
-    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="201" t="s">
         <v>51</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="M162" s="98"/>
       <c r="N162" s="98"/>
     </row>
-    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="201" t="s">
         <v>52</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
     </row>
-    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="201" t="s">
         <v>54</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="M164" s="98"/>
       <c r="N164" s="98"/>
     </row>
-    <row r="165" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="201" t="s">
         <v>54</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="M165" s="194"/>
       <c r="N165" s="194"/>
     </row>
-    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="201" t="s">
         <v>55</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="M166" s="194"/>
       <c r="N166" s="194"/>
     </row>
-    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="201" t="s">
         <v>50</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="M167" s="194"/>
       <c r="N167" s="194"/>
     </row>
-    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="201" t="s">
         <v>50</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="M168" s="194"/>
       <c r="N168" s="194"/>
     </row>
-    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="201" t="s">
         <v>52</v>
       </c>
@@ -8809,7 +8809,7 @@
       <c r="M169" s="194"/>
       <c r="N169" s="194"/>
     </row>
-    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="201" t="s">
         <v>53</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="M170" s="194"/>
       <c r="N170" s="194"/>
     </row>
-    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="201" t="s">
         <v>50</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="M171" s="194"/>
       <c r="N171" s="194"/>
     </row>
-    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="201" t="s">
         <v>52</v>
       </c>
@@ -8917,7 +8917,7 @@
       <c r="M172" s="194"/>
       <c r="N172" s="194"/>
     </row>
-    <row r="173" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="201" t="s">
         <v>54</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="M173" s="195"/>
       <c r="N173" s="195"/>
     </row>
-    <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="201" t="s">
         <v>395</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="M174" s="195"/>
       <c r="N174" s="195"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E175" s="177"/>
     </row>
   </sheetData>
@@ -9007,7 +9007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9021,33 +9021,33 @@
       <selection activeCell="R2" sqref="R2:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="4" customWidth="1"/>
-    <col min="17" max="18" width="17.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="17.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>36</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>36</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>36</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>37</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>37</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>39</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1280.79</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>40</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>40</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>40</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>41</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>41</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>41</v>
       </c>
@@ -10117,95 +10117,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -10228,33 +10228,33 @@
       <selection activeCell="R2" sqref="R2:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="18.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="18.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" style="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>42</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>43</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>44</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>45</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>45</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>46</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>46</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>46</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
         <v>47</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
         <v>47</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
         <v>47</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
         <v>47</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>49</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>49</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
         <v>49</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
         <v>49</v>
       </c>
@@ -11146,93 +11146,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:T19">
     <sortCondition ref="R2:R19"/>
@@ -11258,32 +11258,32 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>50</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>50</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>50</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>50</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>51</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>52</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>52</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
         <v>52</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>53</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>54</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>54</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>54</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>54</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>55</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>55</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
         <v>55</v>
       </c>
@@ -12165,98 +12165,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I19" s="92"/>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -12277,7 +12277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12291,34 +12291,34 @@
       <selection activeCell="R2" sqref="R2:T79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="72.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="23" width="15.7109375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="23" width="15.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -12440,7 +12440,7 @@
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
@@ -12491,7 +12491,7 @@
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
     </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>35</v>
       </c>
@@ -12542,7 +12542,7 @@
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
     </row>
-    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -12593,7 +12593,7 @@
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
     </row>
-    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
@@ -12644,7 +12644,7 @@
       <c r="V6" s="35"/>
       <c r="W6" s="35"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
@@ -12695,7 +12695,7 @@
       <c r="V7" s="35"/>
       <c r="W7" s="35"/>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
@@ -12746,7 +12746,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
     </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
     </row>
-    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
@@ -12848,7 +12848,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -12899,7 +12899,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
     </row>
-    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -12950,7 +12950,7 @@
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
     </row>
-    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -13001,7 +13001,7 @@
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
     </row>
-    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
     </row>
-    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
@@ -13103,7 +13103,7 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
     </row>
-    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>13</v>
       </c>
@@ -13154,7 +13154,7 @@
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
     </row>
-    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
@@ -13205,7 +13205,7 @@
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
     </row>
-    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
     </row>
-    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
@@ -13309,7 +13309,7 @@
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
     </row>
-    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
@@ -13360,7 +13360,7 @@
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
     </row>
-    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
@@ -13413,7 +13413,7 @@
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
     </row>
-    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13466,7 @@
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
     </row>
-    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>16</v>
       </c>
@@ -13517,7 +13517,7 @@
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
     </row>
-    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
@@ -13568,7 +13568,7 @@
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
     </row>
-    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
@@ -13619,7 +13619,7 @@
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
     </row>
-    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
@@ -13670,7 +13670,7 @@
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
     </row>
-    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
@@ -13721,7 +13721,7 @@
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
     </row>
-    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>19</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
     </row>
-    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
@@ -13874,7 +13874,7 @@
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
     </row>
-    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
@@ -13925,7 +13925,7 @@
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
     </row>
-    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>20</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
     </row>
-    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>20</v>
       </c>
@@ -14027,7 +14027,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
     </row>
-    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>20</v>
       </c>
@@ -14078,7 +14078,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
     </row>
-    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>21</v>
       </c>
@@ -14131,7 +14131,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
     </row>
-    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
@@ -14182,7 +14182,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
     </row>
-    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>22</v>
       </c>
@@ -14233,7 +14233,7 @@
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
     </row>
-    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>22</v>
       </c>
@@ -14284,7 +14284,7 @@
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
     </row>
-    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>23</v>
       </c>
@@ -14335,7 +14335,7 @@
       <c r="V39" s="38"/>
       <c r="W39" s="38"/>
     </row>
-    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>23</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
     </row>
-    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>23</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
     </row>
-    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>23</v>
       </c>
@@ -14488,7 +14488,7 @@
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
     </row>
-    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>23</v>
       </c>
@@ -14539,7 +14539,7 @@
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
     </row>
-    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>24</v>
       </c>
@@ -14590,7 +14590,7 @@
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
     </row>
-    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
@@ -14641,7 +14641,7 @@
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
     </row>
-    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>24</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
     </row>
-    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>25</v>
       </c>
@@ -14743,7 +14743,7 @@
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
     </row>
-    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
         <v>26</v>
       </c>
@@ -14794,7 +14794,7 @@
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
     </row>
-    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>26</v>
       </c>
@@ -14845,7 +14845,7 @@
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
     </row>
-    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>26</v>
       </c>
@@ -14896,7 +14896,7 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
     </row>
-    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
         <v>27</v>
       </c>
@@ -14947,7 +14947,7 @@
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
     </row>
-    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>27</v>
       </c>
@@ -14998,7 +14998,7 @@
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
     </row>
-    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
         <v>27</v>
       </c>
@@ -15049,7 +15049,7 @@
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
     </row>
-    <row r="54" spans="1:23" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>27</v>
       </c>
@@ -15100,7 +15100,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
     </row>
-    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>28</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="V55" s="38"/>
       <c r="W55" s="38"/>
     </row>
-    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
         <v>28</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
     </row>
-    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
         <v>28</v>
       </c>
@@ -15253,7 +15253,7 @@
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
     </row>
-    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>28</v>
       </c>
@@ -15304,7 +15304,7 @@
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
     </row>
-    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
         <v>28</v>
       </c>
@@ -15355,7 +15355,7 @@
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
     </row>
-    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
         <v>29</v>
       </c>
@@ -15406,7 +15406,7 @@
       <c r="V60" s="38"/>
       <c r="W60" s="38"/>
     </row>
-    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
         <v>29</v>
       </c>
@@ -15457,7 +15457,7 @@
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
     </row>
-    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
         <v>29</v>
       </c>
@@ -15508,7 +15508,7 @@
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
     </row>
-    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
         <v>29</v>
       </c>
@@ -15559,7 +15559,7 @@
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
     </row>
-    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>29</v>
       </c>
@@ -15610,7 +15610,7 @@
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
     </row>
-    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
         <v>30</v>
       </c>
@@ -15661,7 +15661,7 @@
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
     </row>
-    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>31</v>
       </c>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="W66" s="35"/>
     </row>
-    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>31</v>
       </c>
@@ -15769,7 +15769,7 @@
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
     </row>
-    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
         <v>31</v>
       </c>
@@ -15820,7 +15820,7 @@
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
     </row>
-    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
         <v>31</v>
       </c>
@@ -15871,7 +15871,7 @@
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
     </row>
-    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
         <v>31</v>
       </c>
@@ -15922,7 +15922,7 @@
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
     </row>
-    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>31</v>
       </c>
@@ -15973,7 +15973,7 @@
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
     </row>
-    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>32</v>
       </c>
@@ -16024,7 +16024,7 @@
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
     </row>
-    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
         <v>32</v>
       </c>
@@ -16075,7 +16075,7 @@
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
     </row>
-    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>33</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
     </row>
-    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>33</v>
       </c>
@@ -16177,7 +16177,7 @@
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
     </row>
-    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>33</v>
       </c>
@@ -16228,7 +16228,7 @@
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
     </row>
-    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>33</v>
       </c>
@@ -16279,7 +16279,7 @@
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
     </row>
-    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>33</v>
       </c>
@@ -16330,7 +16330,7 @@
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
     </row>
-    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="42" t="s">
         <v>34</v>
       </c>
@@ -16381,7 +16381,7 @@
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
     </row>
-    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -16389,95 +16389,95 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="G2:T79">
     <sortCondition ref="R2:R79"/>
@@ -16518,13 +16518,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>315</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="191" t="s">
         <v>185</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="191" t="s">
         <v>187</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="191" t="s">
         <v>188</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="197" t="s">
         <v>189</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="199" t="s">
         <v>190</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="197" t="s">
         <v>191</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="197" t="s">
         <v>192</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="197" t="s">
         <v>193</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="191" t="s">
         <v>195</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="191" t="s">
         <v>197</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="191" t="s">
         <v>199</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="191" t="s">
         <v>201</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="191" t="s">
         <v>203</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="191" t="s">
         <v>205</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="191" t="s">
         <v>206</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="191" t="s">
         <v>207</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="191" t="s">
         <v>208</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="191" t="s">
         <v>209</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="191" t="s">
         <v>210</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="191" t="s">
         <v>211</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="191" t="s">
         <v>212</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="191" t="s">
         <v>213</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="191" t="s">
         <v>214</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="191" t="s">
         <v>215</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="191" t="s">
         <v>216</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="191" t="s">
         <v>217</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="191" t="s">
         <v>218</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="191" t="s">
         <v>219</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="191" t="s">
         <v>220</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="192" t="s">
         <v>387</v>
       </c>
@@ -16789,25 +16789,25 @@
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="13.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -16817,26 +16817,26 @@
       <c r="C1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="251" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250" t="s">
+      <c r="G1" s="251"/>
+      <c r="H1" s="251" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250" t="s">
+      <c r="I1" s="251"/>
+      <c r="J1" s="251" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250" t="s">
+      <c r="K1" s="251"/>
+      <c r="L1" s="251" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="250"/>
+      <c r="M1" s="251"/>
       <c r="N1" s="63" t="s">
         <v>303</v>
       </c>
@@ -16851,7 +16851,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="172"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -16893,7 +16893,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>178</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>182</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>157</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>180</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>158</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>162</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>170</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>171</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>175</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>161</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="198" t="s">
         <v>160</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>181</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="173" t="s">
         <v>283</v>
       </c>
@@ -17761,7 +17761,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="173" t="s">
         <v>357</v>
       </c>
@@ -17789,7 +17789,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="174" t="s">
         <v>380</v>
       </c>
@@ -17886,7 +17886,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="174" t="s">
         <v>381</v>
       </c>
@@ -17914,7 +17914,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
@@ -17947,7 +17947,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E21">
         <f>SUM(E3:E17)</f>
         <v>23586.120000000003</v>
@@ -17984,18 +17984,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>304</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>36</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="120" t="s">
         <v>36</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>36</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
         <v>36</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120" t="s">
         <v>36</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="120" t="s">
         <v>37</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="120" t="s">
         <v>37</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
         <v>37</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="120" t="s">
         <v>37</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="120" t="s">
         <v>38</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="120" t="s">
         <v>39</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="120" t="s">
         <v>39</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="120" t="s">
         <v>39</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="120" t="s">
         <v>39</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="120" t="s">
         <v>40</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="120" t="s">
         <v>40</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="120" t="s">
         <v>40</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120" t="s">
         <v>40</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="120" t="s">
         <v>41</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="120" t="s">
         <v>41</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="120" t="s">
         <v>41</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="132" t="s">
         <v>35</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="132" t="s">
         <v>35</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="132" t="s">
         <v>35</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="132" t="s">
         <v>9</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="132" t="s">
         <v>9</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="132" t="s">
         <v>9</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="132" t="s">
         <v>10</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="132" t="s">
         <v>10</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="132" t="s">
         <v>11</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="132" t="s">
         <v>11</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="132" t="s">
         <v>12</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="132" t="s">
         <v>12</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="132" t="s">
         <v>13</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="132" t="s">
         <v>13</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="132" t="s">
         <v>14</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="132" t="s">
         <v>14</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="132" t="s">
         <v>15</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="132" t="s">
         <v>15</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="132" t="s">
         <v>16</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="132" t="s">
         <v>16</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="132" t="s">
         <v>16</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="132" t="s">
         <v>17</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="132" t="s">
         <v>17</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="132" t="s">
         <v>18</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="132" t="s">
         <v>18</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="132" t="s">
         <v>18</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="132" t="s">
         <v>19</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="132" t="s">
         <v>19</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="132" t="s">
         <v>19</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="132" t="s">
         <v>20</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="132" t="s">
         <v>20</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="132" t="s">
         <v>20</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="132" t="s">
         <v>21</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="132" t="s">
         <v>21</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="132" t="s">
         <v>22</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="132" t="s">
         <v>22</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="132" t="s">
         <v>23</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="132" t="s">
         <v>23</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="132" t="s">
         <v>23</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="132" t="s">
         <v>23</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="132" t="s">
         <v>23</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="132" t="s">
         <v>24</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="132" t="s">
         <v>24</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="132" t="s">
         <v>24</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="136" t="s">
         <v>25</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="132" t="s">
         <v>26</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="132" t="s">
         <v>26</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="132" t="s">
         <v>26</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="132" t="s">
         <v>27</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="132" t="s">
         <v>27</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="132" t="s">
         <v>27</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="132" t="s">
         <v>27</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="132" t="s">
         <v>28</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="132" t="s">
         <v>28</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="132" t="s">
         <v>28</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="132" t="s">
         <v>28</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="132" t="s">
         <v>28</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="132" t="s">
         <v>29</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="132" t="s">
         <v>29</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="132" t="s">
         <v>29</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="132" t="s">
         <v>29</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="132" t="s">
         <v>29</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="132" t="s">
         <v>30</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="132" t="s">
         <v>31</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="132" t="s">
         <v>31</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="132" t="s">
         <v>31</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="132" t="s">
         <v>31</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="132" t="s">
         <v>31</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="132" t="s">
         <v>31</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="132" t="s">
         <v>32</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="132" t="s">
         <v>32</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="132" t="s">
         <v>33</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="132" t="s">
         <v>33</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="132" t="s">
         <v>33</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="132" t="s">
         <v>33</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="132" t="s">
         <v>33</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="136" t="s">
         <v>34</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="132" t="s">
         <v>42</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="132" t="s">
         <v>43</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="132" t="s">
         <v>44</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="132" t="s">
         <v>44</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="132" t="s">
         <v>45</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="132" t="s">
         <v>45</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="132" t="s">
         <v>46</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="132" t="s">
         <v>46</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="132" t="s">
         <v>46</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="132" t="s">
         <v>47</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="132" t="s">
         <v>47</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="132" t="s">
         <v>47</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="132" t="s">
         <v>47</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A114" s="132" t="s">
         <v>48</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="132" t="s">
         <v>49</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="132" t="s">
         <v>49</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="132" t="s">
         <v>49</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="132" t="s">
         <v>49</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="132" t="s">
         <v>50</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="132" t="s">
         <v>50</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="132" t="s">
         <v>50</v>
       </c>
@@ -21650,7 +21650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="132" t="s">
         <v>50</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="132" t="s">
         <v>51</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="132" t="s">
         <v>52</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="132" t="s">
         <v>52</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="132" t="s">
         <v>52</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="132" t="s">
         <v>52</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="132" t="s">
         <v>53</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="132" t="s">
         <v>54</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="132" t="s">
         <v>54</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="132" t="s">
         <v>54</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="132" t="s">
         <v>54</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="132" t="s">
         <v>55</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="132" t="s">
         <v>55</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="132" t="s">
         <v>55</v>
       </c>
@@ -22089,18 +22089,18 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>304</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>36</v>
       </c>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="J2" s="169"/>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>40</v>
       </c>
@@ -22185,7 +22185,7 @@
       </c>
       <c r="J3" s="169"/>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="164" t="s">
         <v>23</v>
       </c>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J4" s="169"/>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="164" t="s">
         <v>26</v>
       </c>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="J5" s="170"/>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="164" t="s">
         <v>28</v>
       </c>
@@ -22269,7 +22269,7 @@
       </c>
       <c r="J6" s="169"/>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="164" t="s">
         <v>29</v>
       </c>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="J7" s="169"/>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="164" t="s">
         <v>31</v>
       </c>
@@ -22325,7 +22325,7 @@
       </c>
       <c r="J8" s="169"/>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="164" t="s">
         <v>47</v>
       </c>
@@ -22353,7 +22353,7 @@
       </c>
       <c r="J9" s="169"/>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
         <v>49</v>
       </c>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="J10" s="169"/>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="164" t="s">
         <v>50</v>
       </c>
@@ -22409,7 +22409,7 @@
       </c>
       <c r="J11" s="169"/>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="164" t="s">
         <v>55</v>
       </c>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="J12" s="169"/>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="152" t="s">
         <v>36</v>
       </c>
@@ -22467,7 +22467,7 @@
       </c>
       <c r="J13" s="169"/>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="164" t="s">
         <v>35</v>
       </c>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="J14" s="169"/>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="164" t="s">
         <v>44</v>
       </c>
@@ -22523,7 +22523,7 @@
       </c>
       <c r="J15" s="169"/>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="152" t="s">
         <v>39</v>
       </c>
@@ -22551,7 +22551,7 @@
       </c>
       <c r="J16" s="169"/>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="152" t="s">
         <v>39</v>
       </c>
@@ -22579,7 +22579,7 @@
       </c>
       <c r="J17" s="169"/>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="152" t="s">
         <v>39</v>
       </c>
@@ -22607,7 +22607,7 @@
       </c>
       <c r="J18" s="169"/>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="164" t="s">
         <v>9</v>
       </c>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="J19" s="169"/>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="164" t="s">
         <v>10</v>
       </c>
@@ -22663,7 +22663,7 @@
       </c>
       <c r="J20" s="169"/>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="164" t="s">
         <v>11</v>
       </c>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J21" s="169"/>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="164" t="s">
         <v>11</v>
       </c>
@@ -22719,7 +22719,7 @@
       </c>
       <c r="J22" s="169"/>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="164" t="s">
         <v>12</v>
       </c>
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J23" s="169"/>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="164" t="s">
         <v>13</v>
       </c>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="J24" s="169"/>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="164" t="s">
         <v>16</v>
       </c>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="J25" s="169"/>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="164" t="s">
         <v>17</v>
       </c>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="J26" s="169"/>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="164" t="s">
         <v>18</v>
       </c>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="J27" s="169"/>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="164" t="s">
         <v>18</v>
       </c>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="J28" s="169"/>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="164" t="s">
         <v>19</v>
       </c>
@@ -22917,7 +22917,7 @@
       </c>
       <c r="J29" s="169"/>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="164" t="s">
         <v>19</v>
       </c>
@@ -22945,7 +22945,7 @@
       </c>
       <c r="J30" s="169"/>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="164" t="s">
         <v>20</v>
       </c>
@@ -22973,7 +22973,7 @@
       </c>
       <c r="J31" s="169"/>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="164" t="s">
         <v>20</v>
       </c>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="J32" s="169"/>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="164" t="s">
         <v>21</v>
       </c>
@@ -23031,7 +23031,7 @@
       </c>
       <c r="J33" s="169"/>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="164" t="s">
         <v>22</v>
       </c>
@@ -23059,7 +23059,7 @@
       </c>
       <c r="J34" s="169"/>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="164" t="s">
         <v>23</v>
       </c>
@@ -23087,7 +23087,7 @@
       </c>
       <c r="J35" s="169"/>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="164" t="s">
         <v>23</v>
       </c>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="J36" s="169"/>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="164" t="s">
         <v>27</v>
       </c>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="J37" s="169"/>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="164" t="s">
         <v>27</v>
       </c>
@@ -23171,7 +23171,7 @@
       </c>
       <c r="J38" s="169"/>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="164" t="s">
         <v>29</v>
       </c>
@@ -23199,7 +23199,7 @@
       </c>
       <c r="J39" s="169"/>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
@@ -23227,7 +23227,7 @@
       </c>
       <c r="J40" s="169"/>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="164" t="s">
         <v>33</v>
       </c>
@@ -23255,7 +23255,7 @@
       </c>
       <c r="J41" s="169"/>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="164" t="s">
         <v>33</v>
       </c>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="J42" s="169"/>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="164" t="s">
         <v>46</v>
       </c>
@@ -23311,7 +23311,7 @@
       </c>
       <c r="J43" s="169"/>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="164" t="s">
         <v>46</v>
       </c>
@@ -23339,7 +23339,7 @@
       </c>
       <c r="J44" s="169"/>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="164" t="s">
         <v>49</v>
       </c>
@@ -23367,7 +23367,7 @@
       </c>
       <c r="J45" s="169"/>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="164" t="s">
         <v>52</v>
       </c>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="J46" s="169"/>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="164" t="s">
         <v>52</v>
       </c>
@@ -23423,7 +23423,7 @@
       </c>
       <c r="J47" s="169"/>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="164" t="s">
         <v>54</v>
       </c>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="J48" s="169"/>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="164" t="s">
         <v>54</v>
       </c>
@@ -23479,7 +23479,7 @@
       </c>
       <c r="J49" s="169"/>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="152" t="s">
         <v>37</v>
       </c>
@@ -23507,7 +23507,7 @@
       </c>
       <c r="J50" s="169"/>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="152" t="s">
         <v>40</v>
       </c>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="J51" s="169"/>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="164" t="s">
         <v>23</v>
       </c>
@@ -23565,7 +23565,7 @@
       </c>
       <c r="J52" s="169"/>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="164" t="s">
         <v>26</v>
       </c>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="J53" s="169"/>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="164" t="s">
         <v>28</v>
       </c>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="J54" s="169"/>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="164" t="s">
         <v>29</v>
       </c>
@@ -23649,7 +23649,7 @@
       </c>
       <c r="J55" s="169"/>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="164" t="s">
         <v>31</v>
       </c>
@@ -23677,7 +23677,7 @@
       </c>
       <c r="J56" s="169"/>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="164" t="s">
         <v>33</v>
       </c>
@@ -23705,7 +23705,7 @@
       </c>
       <c r="J57" s="169"/>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="164" t="s">
         <v>47</v>
       </c>
@@ -23733,7 +23733,7 @@
       </c>
       <c r="J58" s="169"/>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="164" t="s">
         <v>49</v>
       </c>
@@ -23761,7 +23761,7 @@
       </c>
       <c r="J59" s="169"/>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="164" t="s">
         <v>50</v>
       </c>
@@ -23789,7 +23789,7 @@
       </c>
       <c r="J60" s="169"/>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="164" t="s">
         <v>55</v>
       </c>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="J61" s="169"/>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="152" t="s">
         <v>36</v>
       </c>
@@ -23847,7 +23847,7 @@
       </c>
       <c r="J62" s="169"/>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="152" t="s">
         <v>37</v>
       </c>
@@ -23877,7 +23877,7 @@
       </c>
       <c r="J63" s="169"/>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="152" t="s">
         <v>39</v>
       </c>
@@ -23905,7 +23905,7 @@
       </c>
       <c r="J64" s="169"/>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="152" t="s">
         <v>40</v>
       </c>
@@ -23933,7 +23933,7 @@
       </c>
       <c r="J65" s="169"/>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="152" t="s">
         <v>40</v>
       </c>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="J66" s="169"/>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="164" t="s">
         <v>15</v>
       </c>
@@ -23991,7 +23991,7 @@
       </c>
       <c r="J67" s="169"/>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="164" t="s">
         <v>15</v>
       </c>
@@ -24019,7 +24019,7 @@
       </c>
       <c r="J68" s="169"/>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="164" t="s">
         <v>16</v>
       </c>
@@ -24049,7 +24049,7 @@
       </c>
       <c r="J69" s="169"/>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="164" t="s">
         <v>24</v>
       </c>
@@ -24077,7 +24077,7 @@
       </c>
       <c r="J70" s="169"/>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="164" t="s">
         <v>24</v>
       </c>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="J71" s="169"/>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="164" t="s">
         <v>26</v>
       </c>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="J72" s="169"/>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="164" t="s">
         <v>28</v>
       </c>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="J73" s="169"/>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="164" t="s">
         <v>31</v>
       </c>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="J74" s="169"/>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="164" t="s">
         <v>31</v>
       </c>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="J75" s="169"/>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="164" t="s">
         <v>33</v>
       </c>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="J76" s="169"/>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="164" t="s">
         <v>33</v>
       </c>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="J77" s="169"/>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="164" t="s">
         <v>52</v>
       </c>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="J78" s="169"/>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="164" t="s">
         <v>52</v>
       </c>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="J79" s="169"/>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="164" t="s">
         <v>54</v>
       </c>
@@ -24357,7 +24357,7 @@
       </c>
       <c r="J80" s="169"/>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="164" t="s">
         <v>54</v>
       </c>
@@ -24385,7 +24385,7 @@
       </c>
       <c r="J81" s="169"/>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="152" t="s">
         <v>41</v>
       </c>
@@ -24413,7 +24413,7 @@
       </c>
       <c r="J82" s="169"/>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="152" t="s">
         <v>41</v>
       </c>
@@ -24441,7 +24441,7 @@
       </c>
       <c r="J83" s="169"/>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="164" t="s">
         <v>9</v>
       </c>
@@ -24469,7 +24469,7 @@
       </c>
       <c r="J84" s="169"/>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="164" t="s">
         <v>13</v>
       </c>
@@ -24497,7 +24497,7 @@
       </c>
       <c r="J85" s="169"/>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="164" t="s">
         <v>14</v>
       </c>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="J86" s="169"/>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="164" t="s">
         <v>18</v>
       </c>
@@ -24553,7 +24553,7 @@
       </c>
       <c r="J87" s="169"/>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="164" t="s">
         <v>24</v>
       </c>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="J88" s="169"/>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="168" t="s">
         <v>25</v>
       </c>
@@ -24609,7 +24609,7 @@
       </c>
       <c r="J89" s="169"/>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="164" t="s">
         <v>28</v>
       </c>
@@ -24637,7 +24637,7 @@
       </c>
       <c r="J90" s="169"/>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="164" t="s">
         <v>29</v>
       </c>
@@ -24665,7 +24665,7 @@
       </c>
       <c r="J91" s="169"/>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="164" t="s">
         <v>31</v>
       </c>
@@ -24693,7 +24693,7 @@
       </c>
       <c r="J92" s="169"/>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="164" t="s">
         <v>32</v>
       </c>
@@ -24721,7 +24721,7 @@
       </c>
       <c r="J93" s="169"/>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="164" t="s">
         <v>47</v>
       </c>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="J94" s="170"/>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="164" t="s">
         <v>48</v>
       </c>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="J95" s="169"/>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="164" t="s">
         <v>50</v>
       </c>
@@ -24807,7 +24807,7 @@
       </c>
       <c r="J96" s="169"/>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="164" t="s">
         <v>51</v>
       </c>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="J97" s="169"/>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="164" t="s">
         <v>55</v>
       </c>
@@ -24863,7 +24863,7 @@
       </c>
       <c r="J98" s="169"/>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="152" t="s">
         <v>36</v>
       </c>
@@ -24891,7 +24891,7 @@
       </c>
       <c r="J99" s="169"/>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="152" t="s">
         <v>37</v>
       </c>
@@ -24919,7 +24919,7 @@
       </c>
       <c r="J100" s="169"/>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="164" t="s">
         <v>35</v>
       </c>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="J101" s="169"/>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="164" t="s">
         <v>43</v>
       </c>
@@ -24975,7 +24975,7 @@
       </c>
       <c r="J102" s="169"/>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="164" t="s">
         <v>45</v>
       </c>
@@ -25003,7 +25003,7 @@
       </c>
       <c r="J103" s="169"/>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="164" t="s">
         <v>35</v>
       </c>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="J104" s="169"/>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="164" t="s">
         <v>42</v>
       </c>
@@ -25059,7 +25059,7 @@
       </c>
       <c r="J105" s="169"/>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="164" t="s">
         <v>44</v>
       </c>
@@ -25087,7 +25087,7 @@
       </c>
       <c r="J106" s="169"/>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="152" t="s">
         <v>36</v>
       </c>
@@ -25117,7 +25117,7 @@
       </c>
       <c r="J107" s="169"/>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A108" s="152" t="s">
         <v>37</v>
       </c>
@@ -25147,7 +25147,7 @@
       </c>
       <c r="J108" s="169"/>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A109" s="164" t="s">
         <v>44</v>
       </c>
@@ -25175,7 +25175,7 @@
       </c>
       <c r="J109" s="169"/>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A110" s="164" t="s">
         <v>45</v>
       </c>
@@ -25205,7 +25205,7 @@
       </c>
       <c r="J110" s="169"/>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A111" s="152" t="s">
         <v>38</v>
       </c>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="J111" s="169"/>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="164" t="s">
         <v>9</v>
       </c>
@@ -25263,7 +25263,7 @@
       </c>
       <c r="J112" s="169"/>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="164" t="s">
         <v>10</v>
       </c>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="J113" s="169"/>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="164" t="s">
         <v>11</v>
       </c>
@@ -25319,7 +25319,7 @@
       </c>
       <c r="J114" s="169"/>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="164" t="s">
         <v>12</v>
       </c>
@@ -25347,7 +25347,7 @@
       </c>
       <c r="J115" s="169"/>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="164" t="s">
         <v>14</v>
       </c>
@@ -25375,7 +25375,7 @@
       </c>
       <c r="J116" s="169"/>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="164" t="s">
         <v>16</v>
       </c>
@@ -25403,7 +25403,7 @@
       </c>
       <c r="J117" s="169"/>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="164" t="s">
         <v>17</v>
       </c>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="J118" s="169"/>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="164" t="s">
         <v>19</v>
       </c>
@@ -25459,7 +25459,7 @@
       </c>
       <c r="J119" s="169"/>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="164" t="s">
         <v>20</v>
       </c>
@@ -25487,7 +25487,7 @@
       </c>
       <c r="J120" s="169"/>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="164" t="s">
         <v>21</v>
       </c>
@@ -25515,7 +25515,7 @@
       </c>
       <c r="J121" s="169"/>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="164" t="s">
         <v>22</v>
       </c>
@@ -25543,7 +25543,7 @@
       </c>
       <c r="J122" s="169"/>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="164" t="s">
         <v>23</v>
       </c>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="J123" s="169"/>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="164" t="s">
         <v>27</v>
       </c>
@@ -25599,7 +25599,7 @@
       </c>
       <c r="J124" s="169"/>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="164" t="s">
         <v>28</v>
       </c>
@@ -25627,7 +25627,7 @@
       </c>
       <c r="J125" s="169"/>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="164" t="s">
         <v>29</v>
       </c>
@@ -25655,7 +25655,7 @@
       </c>
       <c r="J126" s="169"/>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="164" t="s">
         <v>30</v>
       </c>
@@ -25683,7 +25683,7 @@
       </c>
       <c r="J127" s="169"/>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="164" t="s">
         <v>32</v>
       </c>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="J128" s="169"/>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="164" t="s">
         <v>46</v>
       </c>
@@ -25739,7 +25739,7 @@
       </c>
       <c r="J129" s="169"/>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="164" t="s">
         <v>49</v>
       </c>
@@ -25767,7 +25767,7 @@
       </c>
       <c r="J130" s="169"/>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A131" s="164" t="s">
         <v>50</v>
       </c>
@@ -25797,7 +25797,7 @@
       </c>
       <c r="J131" s="169"/>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="164" t="s">
         <v>53</v>
       </c>
@@ -25825,7 +25825,7 @@
       </c>
       <c r="J132" s="169"/>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="152" t="s">
         <v>41</v>
       </c>
@@ -25853,7 +25853,7 @@
       </c>
       <c r="J133" s="169"/>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="164" t="s">
         <v>27</v>
       </c>
@@ -25881,7 +25881,7 @@
       </c>
       <c r="J134" s="169"/>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="164" t="s">
         <v>47</v>
       </c>
@@ -25909,7 +25909,7 @@
       </c>
       <c r="J135" s="169"/>
     </row>
-    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="168" t="s">
         <v>34</v>
       </c>
@@ -25954,9 +25954,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25971,17 +25971,17 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="94" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>273</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>274</v>
       </c>
@@ -26028,7 +26028,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="s">
         <v>275</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="s">
         <v>276</v>
       </c>
@@ -26082,7 +26082,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>277</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
         <v>278</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>279</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
         <v>280</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
         <v>281</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="95" t="s">
         <v>282</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
         <v>283</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
         <v>290</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
         <v>284</v>
       </c>
@@ -26323,7 +26323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
         <v>239</v>
       </c>
@@ -26357,15 +26357,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>183</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>28</v>
       </c>
@@ -26393,7 +26393,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>29</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>10</v>
       </c>
@@ -26421,7 +26421,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -26463,7 +26463,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -26477,7 +26477,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -26505,7 +26505,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -26533,7 +26533,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -26561,7 +26561,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -26589,7 +26589,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -26617,7 +26617,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>8</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -26645,7 +26645,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -26659,7 +26659,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>11</v>
       </c>
@@ -26673,7 +26673,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -26687,7 +26687,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -26757,7 +26757,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>12</v>
       </c>

--- a/IMED/DPP_Revised/Revised_package_cost3.xlsx
+++ b/IMED/DPP_Revised/Revised_package_cost3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Revised" sheetId="15" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Revised!$A$1:$J$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Revised!$A$1:$J$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sunamgonj!$A$1:$T$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">DPP_Cost!$A$1:$G$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">HaorCode!$A$1:$B$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Revised!$A$1:$N$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Revised!$A$1:$N$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Structure_Type!$A$1:$C$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">Habigonj!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Kishoregonj!$1:$1</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="406">
   <si>
     <t>Remarks</t>
   </si>
@@ -1521,7 +1521,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,6 +1561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2282,9 +2288,6 @@
     <xf numFmtId="2" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2296,6 +2299,78 @@
     </xf>
     <xf numFmtId="4" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2604,29 +2679,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B70" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q72" sqref="Q72"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="48" style="176" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="177" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="177" customWidth="1"/>
     <col min="4" max="4" width="12" style="175" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="176" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="176" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="177" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="176" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="176" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="177" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="176" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="176" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="176" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="176" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="177" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="176" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="176" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="177" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="176" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="176" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="184" t="s">
         <v>304</v>
       </c>
@@ -2664,7 +2739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="201" t="s">
         <v>374</v>
       </c>
@@ -2698,7 +2773,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="201" t="s">
         <v>374</v>
       </c>
@@ -2732,7 +2807,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="201" t="s">
         <v>36</v>
       </c>
@@ -2766,7 +2841,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="201" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2881,7 @@
       <c r="M5" s="98"/>
       <c r="N5" s="98"/>
     </row>
-    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="201" t="s">
         <v>37</v>
       </c>
@@ -2832,7 +2907,7 @@
         <v>227</v>
       </c>
       <c r="I6" s="206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="209"/>
       <c r="K6" s="207" t="s">
@@ -2844,7 +2919,7 @@
       <c r="M6" s="98"/>
       <c r="N6" s="98"/>
     </row>
-    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="201" t="s">
         <v>40</v>
       </c>
@@ -2882,7 +2957,7 @@
       <c r="M7" s="98"/>
       <c r="N7" s="98"/>
     </row>
-    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="201" t="s">
         <v>40</v>
       </c>
@@ -2922,7 +2997,7 @@
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
     </row>
-    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="201" t="s">
         <v>36</v>
       </c>
@@ -2948,7 +3023,7 @@
         <v>227</v>
       </c>
       <c r="I9" s="206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="209"/>
       <c r="K9" s="207" t="s">
@@ -2960,7 +3035,7 @@
       <c r="M9" s="98"/>
       <c r="N9" s="98"/>
     </row>
-    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="201" t="s">
         <v>379</v>
       </c>
@@ -2996,7 +3071,7 @@
       <c r="M10" s="98"/>
       <c r="N10" s="98"/>
     </row>
-    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="201" t="s">
         <v>39</v>
       </c>
@@ -3034,7 +3109,7 @@
       <c r="M11" s="98"/>
       <c r="N11" s="98"/>
     </row>
-    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="201" t="s">
         <v>40</v>
       </c>
@@ -3074,7 +3149,7 @@
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="201" t="s">
         <v>40</v>
       </c>
@@ -3112,7 +3187,7 @@
       <c r="M13" s="98"/>
       <c r="N13" s="98"/>
     </row>
-    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="201" t="s">
         <v>36</v>
       </c>
@@ -3146,7 +3221,7 @@
       <c r="M14" s="98"/>
       <c r="N14" s="98"/>
     </row>
-    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="201" t="s">
         <v>41</v>
       </c>
@@ -3180,7 +3255,7 @@
       <c r="M15" s="98"/>
       <c r="N15" s="98"/>
     </row>
-    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="201" t="s">
         <v>41</v>
       </c>
@@ -3220,7 +3295,7 @@
       <c r="M16" s="98"/>
       <c r="N16" s="98"/>
     </row>
-    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="201" t="s">
         <v>37</v>
       </c>
@@ -3256,7 +3331,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="201" t="s">
         <v>37</v>
       </c>
@@ -3292,7 +3367,7 @@
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
     </row>
-    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="201" t="s">
         <v>37</v>
       </c>
@@ -3328,7 +3403,7 @@
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
     </row>
-    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="201" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3439,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="98"/>
     </row>
-    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="201" t="s">
         <v>36</v>
       </c>
@@ -3400,7 +3475,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="98"/>
     </row>
-    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="201" t="s">
         <v>379</v>
       </c>
@@ -3436,7 +3511,7 @@
       <c r="M22" s="98"/>
       <c r="N22" s="98"/>
     </row>
-    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="201" t="s">
         <v>38</v>
       </c>
@@ -3474,7 +3549,7 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
     </row>
-    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="201" t="s">
         <v>39</v>
       </c>
@@ -3510,7 +3585,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="201" t="s">
         <v>39</v>
       </c>
@@ -3548,7 +3623,7 @@
       <c r="M25" s="98"/>
       <c r="N25" s="98"/>
     </row>
-    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="201" t="s">
         <v>39</v>
       </c>
@@ -3586,7 +3661,7 @@
       <c r="M26" s="98"/>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="201" t="s">
         <v>41</v>
       </c>
@@ -3622,7 +3697,7 @@
       <c r="M27" s="98"/>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="201" t="s">
         <v>384</v>
       </c>
@@ -3658,7 +3733,7 @@
       <c r="M28" s="193"/>
       <c r="N28" s="193"/>
     </row>
-    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="201" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3769,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="201" t="s">
         <v>28</v>
       </c>
@@ -3730,7 +3805,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="201" t="s">
         <v>28</v>
       </c>
@@ -3766,7 +3841,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="201" t="s">
         <v>353</v>
       </c>
@@ -3800,7 +3875,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="201" t="s">
         <v>372</v>
       </c>
@@ -3836,7 +3911,7 @@
       <c r="M33" s="98"/>
       <c r="N33" s="98"/>
     </row>
-    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="201" t="s">
         <v>354</v>
       </c>
@@ -3872,7 +3947,7 @@
       <c r="M34" s="98"/>
       <c r="N34" s="98"/>
     </row>
-    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="201" t="s">
         <v>355</v>
       </c>
@@ -3908,7 +3983,7 @@
       <c r="M35" s="98"/>
       <c r="N35" s="98"/>
     </row>
-    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="201" t="s">
         <v>9</v>
       </c>
@@ -3921,8 +3996,8 @@
       <c r="D36" s="202">
         <v>1</v>
       </c>
-      <c r="E36" s="203">
-        <v>123.45</v>
+      <c r="E36" s="249">
+        <v>124.01</v>
       </c>
       <c r="F36" s="210"/>
       <c r="G36" s="228" t="s">
@@ -3944,7 +4019,7 @@
       <c r="M36" s="98"/>
       <c r="N36" s="98"/>
     </row>
-    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="201" t="s">
         <v>26</v>
       </c>
@@ -3957,8 +4032,8 @@
       <c r="D37" s="202">
         <v>11.095000000000001</v>
       </c>
-      <c r="E37" s="203">
-        <v>211.74</v>
+      <c r="E37" s="249">
+        <v>210.4</v>
       </c>
       <c r="F37" s="210"/>
       <c r="G37" s="228" t="s">
@@ -3982,7 +4057,7 @@
       <c r="M37" s="98"/>
       <c r="N37" s="98"/>
     </row>
-    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="201" t="s">
         <v>28</v>
       </c>
@@ -3995,8 +4070,8 @@
       <c r="D38" s="202">
         <v>0.315</v>
       </c>
-      <c r="E38" s="203">
-        <v>14.81</v>
+      <c r="E38" s="249">
+        <v>15.59</v>
       </c>
       <c r="F38" s="227"/>
       <c r="G38" s="228" t="s">
@@ -4020,7 +4095,7 @@
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
     </row>
-    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="201" t="s">
         <v>9</v>
       </c>
@@ -4056,7 +4131,7 @@
       <c r="M39" s="98"/>
       <c r="N39" s="98"/>
     </row>
-    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="201" t="s">
         <v>28</v>
       </c>
@@ -4066,7 +4141,7 @@
       <c r="C40" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="202">
+      <c r="D40" s="251">
         <v>10.382999999999999</v>
       </c>
       <c r="E40" s="203">
@@ -4094,7 +4169,7 @@
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
     </row>
-    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="201" t="s">
         <v>9</v>
       </c>
@@ -4130,7 +4205,7 @@
       <c r="M41" s="98"/>
       <c r="N41" s="98"/>
     </row>
-    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="201" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4241,7 @@
       <c r="M42" s="98"/>
       <c r="N42" s="98"/>
     </row>
-    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="201" t="s">
         <v>28</v>
       </c>
@@ -4176,7 +4251,7 @@
       <c r="C43" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="202">
+      <c r="D43" s="251">
         <v>6.4710000000000001</v>
       </c>
       <c r="E43" s="203">
@@ -4204,7 +4279,7 @@
       <c r="M43" s="102"/>
       <c r="N43" s="102"/>
     </row>
-    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="201" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4315,7 @@
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
     </row>
-    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="201" t="s">
         <v>29</v>
       </c>
@@ -4250,7 +4325,7 @@
       <c r="C45" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="202">
+      <c r="D45" s="251">
         <v>12.214</v>
       </c>
       <c r="E45" s="203">
@@ -4278,7 +4353,7 @@
       <c r="M45" s="102"/>
       <c r="N45" s="102"/>
     </row>
-    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="201" t="s">
         <v>11</v>
       </c>
@@ -4291,8 +4366,8 @@
       <c r="D46" s="202">
         <v>1</v>
       </c>
-      <c r="E46" s="203">
-        <v>243</v>
+      <c r="E46" s="249">
+        <v>222</v>
       </c>
       <c r="F46" s="210"/>
       <c r="G46" s="228" t="s">
@@ -4314,7 +4389,7 @@
       <c r="M46" s="102"/>
       <c r="N46" s="102"/>
     </row>
-    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="201" t="s">
         <v>26</v>
       </c>
@@ -4327,8 +4402,8 @@
       <c r="D47" s="202">
         <v>20</v>
       </c>
-      <c r="E47" s="203">
-        <v>597</v>
+      <c r="E47" s="249">
+        <v>618</v>
       </c>
       <c r="F47" s="210"/>
       <c r="G47" s="228" t="s">
@@ -4352,7 +4427,7 @@
       <c r="M47" s="102"/>
       <c r="N47" s="102"/>
     </row>
-    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="201" t="s">
         <v>26</v>
       </c>
@@ -4390,7 +4465,7 @@
       <c r="M48" s="102"/>
       <c r="N48" s="102"/>
     </row>
-    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="201" t="s">
         <v>29</v>
       </c>
@@ -4428,7 +4503,7 @@
       <c r="M49" s="102"/>
       <c r="N49" s="102"/>
     </row>
-    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="201" t="s">
         <v>18</v>
       </c>
@@ -4464,7 +4539,7 @@
       <c r="M50" s="102"/>
       <c r="N50" s="102"/>
     </row>
-    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="201" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4575,7 @@
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
     </row>
-    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="201" t="s">
         <v>22</v>
       </c>
@@ -4538,7 +4613,7 @@
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
     </row>
-    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="201" t="s">
         <v>22</v>
       </c>
@@ -4574,121 +4649,121 @@
       <c r="M53" s="102"/>
       <c r="N53" s="102"/>
     </row>
-    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="201" t="s">
+    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="201" t="s">
+      <c r="B54" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="202">
-        <v>1</v>
-      </c>
-      <c r="E54" s="203">
+      <c r="C54" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="251">
+        <v>1</v>
+      </c>
+      <c r="E54" s="249">
         <v>150</v>
       </c>
-      <c r="F54" s="204" t="s">
+      <c r="F54" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="228" t="s">
+      <c r="G54" s="253" t="s">
         <v>138</v>
       </c>
-      <c r="H54" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I54" s="206">
+      <c r="H54" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I54" s="255">
         <v>3</v>
       </c>
-      <c r="J54" s="211"/>
-      <c r="K54" s="207" t="s">
+      <c r="J54" s="258"/>
+      <c r="K54" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="L54" s="205" t="s">
+      <c r="L54" s="254" t="s">
         <v>362</v>
       </c>
       <c r="M54" s="102"/>
       <c r="N54" s="102"/>
     </row>
-    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="201" t="s">
+    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="201" t="s">
+      <c r="B55" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="202">
-        <v>1</v>
-      </c>
-      <c r="E55" s="203">
+      <c r="C55" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="251">
+        <v>1</v>
+      </c>
+      <c r="E55" s="249">
         <v>243</v>
       </c>
-      <c r="F55" s="204" t="s">
+      <c r="F55" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="G55" s="228" t="s">
+      <c r="G55" s="253" t="s">
         <v>138</v>
       </c>
-      <c r="H55" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I55" s="206">
+      <c r="H55" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" s="255">
         <v>5</v>
       </c>
-      <c r="J55" s="211"/>
-      <c r="K55" s="207" t="s">
+      <c r="J55" s="258"/>
+      <c r="K55" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="L55" s="205" t="s">
+      <c r="L55" s="254" t="s">
         <v>362</v>
       </c>
       <c r="M55" s="102"/>
       <c r="N55" s="102"/>
     </row>
-    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="201" t="s">
+    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="250" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="201" t="s">
+      <c r="B56" s="250" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="202">
+      <c r="C56" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="251">
         <v>11.98</v>
       </c>
-      <c r="E56" s="203">
-        <v>623</v>
-      </c>
-      <c r="F56" s="204"/>
-      <c r="G56" s="228" t="s">
+      <c r="E56" s="249">
+        <v>618</v>
+      </c>
+      <c r="F56" s="257"/>
+      <c r="G56" s="253" t="s">
         <v>138</v>
       </c>
-      <c r="H56" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I56" s="206">
+      <c r="H56" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="255">
         <v>11</v>
       </c>
-      <c r="J56" s="211">
+      <c r="J56" s="258">
         <v>121988</v>
       </c>
-      <c r="K56" s="207" t="s">
+      <c r="K56" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="L56" s="205" t="s">
+      <c r="L56" s="254" t="s">
         <v>362</v>
       </c>
       <c r="M56" s="102"/>
       <c r="N56" s="102"/>
     </row>
-    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="201" t="s">
         <v>11</v>
       </c>
@@ -4724,7 +4799,7 @@
       <c r="M57" s="102"/>
       <c r="N57" s="102"/>
     </row>
-    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="201" t="s">
         <v>29</v>
       </c>
@@ -4762,117 +4837,117 @@
       <c r="M58" s="102"/>
       <c r="N58" s="102"/>
     </row>
-    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="201" t="s">
+    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="201" t="s">
+      <c r="B59" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="202">
-        <v>1</v>
-      </c>
-      <c r="E59" s="203">
+      <c r="C59" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="251">
+        <v>1</v>
+      </c>
+      <c r="E59" s="249">
         <v>227.49</v>
       </c>
-      <c r="F59" s="210"/>
-      <c r="G59" s="228" t="s">
+      <c r="F59" s="252"/>
+      <c r="G59" s="253" t="s">
         <v>140</v>
       </c>
-      <c r="H59" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I59" s="206">
+      <c r="H59" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="255">
         <v>3</v>
       </c>
-      <c r="J59" s="211"/>
-      <c r="K59" s="207" t="s">
+      <c r="J59" s="258"/>
+      <c r="K59" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="L59" s="205" t="s">
+      <c r="L59" s="254" t="s">
         <v>362</v>
       </c>
       <c r="M59" s="102"/>
       <c r="N59" s="102"/>
     </row>
-    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="201" t="s">
+    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="201" t="s">
+      <c r="B60" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="202">
-        <v>1</v>
-      </c>
-      <c r="E60" s="203">
+      <c r="C60" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="251">
+        <v>1</v>
+      </c>
+      <c r="E60" s="249">
         <v>303.33</v>
       </c>
-      <c r="F60" s="210"/>
-      <c r="G60" s="228" t="s">
+      <c r="F60" s="252"/>
+      <c r="G60" s="253" t="s">
         <v>140</v>
       </c>
-      <c r="H60" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I60" s="206">
+      <c r="H60" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I60" s="255">
         <v>3</v>
       </c>
-      <c r="J60" s="211"/>
-      <c r="K60" s="207" t="s">
+      <c r="J60" s="258"/>
+      <c r="K60" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="L60" s="205" t="s">
+      <c r="L60" s="254" t="s">
         <v>362</v>
       </c>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
     </row>
-    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="201" t="s">
+    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="202">
-        <v>10.757</v>
-      </c>
-      <c r="E61" s="203">
-        <v>275</v>
-      </c>
-      <c r="F61" s="210"/>
-      <c r="G61" s="228" t="s">
+      <c r="C61" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="251">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="E61" s="249">
+        <v>260</v>
+      </c>
+      <c r="F61" s="252"/>
+      <c r="G61" s="253" t="s">
         <v>140</v>
       </c>
-      <c r="H61" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I61" s="206">
+      <c r="H61" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61" s="255">
         <v>7</v>
       </c>
-      <c r="J61" s="211">
+      <c r="J61" s="258">
         <v>371757.99</v>
       </c>
-      <c r="K61" s="207" t="s">
+      <c r="K61" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="L61" s="205" t="s">
+      <c r="L61" s="254" t="s">
         <v>362</v>
       </c>
       <c r="M61" s="102"/>
       <c r="N61" s="102"/>
     </row>
-    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="201" t="s">
         <v>13</v>
       </c>
@@ -4908,7 +4983,7 @@
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
     </row>
-    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="201" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +5019,7 @@
       <c r="M63" s="102"/>
       <c r="N63" s="102"/>
     </row>
-    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="201" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +5057,7 @@
       <c r="M64" s="102"/>
       <c r="N64" s="102"/>
     </row>
-    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="201" t="s">
         <v>14</v>
       </c>
@@ -5018,7 +5093,7 @@
       <c r="M65" s="102"/>
       <c r="N65" s="102"/>
     </row>
-    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="201" t="s">
         <v>14</v>
       </c>
@@ -5054,7 +5129,7 @@
       <c r="M66" s="102"/>
       <c r="N66" s="102"/>
     </row>
-    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="201" t="s">
         <v>31</v>
       </c>
@@ -5092,7 +5167,7 @@
       <c r="M67" s="102"/>
       <c r="N67" s="102"/>
     </row>
-    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="201" t="s">
         <v>23</v>
       </c>
@@ -5103,7 +5178,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="203">
         <v>0</v>
@@ -5130,7 +5205,7 @@
       <c r="M68" s="102"/>
       <c r="N68" s="102"/>
     </row>
-    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="201" t="s">
         <v>31</v>
       </c>
@@ -5168,7 +5243,7 @@
       <c r="M69" s="102"/>
       <c r="N69" s="102"/>
     </row>
-    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="201" t="s">
         <v>15</v>
       </c>
@@ -5204,7 +5279,7 @@
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
     </row>
-    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="201" t="s">
         <v>31</v>
       </c>
@@ -5242,7 +5317,7 @@
       <c r="M71" s="102"/>
       <c r="N71" s="102"/>
     </row>
-    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="229" t="s">
         <v>35</v>
       </c>
@@ -5278,7 +5353,7 @@
       <c r="M72" s="102"/>
       <c r="N72" s="102"/>
     </row>
-    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="201" t="s">
         <v>15</v>
       </c>
@@ -5314,7 +5389,7 @@
       <c r="M73" s="102"/>
       <c r="N73" s="102"/>
     </row>
-    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="201" t="s">
         <v>15</v>
       </c>
@@ -5350,7 +5425,7 @@
       <c r="M74" s="102"/>
       <c r="N74" s="102"/>
     </row>
-    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="201" t="s">
         <v>19</v>
       </c>
@@ -5386,7 +5461,7 @@
       <c r="M75" s="102"/>
       <c r="N75" s="102"/>
     </row>
-    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="201" t="s">
         <v>31</v>
       </c>
@@ -5424,34 +5499,34 @@
       <c r="M76" s="102"/>
       <c r="N76" s="102"/>
     </row>
-    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="201" t="s">
+      <c r="B77" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="202">
-        <v>1</v>
-      </c>
-      <c r="E77" s="203">
+      <c r="C77" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="251">
+        <v>1</v>
+      </c>
+      <c r="E77" s="249">
         <v>537</v>
       </c>
-      <c r="F77" s="212"/>
-      <c r="G77" s="228" t="s">
+      <c r="F77" s="256"/>
+      <c r="G77" s="253" t="s">
         <v>146</v>
       </c>
-      <c r="H77" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I77" s="206">
+      <c r="H77" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I77" s="255">
         <v>5</v>
       </c>
-      <c r="J77" s="211"/>
-      <c r="K77" s="207" t="s">
+      <c r="J77" s="258"/>
+      <c r="K77" s="259" t="s">
         <v>320</v>
       </c>
       <c r="L77" s="205" t="s">
@@ -5460,34 +5535,34 @@
       <c r="M77" s="102"/>
       <c r="N77" s="102"/>
     </row>
-    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="201" t="s">
+      <c r="B78" s="250" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="202">
-        <v>1</v>
-      </c>
-      <c r="E78" s="203">
+      <c r="C78" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="251">
+        <v>1</v>
+      </c>
+      <c r="E78" s="249">
         <v>445</v>
       </c>
-      <c r="F78" s="210"/>
-      <c r="G78" s="228" t="s">
+      <c r="F78" s="252"/>
+      <c r="G78" s="253" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I78" s="206">
+      <c r="H78" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I78" s="255">
         <v>5</v>
       </c>
-      <c r="J78" s="211"/>
-      <c r="K78" s="207" t="s">
+      <c r="J78" s="258"/>
+      <c r="K78" s="259" t="s">
         <v>320</v>
       </c>
       <c r="L78" s="205" t="s">
@@ -5496,36 +5571,36 @@
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
     </row>
-    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="201" t="s">
+      <c r="B79" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="202">
+      <c r="C79" s="260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="261">
         <v>26.035</v>
       </c>
-      <c r="E79" s="203">
+      <c r="E79" s="262">
         <v>615</v>
       </c>
-      <c r="F79" s="212"/>
-      <c r="G79" s="228" t="s">
+      <c r="F79" s="263"/>
+      <c r="G79" s="264" t="s">
         <v>146</v>
       </c>
-      <c r="H79" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I79" s="206">
+      <c r="H79" s="265" t="s">
+        <v>226</v>
+      </c>
+      <c r="I79" s="266">
         <v>7</v>
       </c>
-      <c r="J79" s="211">
+      <c r="J79" s="267">
         <v>453822.6</v>
       </c>
-      <c r="K79" s="207" t="s">
+      <c r="K79" s="268" t="s">
         <v>320</v>
       </c>
       <c r="L79" s="205" t="s">
@@ -5534,7 +5609,7 @@
       <c r="M79" s="102"/>
       <c r="N79" s="102"/>
     </row>
-    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="201" t="s">
         <v>26</v>
       </c>
@@ -5572,30 +5647,30 @@
       <c r="M80" s="102"/>
       <c r="N80" s="102"/>
     </row>
-    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="201" t="s">
+      <c r="B81" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="202">
+      <c r="C81" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="251">
         <v>16</v>
       </c>
-      <c r="E81" s="203">
-        <v>128.58000000000001</v>
-      </c>
-      <c r="F81" s="210"/>
-      <c r="G81" s="228" t="s">
+      <c r="E81" s="249">
+        <v>160</v>
+      </c>
+      <c r="F81" s="252"/>
+      <c r="G81" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="H81" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I81" s="206">
+      <c r="H81" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I81" s="255">
         <v>1</v>
       </c>
       <c r="J81" s="211"/>
@@ -5608,30 +5683,30 @@
       <c r="M81" s="102"/>
       <c r="N81" s="102"/>
     </row>
-    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="201" t="s">
+      <c r="B82" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="202">
+      <c r="C82" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="251">
         <v>3</v>
       </c>
-      <c r="E82" s="203">
-        <v>24.11</v>
-      </c>
-      <c r="F82" s="210"/>
-      <c r="G82" s="228" t="s">
+      <c r="E82" s="249">
+        <v>30</v>
+      </c>
+      <c r="F82" s="252"/>
+      <c r="G82" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="H82" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I82" s="206">
+      <c r="H82" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I82" s="255">
         <v>1</v>
       </c>
       <c r="J82" s="211"/>
@@ -5644,30 +5719,30 @@
       <c r="M82" s="102"/>
       <c r="N82" s="102"/>
     </row>
-    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="201" t="s">
+      <c r="B83" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="202">
+      <c r="C83" s="250" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="251">
         <v>9</v>
       </c>
-      <c r="E83" s="203">
-        <v>72.31</v>
-      </c>
-      <c r="F83" s="212"/>
-      <c r="G83" s="228" t="s">
+      <c r="E83" s="249">
+        <v>90</v>
+      </c>
+      <c r="F83" s="256"/>
+      <c r="G83" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="H83" s="205" t="s">
-        <v>226</v>
-      </c>
-      <c r="I83" s="206">
+      <c r="H83" s="254" t="s">
+        <v>226</v>
+      </c>
+      <c r="I83" s="255">
         <v>1</v>
       </c>
       <c r="J83" s="211"/>
@@ -5680,7 +5755,7 @@
       <c r="M83" s="102"/>
       <c r="N83" s="102"/>
     </row>
-    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="201" t="s">
         <v>18</v>
       </c>
@@ -5716,7 +5791,7 @@
       <c r="M84" s="102"/>
       <c r="N84" s="102"/>
     </row>
-    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="201" t="s">
         <v>18</v>
       </c>
@@ -5752,7 +5827,7 @@
       <c r="M85" s="102"/>
       <c r="N85" s="102"/>
     </row>
-    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="201" t="s">
         <v>19</v>
       </c>
@@ -5788,7 +5863,7 @@
       <c r="M86" s="102"/>
       <c r="N86" s="102"/>
     </row>
-    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="201" t="s">
         <v>21</v>
       </c>
@@ -5824,7 +5899,7 @@
       <c r="M87" s="102"/>
       <c r="N87" s="102"/>
     </row>
-    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="201" t="s">
         <v>23</v>
       </c>
@@ -5860,7 +5935,7 @@
       <c r="M88" s="102"/>
       <c r="N88" s="102"/>
     </row>
-    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="201" t="s">
         <v>23</v>
       </c>
@@ -5896,7 +5971,7 @@
       <c r="M89" s="102"/>
       <c r="N89" s="102"/>
     </row>
-    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="201" t="s">
         <v>15</v>
       </c>
@@ -5932,7 +6007,7 @@
       <c r="M90" s="102"/>
       <c r="N90" s="102"/>
     </row>
-    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="201" t="s">
         <v>16</v>
       </c>
@@ -5968,7 +6043,7 @@
       <c r="M91" s="102"/>
       <c r="N91" s="102"/>
     </row>
-    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="201" t="s">
         <v>33</v>
       </c>
@@ -6006,7 +6081,7 @@
       <c r="M92" s="102"/>
       <c r="N92" s="102"/>
     </row>
-    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="201" t="s">
         <v>389</v>
       </c>
@@ -6042,7 +6117,7 @@
       <c r="M93" s="102"/>
       <c r="N93" s="102"/>
     </row>
-    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="229" t="s">
         <v>35</v>
       </c>
@@ -6078,7 +6153,7 @@
       <c r="M94" s="102"/>
       <c r="N94" s="102"/>
     </row>
-    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="201" t="s">
         <v>19</v>
       </c>
@@ -6114,7 +6189,7 @@
       <c r="M95" s="102"/>
       <c r="N95" s="102"/>
     </row>
-    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="201" t="s">
         <v>24</v>
       </c>
@@ -6150,7 +6225,7 @@
       <c r="M96" s="102"/>
       <c r="N96" s="102"/>
     </row>
-    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="201" t="s">
         <v>26</v>
       </c>
@@ -6188,7 +6263,7 @@
       <c r="M97" s="102"/>
       <c r="N97" s="102"/>
     </row>
-    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="201" t="s">
         <v>33</v>
       </c>
@@ -6226,7 +6301,7 @@
       <c r="M98" s="102"/>
       <c r="N98" s="102"/>
     </row>
-    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="201" t="s">
         <v>35</v>
       </c>
@@ -6239,7 +6314,7 @@
       <c r="D99" s="202">
         <v>4</v>
       </c>
-      <c r="E99" s="250">
+      <c r="E99" s="249">
         <v>41.87</v>
       </c>
       <c r="F99" s="210"/>
@@ -6262,7 +6337,7 @@
       <c r="M99" s="102"/>
       <c r="N99" s="102"/>
     </row>
-    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="201" t="s">
         <v>16</v>
       </c>
@@ -6275,7 +6350,7 @@
       <c r="D100" s="202">
         <v>2</v>
       </c>
-      <c r="E100" s="250">
+      <c r="E100" s="249">
         <v>640.66999999999996</v>
       </c>
       <c r="F100" s="210"/>
@@ -6298,7 +6373,7 @@
       <c r="M100" s="102"/>
       <c r="N100" s="102"/>
     </row>
-    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="201" t="s">
         <v>20</v>
       </c>
@@ -6311,7 +6386,7 @@
       <c r="D101" s="202">
         <v>1</v>
       </c>
-      <c r="E101" s="250">
+      <c r="E101" s="249">
         <v>39.54</v>
       </c>
       <c r="F101" s="210"/>
@@ -6334,7 +6409,7 @@
       <c r="M101" s="102"/>
       <c r="N101" s="102"/>
     </row>
-    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="201" t="s">
         <v>27</v>
       </c>
@@ -6347,7 +6422,7 @@
       <c r="D102" s="202">
         <v>1.925</v>
       </c>
-      <c r="E102" s="250">
+      <c r="E102" s="249">
         <v>32.630000000000003</v>
       </c>
       <c r="F102" s="210"/>
@@ -6372,7 +6447,7 @@
       <c r="M102" s="102"/>
       <c r="N102" s="102"/>
     </row>
-    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="201" t="s">
         <v>33</v>
       </c>
@@ -6385,13 +6460,10 @@
       <c r="D103" s="202">
         <v>4.51</v>
       </c>
-      <c r="E103" s="250">
+      <c r="E103" s="249">
         <v>105.29</v>
       </c>
-      <c r="F103" s="212">
-        <f>SUM(E99:E103)</f>
-        <v>859.99999999999989</v>
-      </c>
+      <c r="F103" s="212"/>
       <c r="G103" s="228" t="s">
         <v>151</v>
       </c>
@@ -6413,7 +6485,7 @@
       <c r="M103" s="102"/>
       <c r="N103" s="102"/>
     </row>
-    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="201" t="s">
         <v>33</v>
       </c>
@@ -6451,7 +6523,7 @@
       <c r="M104" s="102"/>
       <c r="N104" s="102"/>
     </row>
-    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="201" t="s">
         <v>35</v>
       </c>
@@ -6487,7 +6559,7 @@
       <c r="M105" s="102"/>
       <c r="N105" s="102"/>
     </row>
-    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="201" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6595,7 @@
       <c r="M106" s="102"/>
       <c r="N106" s="102"/>
     </row>
-    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="201" t="s">
         <v>20</v>
       </c>
@@ -6559,7 +6631,7 @@
       <c r="M107" s="102"/>
       <c r="N107" s="102"/>
     </row>
-    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="201" t="s">
         <v>24</v>
       </c>
@@ -6595,7 +6667,7 @@
       <c r="M108" s="102"/>
       <c r="N108" s="102"/>
     </row>
-    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="201" t="s">
         <v>25</v>
       </c>
@@ -6631,7 +6703,7 @@
       <c r="M109" s="102"/>
       <c r="N109" s="102"/>
     </row>
-    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="201" t="s">
         <v>27</v>
       </c>
@@ -6669,7 +6741,7 @@
       <c r="M110" s="102"/>
       <c r="N110" s="102"/>
     </row>
-    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="201" t="s">
         <v>27</v>
       </c>
@@ -6707,7 +6779,7 @@
       <c r="M111" s="102"/>
       <c r="N111" s="102"/>
     </row>
-    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="201" t="s">
         <v>34</v>
       </c>
@@ -6745,7 +6817,7 @@
       <c r="M112" s="102"/>
       <c r="N112" s="102"/>
     </row>
-    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="201" t="s">
         <v>17</v>
       </c>
@@ -6781,7 +6853,7 @@
       <c r="M113" s="102"/>
       <c r="N113" s="102"/>
     </row>
-    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="201" t="s">
         <v>17</v>
       </c>
@@ -6817,7 +6889,7 @@
       <c r="M114" s="102"/>
       <c r="N114" s="102"/>
     </row>
-    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="201" t="s">
         <v>20</v>
       </c>
@@ -6853,7 +6925,7 @@
       <c r="M115" s="102"/>
       <c r="N115" s="102"/>
     </row>
-    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="201" t="s">
         <v>26</v>
       </c>
@@ -6889,7 +6961,7 @@
       <c r="M116" s="98"/>
       <c r="N116" s="98"/>
     </row>
-    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="201" t="s">
         <v>26</v>
       </c>
@@ -6925,7 +6997,7 @@
       <c r="M117" s="98"/>
       <c r="N117" s="98"/>
     </row>
-    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="241" t="s">
         <v>352</v>
       </c>
@@ -6939,7 +7011,7 @@
         <v>55</v>
       </c>
       <c r="E118" s="241">
-        <v>1850</v>
+        <v>1618</v>
       </c>
       <c r="F118" s="242"/>
       <c r="G118" s="243" t="s">
@@ -6961,7 +7033,7 @@
       <c r="M118" s="98"/>
       <c r="N118" s="98"/>
     </row>
-    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="201" t="s">
         <v>371</v>
       </c>
@@ -6975,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="222">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F119" s="210"/>
       <c r="G119" s="228" t="s">
@@ -6997,7 +7069,7 @@
       <c r="M119" s="98"/>
       <c r="N119" s="98"/>
     </row>
-    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="201" t="s">
         <v>31</v>
       </c>
@@ -7014,7 +7086,7 @@
         <v>1548.66</v>
       </c>
       <c r="F120" s="239"/>
-      <c r="G120" s="246" t="s">
+      <c r="G120" s="271" t="s">
         <v>404</v>
       </c>
       <c r="H120" s="205" t="s">
@@ -7023,8 +7095,8 @@
       <c r="I120" s="205">
         <v>11</v>
       </c>
-      <c r="J120" s="247"/>
-      <c r="K120" s="247" t="s">
+      <c r="J120" s="246"/>
+      <c r="K120" s="269" t="s">
         <v>320</v>
       </c>
       <c r="L120" s="205" t="s">
@@ -7033,7 +7105,7 @@
       <c r="M120" s="98"/>
       <c r="N120" s="98"/>
     </row>
-    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="201" t="s">
         <v>31</v>
       </c>
@@ -7050,7 +7122,7 @@
         <v>1404.81</v>
       </c>
       <c r="F121" s="239"/>
-      <c r="G121" s="246" t="s">
+      <c r="G121" s="271" t="s">
         <v>405</v>
       </c>
       <c r="H121" s="205" t="s">
@@ -7059,8 +7131,8 @@
       <c r="I121" s="205">
         <v>11</v>
       </c>
-      <c r="J121" s="247"/>
-      <c r="K121" s="247" t="s">
+      <c r="J121" s="246"/>
+      <c r="K121" s="269" t="s">
         <v>320</v>
       </c>
       <c r="L121" s="205" t="s">
@@ -7069,7 +7141,7 @@
       <c r="M121" s="98"/>
       <c r="N121" s="98"/>
     </row>
-    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="201" t="s">
         <v>32</v>
       </c>
@@ -7086,7 +7158,7 @@
         <v>1803.66</v>
       </c>
       <c r="F122" s="223"/>
-      <c r="G122" s="248" t="s">
+      <c r="G122" s="272" t="s">
         <v>350</v>
       </c>
       <c r="H122" s="205" t="s">
@@ -7095,8 +7167,8 @@
       <c r="I122" s="201">
         <v>11</v>
       </c>
-      <c r="J122" s="223"/>
-      <c r="K122" s="247" t="s">
+      <c r="J122" s="273"/>
+      <c r="K122" s="269" t="s">
         <v>320</v>
       </c>
       <c r="L122" s="205" t="s">
@@ -7105,7 +7177,7 @@
       <c r="M122" s="98"/>
       <c r="N122" s="98"/>
     </row>
-    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="201" t="s">
         <v>29</v>
       </c>
@@ -7122,7 +7194,7 @@
         <v>1743.01</v>
       </c>
       <c r="F123" s="223"/>
-      <c r="G123" s="248" t="s">
+      <c r="G123" s="272" t="s">
         <v>351</v>
       </c>
       <c r="H123" s="205" t="s">
@@ -7132,8 +7204,8 @@
         <v>11</v>
       </c>
       <c r="J123" s="223"/>
-      <c r="K123" s="223" t="s">
-        <v>317</v>
+      <c r="K123" s="270" t="s">
+        <v>320</v>
       </c>
       <c r="L123" s="205" t="s">
         <v>362</v>
@@ -7141,7 +7213,7 @@
       <c r="M123" s="98"/>
       <c r="N123" s="98"/>
     </row>
-    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="201" t="s">
         <v>400</v>
       </c>
@@ -7158,7 +7230,7 @@
         <v>1392.29</v>
       </c>
       <c r="F124" s="223"/>
-      <c r="G124" s="248" t="s">
+      <c r="G124" s="272" t="s">
         <v>402</v>
       </c>
       <c r="H124" s="205" t="s">
@@ -7167,9 +7239,9 @@
       <c r="I124" s="201">
         <v>11</v>
       </c>
-      <c r="J124" s="223"/>
-      <c r="K124" s="223" t="s">
-        <v>317</v>
+      <c r="J124" s="248"/>
+      <c r="K124" s="270" t="s">
+        <v>323</v>
       </c>
       <c r="L124" s="205" t="s">
         <v>362</v>
@@ -7177,7 +7249,7 @@
       <c r="M124" s="98"/>
       <c r="N124" s="98"/>
     </row>
-    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="201" t="s">
         <v>399</v>
       </c>
@@ -7188,13 +7260,13 @@
         <v>63</v>
       </c>
       <c r="D125" s="202">
-        <v>5.0449999999999999</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="E125" s="203">
         <v>1509.92</v>
       </c>
       <c r="F125" s="223"/>
-      <c r="G125" s="248" t="s">
+      <c r="G125" s="247" t="s">
         <v>403</v>
       </c>
       <c r="H125" s="205" t="s">
@@ -7203,9 +7275,9 @@
       <c r="I125" s="201">
         <v>11</v>
       </c>
-      <c r="J125" s="223"/>
-      <c r="K125" s="223" t="s">
-        <v>317</v>
+      <c r="J125" s="273"/>
+      <c r="K125" s="270" t="s">
+        <v>323</v>
       </c>
       <c r="L125" s="205" t="s">
         <v>362</v>
@@ -7213,7 +7285,7 @@
       <c r="M125" s="98"/>
       <c r="N125" s="98"/>
     </row>
-    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="201" t="s">
         <v>398</v>
       </c>
@@ -7224,14 +7296,14 @@
         <v>63</v>
       </c>
       <c r="D126" s="202">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="E126" s="203">
         <v>0</v>
       </c>
-      <c r="F126" s="249"/>
-      <c r="G126" s="248" t="s">
-        <v>402</v>
+      <c r="F126" s="248"/>
+      <c r="G126" s="247" t="s">
+        <v>403</v>
       </c>
       <c r="H126" s="205" t="s">
         <v>226</v>
@@ -7240,8 +7312,8 @@
         <v>11</v>
       </c>
       <c r="J126" s="223"/>
-      <c r="K126" s="223" t="s">
-        <v>317</v>
+      <c r="K126" s="270" t="s">
+        <v>319</v>
       </c>
       <c r="L126" s="205" t="s">
         <v>362</v>
@@ -7249,7 +7321,7 @@
       <c r="M126" s="98"/>
       <c r="N126" s="98"/>
     </row>
-    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="201" t="s">
         <v>394</v>
       </c>
@@ -7260,14 +7332,14 @@
         <v>63</v>
       </c>
       <c r="D127" s="221">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E127" s="222">
         <v>0</v>
       </c>
-      <c r="F127" s="249"/>
-      <c r="G127" s="248" t="s">
-        <v>402</v>
+      <c r="F127" s="248"/>
+      <c r="G127" s="247" t="s">
+        <v>403</v>
       </c>
       <c r="H127" s="205" t="s">
         <v>226</v>
@@ -7275,8 +7347,8 @@
       <c r="I127" s="205">
         <v>11</v>
       </c>
-      <c r="J127" s="247"/>
-      <c r="K127" s="247" t="s">
+      <c r="J127" s="246"/>
+      <c r="K127" s="246" t="s">
         <v>317</v>
       </c>
       <c r="L127" s="205" t="s">
@@ -7285,35 +7357,35 @@
       <c r="M127" s="98"/>
       <c r="N127" s="98"/>
     </row>
-    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B128" s="201" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C128" s="201" t="s">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="D128" s="221">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E128" s="222">
-        <v>225</v>
-      </c>
-      <c r="F128" s="223"/>
-      <c r="G128" s="205" t="s">
-        <v>397</v>
+        <v>0</v>
+      </c>
+      <c r="F128" s="248"/>
+      <c r="G128" s="247" t="s">
+        <v>403</v>
       </c>
       <c r="H128" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I128" s="205">
-        <v>14</v>
-      </c>
-      <c r="J128" s="247"/>
-      <c r="K128" s="247" t="s">
-        <v>320</v>
+        <v>11</v>
+      </c>
+      <c r="J128" s="246"/>
+      <c r="K128" s="246" t="s">
+        <v>317</v>
       </c>
       <c r="L128" s="205" t="s">
         <v>362</v>
@@ -7321,57 +7393,57 @@
       <c r="M128" s="98"/>
       <c r="N128" s="98"/>
     </row>
-    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="201" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="B129" s="201" t="s">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="C129" s="201" t="s">
-        <v>63</v>
-      </c>
-      <c r="D129" s="202">
-        <v>10.69</v>
-      </c>
-      <c r="E129" s="203">
-        <v>345.15</v>
-      </c>
-      <c r="F129" s="212"/>
+        <v>359</v>
+      </c>
+      <c r="D129" s="221">
+        <v>5</v>
+      </c>
+      <c r="E129" s="222">
+        <v>225</v>
+      </c>
+      <c r="F129" s="223"/>
       <c r="G129" s="205" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="H129" s="205" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I129" s="205">
-        <v>9</v>
-      </c>
-      <c r="J129" s="211"/>
-      <c r="K129" s="207" t="s">
-        <v>340</v>
+        <v>14</v>
+      </c>
+      <c r="J129" s="246"/>
+      <c r="K129" s="246" t="s">
+        <v>320</v>
       </c>
       <c r="L129" s="205" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M129" s="98"/>
       <c r="N129" s="98"/>
     </row>
-    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="201" t="s">
         <v>46</v>
       </c>
       <c r="B130" s="201" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C130" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D130" s="202">
-        <v>35.520000000000003</v>
+        <v>10.69</v>
       </c>
       <c r="E130" s="203">
-        <v>1137.8499999999999</v>
+        <v>345.15</v>
       </c>
       <c r="F130" s="212"/>
       <c r="G130" s="205" t="s">
@@ -7383,11 +7455,9 @@
       <c r="I130" s="205">
         <v>9</v>
       </c>
-      <c r="J130" s="211">
-        <v>603554.12</v>
-      </c>
+      <c r="J130" s="211"/>
       <c r="K130" s="207" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L130" s="205" t="s">
         <v>363</v>
@@ -7395,59 +7465,61 @@
       <c r="M130" s="98"/>
       <c r="N130" s="98"/>
     </row>
-    <row r="131" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="201" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B131" s="201" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C131" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D131" s="202">
-        <v>30.98</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="E131" s="203">
-        <v>507.2842030049818</v>
-      </c>
-      <c r="F131" s="213"/>
+        <v>1137.8499999999999</v>
+      </c>
+      <c r="F131" s="212"/>
       <c r="G131" s="205" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H131" s="205" t="s">
         <v>227</v>
       </c>
       <c r="I131" s="205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J131" s="211">
-        <v>914740.64</v>
+        <v>603554.12</v>
       </c>
       <c r="K131" s="207" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L131" s="205" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M131" s="98"/>
+      <c r="N131" s="98"/>
+    </row>
+    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" s="201" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C132" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D132" s="202">
-        <v>6.133</v>
+        <v>30.98</v>
       </c>
       <c r="E132" s="203">
-        <v>100.42524264136712</v>
-      </c>
-      <c r="F132" s="210"/>
+        <v>507.2842030049818</v>
+      </c>
+      <c r="F132" s="213"/>
       <c r="G132" s="205" t="s">
         <v>263</v>
       </c>
@@ -7461,29 +7533,29 @@
         <v>914740.64</v>
       </c>
       <c r="K132" s="207" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L132" s="205" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="201" t="s">
         <v>45</v>
       </c>
       <c r="B133" s="201" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C133" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D133" s="202">
-        <v>13.27</v>
+        <v>6.133</v>
       </c>
       <c r="E133" s="203">
-        <v>217.290554353651</v>
-      </c>
-      <c r="F133" s="212"/>
+        <v>100.42524264136712</v>
+      </c>
+      <c r="F133" s="210"/>
       <c r="G133" s="205" t="s">
         <v>263</v>
       </c>
@@ -7497,167 +7569,169 @@
         <v>914740.64</v>
       </c>
       <c r="K133" s="207" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L133" s="205" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="201" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B134" s="201" t="s">
-        <v>348</v>
+        <v>94</v>
       </c>
       <c r="C134" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D134" s="202">
-        <v>1</v>
+        <v>13.27</v>
       </c>
       <c r="E134" s="203">
-        <v>389.57</v>
-      </c>
-      <c r="F134" s="213"/>
+        <v>217.290554353651</v>
+      </c>
+      <c r="F134" s="212"/>
       <c r="G134" s="205" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H134" s="205" t="s">
         <v>227</v>
       </c>
       <c r="I134" s="205">
-        <v>2</v>
-      </c>
-      <c r="J134" s="211"/>
+        <v>8</v>
+      </c>
+      <c r="J134" s="211">
+        <v>914740.64</v>
+      </c>
       <c r="K134" s="207" t="s">
         <v>338</v>
       </c>
       <c r="L134" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="M134" s="98"/>
-      <c r="N134" s="98"/>
-    </row>
-    <row r="135" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="201" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B135" s="201" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="C135" s="201" t="s">
-        <v>286</v>
+        <v>61</v>
       </c>
       <c r="D135" s="202">
-        <v>20.9</v>
+        <v>1</v>
       </c>
       <c r="E135" s="203">
-        <v>552.42999999999995</v>
-      </c>
-      <c r="F135" s="212"/>
+        <v>389.57</v>
+      </c>
+      <c r="F135" s="213"/>
       <c r="G135" s="205" t="s">
         <v>260</v>
       </c>
-      <c r="H135" s="205"/>
+      <c r="H135" s="205" t="s">
+        <v>227</v>
+      </c>
       <c r="I135" s="205">
-        <v>9</v>
-      </c>
-      <c r="J135" s="211">
-        <v>312275.64299999998</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J135" s="211"/>
       <c r="K135" s="207" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L135" s="205" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M135" s="98"/>
+      <c r="N135" s="98"/>
+    </row>
+    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B136" s="201" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C136" s="201" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="D136" s="202">
-        <v>3.56</v>
+        <v>20.9</v>
       </c>
       <c r="E136" s="203">
-        <v>68</v>
-      </c>
-      <c r="F136" s="210"/>
+        <v>552.42999999999995</v>
+      </c>
+      <c r="F136" s="212"/>
       <c r="G136" s="205" t="s">
         <v>260</v>
       </c>
-      <c r="H136" s="205" t="s">
-        <v>227</v>
-      </c>
+      <c r="H136" s="205"/>
       <c r="I136" s="205">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J136" s="211">
-        <v>14852.986999999999</v>
+        <v>312275.64299999998</v>
       </c>
       <c r="K136" s="207" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L136" s="205" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="201" t="s">
-        <v>48</v>
-      </c>
-      <c r="B137" s="214" t="s">
-        <v>365</v>
+        <v>46</v>
+      </c>
+      <c r="B137" s="201" t="s">
+        <v>91</v>
       </c>
       <c r="C137" s="201" t="s">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="D137" s="202">
-        <v>16</v>
+        <v>3.56</v>
       </c>
       <c r="E137" s="203">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F137" s="210"/>
       <c r="G137" s="205" t="s">
         <v>260</v>
       </c>
-      <c r="H137" s="205"/>
+      <c r="H137" s="205" t="s">
+        <v>227</v>
+      </c>
       <c r="I137" s="205">
-        <v>16</v>
-      </c>
-      <c r="J137" s="211"/>
+        <v>10</v>
+      </c>
+      <c r="J137" s="211">
+        <v>14852.986999999999</v>
+      </c>
       <c r="K137" s="207" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L137" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="M137" s="98"/>
-      <c r="N137" s="98"/>
-    </row>
-    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="B138" s="201" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="B138" s="214" t="s">
+        <v>365</v>
       </c>
       <c r="C138" s="201" t="s">
         <v>359</v>
       </c>
       <c r="D138" s="202">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E138" s="203">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F138" s="210"/>
       <c r="G138" s="205" t="s">
@@ -7669,7 +7743,7 @@
       </c>
       <c r="J138" s="211"/>
       <c r="K138" s="207" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L138" s="205" t="s">
         <v>363</v>
@@ -7677,21 +7751,21 @@
       <c r="M138" s="98"/>
       <c r="N138" s="98"/>
     </row>
-    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="201" t="s">
         <v>49</v>
       </c>
       <c r="B139" s="201" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C139" s="201" t="s">
         <v>359</v>
       </c>
       <c r="D139" s="202">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E139" s="203">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F139" s="210"/>
       <c r="G139" s="205" t="s">
@@ -7703,7 +7777,7 @@
       </c>
       <c r="J139" s="211"/>
       <c r="K139" s="207" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L139" s="205" t="s">
         <v>363</v>
@@ -7711,37 +7785,33 @@
       <c r="M139" s="98"/>
       <c r="N139" s="98"/>
     </row>
-    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="201" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B140" s="201" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C140" s="201" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="D140" s="202">
-        <v>10.195</v>
+        <v>10</v>
       </c>
       <c r="E140" s="203">
-        <v>484.75</v>
+        <v>25</v>
       </c>
       <c r="F140" s="210"/>
       <c r="G140" s="205" t="s">
-        <v>264</v>
-      </c>
-      <c r="H140" s="205" t="s">
-        <v>227</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="H140" s="205"/>
       <c r="I140" s="205">
-        <v>8</v>
-      </c>
-      <c r="J140" s="211">
-        <v>792075.56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J140" s="211"/>
       <c r="K140" s="207" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L140" s="205" t="s">
         <v>363</v>
@@ -7749,23 +7819,23 @@
       <c r="M140" s="98"/>
       <c r="N140" s="98"/>
     </row>
-    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="201" t="s">
         <v>45</v>
       </c>
       <c r="B141" s="201" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C141" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D141" s="202">
-        <v>13.837999999999999</v>
+        <v>10.195</v>
       </c>
       <c r="E141" s="203">
-        <v>680.25</v>
-      </c>
-      <c r="F141" s="213"/>
+        <v>484.75</v>
+      </c>
+      <c r="F141" s="210"/>
       <c r="G141" s="205" t="s">
         <v>264</v>
       </c>
@@ -7779,7 +7849,7 @@
         <v>792075.56</v>
       </c>
       <c r="K141" s="207" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L141" s="205" t="s">
         <v>363</v>
@@ -7787,23 +7857,23 @@
       <c r="M141" s="98"/>
       <c r="N141" s="98"/>
     </row>
-    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="201" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B142" s="201" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C142" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D142" s="202">
-        <v>9.75</v>
+        <v>13.837999999999999</v>
       </c>
       <c r="E142" s="203">
-        <v>315</v>
-      </c>
-      <c r="F142" s="204"/>
+        <v>680.25</v>
+      </c>
+      <c r="F142" s="213"/>
       <c r="G142" s="205" t="s">
         <v>264</v>
       </c>
@@ -7811,13 +7881,13 @@
         <v>227</v>
       </c>
       <c r="I142" s="205">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J142" s="211">
-        <v>191943.37</v>
+        <v>792075.56</v>
       </c>
       <c r="K142" s="207" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L142" s="205" t="s">
         <v>363</v>
@@ -7825,31 +7895,35 @@
       <c r="M142" s="98"/>
       <c r="N142" s="98"/>
     </row>
-    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B143" s="201" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C143" s="201" t="s">
-        <v>359</v>
+        <v>63</v>
       </c>
       <c r="D143" s="202">
-        <v>16</v>
+        <v>9.75</v>
       </c>
       <c r="E143" s="203">
-        <v>40</v>
-      </c>
-      <c r="F143" s="215"/>
+        <v>315</v>
+      </c>
+      <c r="F143" s="204"/>
       <c r="G143" s="205" t="s">
         <v>264</v>
       </c>
-      <c r="H143" s="205"/>
+      <c r="H143" s="205" t="s">
+        <v>227</v>
+      </c>
       <c r="I143" s="205">
-        <v>16</v>
-      </c>
-      <c r="J143" s="211"/>
+        <v>10</v>
+      </c>
+      <c r="J143" s="211">
+        <v>191943.37</v>
+      </c>
       <c r="K143" s="207" t="s">
         <v>341</v>
       </c>
@@ -7859,23 +7933,23 @@
       <c r="M143" s="98"/>
       <c r="N143" s="98"/>
     </row>
-    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="201" t="s">
         <v>49</v>
       </c>
       <c r="B144" s="201" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C144" s="201" t="s">
         <v>359</v>
       </c>
       <c r="D144" s="202">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E144" s="203">
-        <v>20</v>
-      </c>
-      <c r="F144" s="216"/>
+        <v>40</v>
+      </c>
+      <c r="F144" s="215"/>
       <c r="G144" s="205" t="s">
         <v>264</v>
       </c>
@@ -7885,7 +7959,7 @@
       </c>
       <c r="J144" s="211"/>
       <c r="K144" s="207" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L144" s="205" t="s">
         <v>363</v>
@@ -7893,35 +7967,33 @@
       <c r="M144" s="98"/>
       <c r="N144" s="98"/>
     </row>
-    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="201" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B145" s="201" t="s">
-        <v>349</v>
+        <v>88</v>
       </c>
       <c r="C145" s="201" t="s">
-        <v>61</v>
+        <v>359</v>
       </c>
       <c r="D145" s="202">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E145" s="203">
-        <v>712.43</v>
-      </c>
-      <c r="F145" s="210"/>
+        <v>20</v>
+      </c>
+      <c r="F145" s="216"/>
       <c r="G145" s="205" t="s">
-        <v>261</v>
-      </c>
-      <c r="H145" s="205" t="s">
-        <v>226</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="H145" s="205"/>
       <c r="I145" s="205">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J145" s="211"/>
       <c r="K145" s="207" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L145" s="205" t="s">
         <v>363</v>
@@ -7929,21 +8001,21 @@
       <c r="M145" s="98"/>
       <c r="N145" s="98"/>
     </row>
-    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="201" t="s">
         <v>43</v>
       </c>
       <c r="B146" s="201" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C146" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D146" s="202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146" s="203">
-        <v>439.67</v>
+        <v>712.43</v>
       </c>
       <c r="F146" s="210"/>
       <c r="G146" s="205" t="s">
@@ -7965,23 +8037,23 @@
       <c r="M146" s="98"/>
       <c r="N146" s="98"/>
     </row>
-    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="201" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B147" s="201" t="s">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="C147" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D147" s="202">
-        <v>3.0710000000000002</v>
+        <v>1</v>
       </c>
       <c r="E147" s="203">
-        <v>57.25</v>
-      </c>
-      <c r="F147" s="212"/>
+        <v>439.67</v>
+      </c>
+      <c r="F147" s="210"/>
       <c r="G147" s="205" t="s">
         <v>261</v>
       </c>
@@ -7989,11 +8061,9 @@
         <v>226</v>
       </c>
       <c r="I147" s="205">
-        <v>11</v>
-      </c>
-      <c r="J147" s="211">
-        <v>25797.654999999999</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J147" s="211"/>
       <c r="K147" s="207" t="s">
         <v>326</v>
       </c>
@@ -8003,33 +8073,35 @@
       <c r="M147" s="98"/>
       <c r="N147" s="98"/>
     </row>
-    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="201" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B148" s="201" t="s">
-        <v>345</v>
+        <v>88</v>
       </c>
       <c r="C148" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D148" s="202">
-        <v>2</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="E148" s="203">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="F148" s="210"/>
+        <v>57.25</v>
+      </c>
+      <c r="F148" s="212"/>
       <c r="G148" s="205" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H148" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I148" s="205">
-        <v>1</v>
-      </c>
-      <c r="J148" s="211"/>
+        <v>11</v>
+      </c>
+      <c r="J148" s="211">
+        <v>25797.654999999999</v>
+      </c>
       <c r="K148" s="207" t="s">
         <v>326</v>
       </c>
@@ -8039,12 +8111,12 @@
       <c r="M148" s="98"/>
       <c r="N148" s="98"/>
     </row>
-    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B149" s="201" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="C149" s="201" t="s">
         <v>61</v>
@@ -8053,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="203">
-        <v>83</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="F149" s="210"/>
       <c r="G149" s="205" t="s">
@@ -8063,7 +8135,7 @@
         <v>226</v>
       </c>
       <c r="I149" s="205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J149" s="211"/>
       <c r="K149" s="207" t="s">
@@ -8075,21 +8147,21 @@
       <c r="M149" s="98"/>
       <c r="N149" s="98"/>
     </row>
-    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="201" t="s">
         <v>44</v>
       </c>
       <c r="B150" s="201" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="C150" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D150" s="202">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="E150" s="203">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F150" s="210"/>
       <c r="G150" s="205" t="s">
@@ -8099,11 +8171,9 @@
         <v>226</v>
       </c>
       <c r="I150" s="205">
-        <v>7</v>
-      </c>
-      <c r="J150" s="211">
-        <v>368599.89</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J150" s="211"/>
       <c r="K150" s="207" t="s">
         <v>326</v>
       </c>
@@ -8113,23 +8183,23 @@
       <c r="M150" s="98"/>
       <c r="N150" s="98"/>
     </row>
-    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="201" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B151" s="201" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C151" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D151" s="202">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="E151" s="203">
-        <v>12</v>
-      </c>
-      <c r="F151" s="212"/>
+        <v>370</v>
+      </c>
+      <c r="F151" s="210"/>
       <c r="G151" s="205" t="s">
         <v>258</v>
       </c>
@@ -8137,9 +8207,11 @@
         <v>226</v>
       </c>
       <c r="I151" s="205">
-        <v>12</v>
-      </c>
-      <c r="J151" s="211"/>
+        <v>7</v>
+      </c>
+      <c r="J151" s="211">
+        <v>368599.89</v>
+      </c>
       <c r="K151" s="207" t="s">
         <v>326</v>
       </c>
@@ -8149,37 +8221,35 @@
       <c r="M151" s="98"/>
       <c r="N151" s="98"/>
     </row>
-    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="201" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B152" s="201" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C152" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D152" s="202">
-        <v>21.94</v>
+        <v>1</v>
       </c>
       <c r="E152" s="203">
-        <v>995</v>
-      </c>
-      <c r="F152" s="217"/>
-      <c r="G152" s="218" t="s">
-        <v>262</v>
+        <v>12</v>
+      </c>
+      <c r="F152" s="212"/>
+      <c r="G152" s="205" t="s">
+        <v>258</v>
       </c>
       <c r="H152" s="205" t="s">
         <v>226</v>
       </c>
-      <c r="I152" s="218">
-        <v>7</v>
-      </c>
-      <c r="J152" s="219">
-        <v>677328</v>
-      </c>
-      <c r="K152" s="220" t="s">
-        <v>327</v>
+      <c r="I152" s="205">
+        <v>12</v>
+      </c>
+      <c r="J152" s="211"/>
+      <c r="K152" s="207" t="s">
+        <v>326</v>
       </c>
       <c r="L152" s="205" t="s">
         <v>363</v>
@@ -8187,34 +8257,36 @@
       <c r="M152" s="98"/>
       <c r="N152" s="98"/>
     </row>
-    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B153" s="201" t="s">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="C153" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D153" s="202">
-        <v>3</v>
+        <v>21.94</v>
       </c>
       <c r="E153" s="203">
-        <v>37</v>
-      </c>
-      <c r="F153" s="210"/>
-      <c r="G153" s="205" t="s">
-        <v>259</v>
+        <v>995</v>
+      </c>
+      <c r="F153" s="217"/>
+      <c r="G153" s="218" t="s">
+        <v>262</v>
       </c>
       <c r="H153" s="205" t="s">
         <v>226</v>
       </c>
-      <c r="I153" s="205">
-        <v>1</v>
-      </c>
-      <c r="J153" s="211"/>
-      <c r="K153" s="207" t="s">
+      <c r="I153" s="218">
+        <v>7</v>
+      </c>
+      <c r="J153" s="219">
+        <v>677328</v>
+      </c>
+      <c r="K153" s="220" t="s">
         <v>327</v>
       </c>
       <c r="L153" s="205" t="s">
@@ -8223,21 +8295,21 @@
       <c r="M153" s="98"/>
       <c r="N153" s="98"/>
     </row>
-    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B154" s="201" t="s">
-        <v>108</v>
+        <v>346</v>
       </c>
       <c r="C154" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D154" s="202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154" s="203">
-        <v>490</v>
+        <v>37</v>
       </c>
       <c r="F154" s="210"/>
       <c r="G154" s="205" t="s">
@@ -8247,7 +8319,7 @@
         <v>226</v>
       </c>
       <c r="I154" s="205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J154" s="211"/>
       <c r="K154" s="207" t="s">
@@ -8259,23 +8331,23 @@
       <c r="M154" s="98"/>
       <c r="N154" s="98"/>
     </row>
-    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="201" t="s">
         <v>44</v>
       </c>
       <c r="B155" s="201" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="C155" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D155" s="202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E155" s="203">
-        <v>300</v>
-      </c>
-      <c r="F155" s="212"/>
+        <v>490</v>
+      </c>
+      <c r="F155" s="210"/>
       <c r="G155" s="205" t="s">
         <v>259</v>
       </c>
@@ -8283,7 +8355,7 @@
         <v>226</v>
       </c>
       <c r="I155" s="205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J155" s="211"/>
       <c r="K155" s="207" t="s">
@@ -8295,23 +8367,23 @@
       <c r="M155" s="98"/>
       <c r="N155" s="98"/>
     </row>
-    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="201" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B156" s="201" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="C156" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D156" s="202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E156" s="203">
-        <v>0</v>
-      </c>
-      <c r="F156" s="210"/>
+        <v>300</v>
+      </c>
+      <c r="F156" s="212"/>
       <c r="G156" s="205" t="s">
         <v>259</v>
       </c>
@@ -8319,7 +8391,7 @@
         <v>226</v>
       </c>
       <c r="I156" s="205">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J156" s="211"/>
       <c r="K156" s="207" t="s">
@@ -8331,57 +8403,57 @@
       <c r="M156" s="98"/>
       <c r="N156" s="98"/>
     </row>
-    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="201" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B157" s="201" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C157" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D157" s="202">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E157" s="203">
-        <v>107.07</v>
+        <v>0</v>
       </c>
       <c r="F157" s="210"/>
       <c r="G157" s="205" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H157" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I157" s="205">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J157" s="211"/>
       <c r="K157" s="207" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L157" s="205" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M157" s="98"/>
       <c r="N157" s="98"/>
     </row>
-    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="201" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B158" s="201" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C158" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D158" s="202">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E158" s="203">
-        <v>301.63</v>
+        <v>107.07</v>
       </c>
       <c r="F158" s="210"/>
       <c r="G158" s="205" t="s">
@@ -8391,7 +8463,7 @@
         <v>226</v>
       </c>
       <c r="I158" s="205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J158" s="211"/>
       <c r="K158" s="207" t="s">
@@ -8403,25 +8475,23 @@
       <c r="M158" s="98"/>
       <c r="N158" s="98"/>
     </row>
-    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B159" s="201" t="s">
         <v>72</v>
       </c>
       <c r="C159" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D159" s="202">
-        <v>13.928000000000001</v>
+        <v>7</v>
       </c>
       <c r="E159" s="203">
-        <v>603.75</v>
-      </c>
-      <c r="F159" s="204" t="s">
-        <v>121</v>
-      </c>
+        <v>301.63</v>
+      </c>
+      <c r="F159" s="210"/>
       <c r="G159" s="205" t="s">
         <v>267</v>
       </c>
@@ -8429,11 +8499,9 @@
         <v>226</v>
       </c>
       <c r="I159" s="205">
-        <v>7</v>
-      </c>
-      <c r="J159" s="211">
-        <v>206690</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J159" s="211"/>
       <c r="K159" s="207" t="s">
         <v>329</v>
       </c>
@@ -8443,24 +8511,24 @@
       <c r="M159" s="98"/>
       <c r="N159" s="98"/>
     </row>
-    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="201" t="s">
-        <v>368</v>
+        <v>54</v>
       </c>
       <c r="B160" s="201" t="s">
-        <v>373</v>
+        <v>72</v>
       </c>
       <c r="C160" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D160" s="202">
-        <v>16.54</v>
+        <v>13.928000000000001</v>
       </c>
       <c r="E160" s="203">
-        <v>541.12</v>
+        <v>603.75</v>
       </c>
       <c r="F160" s="204" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G160" s="205" t="s">
         <v>267</v>
@@ -8469,10 +8537,10 @@
         <v>226</v>
       </c>
       <c r="I160" s="205">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J160" s="211">
-        <v>399171.48</v>
+        <v>206690</v>
       </c>
       <c r="K160" s="207" t="s">
         <v>329</v>
@@ -8483,34 +8551,36 @@
       <c r="M160" s="98"/>
       <c r="N160" s="98"/>
     </row>
-    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="201" t="s">
-        <v>55</v>
+        <v>368</v>
       </c>
       <c r="B161" s="201" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="C161" s="201" t="s">
         <v>63</v>
       </c>
       <c r="D161" s="202">
-        <v>36.58</v>
+        <v>16.54</v>
       </c>
       <c r="E161" s="203">
-        <v>1275</v>
-      </c>
-      <c r="F161" s="210"/>
+        <v>541.12</v>
+      </c>
+      <c r="F161" s="204" t="s">
+        <v>129</v>
+      </c>
       <c r="G161" s="205" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H161" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I161" s="205">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J161" s="211">
-        <v>913100</v>
+        <v>399171.48</v>
       </c>
       <c r="K161" s="207" t="s">
         <v>329</v>
@@ -8521,33 +8591,35 @@
       <c r="M161" s="98"/>
       <c r="N161" s="98"/>
     </row>
-    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="201" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B162" s="201" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C162" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D162" s="202">
-        <v>1</v>
+        <v>36.58</v>
       </c>
       <c r="E162" s="203">
-        <v>221.62</v>
+        <v>1275</v>
       </c>
       <c r="F162" s="210"/>
       <c r="G162" s="205" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H162" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I162" s="205">
-        <v>3</v>
-      </c>
-      <c r="J162" s="211"/>
+        <v>7</v>
+      </c>
+      <c r="J162" s="211">
+        <v>913100</v>
+      </c>
       <c r="K162" s="207" t="s">
         <v>329</v>
       </c>
@@ -8557,12 +8629,12 @@
       <c r="M162" s="98"/>
       <c r="N162" s="98"/>
     </row>
-    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B163" s="201" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C163" s="201" t="s">
         <v>61</v>
@@ -8571,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="203">
-        <v>345.16</v>
+        <v>221.62</v>
       </c>
       <c r="F163" s="210"/>
       <c r="G163" s="205" t="s">
@@ -8593,21 +8665,21 @@
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
     </row>
-    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B164" s="201" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C164" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D164" s="202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164" s="203">
-        <v>578.71</v>
+        <v>345.16</v>
       </c>
       <c r="F164" s="210"/>
       <c r="G164" s="205" t="s">
@@ -8617,7 +8689,7 @@
         <v>226</v>
       </c>
       <c r="I164" s="205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J164" s="211"/>
       <c r="K164" s="207" t="s">
@@ -8629,21 +8701,21 @@
       <c r="M164" s="98"/>
       <c r="N164" s="98"/>
     </row>
-    <row r="165" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="201" t="s">
         <v>54</v>
       </c>
       <c r="B165" s="201" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C165" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D165" s="202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165" s="203">
-        <v>259.36</v>
+        <v>578.71</v>
       </c>
       <c r="F165" s="210"/>
       <c r="G165" s="205" t="s">
@@ -8662,38 +8734,38 @@
       <c r="L165" s="205" t="s">
         <v>364</v>
       </c>
-      <c r="M165" s="194"/>
-      <c r="N165" s="194"/>
-    </row>
-    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M165" s="98"/>
+      <c r="N165" s="98"/>
+    </row>
+    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B166" s="201" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C166" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D166" s="202">
-        <v>34.94</v>
+        <v>1</v>
       </c>
       <c r="E166" s="203">
-        <v>1564</v>
+        <v>259.36</v>
       </c>
       <c r="F166" s="210"/>
       <c r="G166" s="205" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H166" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I166" s="205">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J166" s="211"/>
       <c r="K166" s="207" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L166" s="205" t="s">
         <v>364</v>
@@ -8701,31 +8773,31 @@
       <c r="M166" s="194"/>
       <c r="N166" s="194"/>
     </row>
-    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="201" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B167" s="201" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C167" s="201" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D167" s="202">
-        <v>1</v>
+        <v>34.94</v>
       </c>
       <c r="E167" s="203">
-        <v>270</v>
+        <v>1564</v>
       </c>
       <c r="F167" s="210"/>
       <c r="G167" s="205" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H167" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I167" s="205">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J167" s="211"/>
       <c r="K167" s="207" t="s">
@@ -8737,12 +8809,12 @@
       <c r="M167" s="194"/>
       <c r="N167" s="194"/>
     </row>
-    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="201" t="s">
         <v>50</v>
       </c>
       <c r="B168" s="201" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C168" s="201" t="s">
         <v>61</v>
@@ -8751,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="203">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="F168" s="210"/>
       <c r="G168" s="205" t="s">
@@ -8773,12 +8845,12 @@
       <c r="M168" s="194"/>
       <c r="N168" s="194"/>
     </row>
-    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="201" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B169" s="201" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C169" s="201" t="s">
         <v>61</v>
@@ -8787,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="203">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F169" s="210"/>
       <c r="G169" s="205" t="s">
@@ -8797,7 +8869,7 @@
         <v>226</v>
       </c>
       <c r="I169" s="205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J169" s="211"/>
       <c r="K169" s="207" t="s">
@@ -8809,23 +8881,23 @@
       <c r="M169" s="194"/>
       <c r="N169" s="194"/>
     </row>
-    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B170" s="201" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C170" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D170" s="202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170" s="203">
-        <v>722</v>
-      </c>
-      <c r="F170" s="212"/>
+        <v>290</v>
+      </c>
+      <c r="F170" s="210"/>
       <c r="G170" s="205" t="s">
         <v>270</v>
       </c>
@@ -8845,31 +8917,31 @@
       <c r="M170" s="194"/>
       <c r="N170" s="194"/>
     </row>
-    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="201" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B171" s="201" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C171" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D171" s="202">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E171" s="203">
-        <v>131.28</v>
-      </c>
-      <c r="F171" s="210"/>
+        <v>722</v>
+      </c>
+      <c r="F171" s="212"/>
       <c r="G171" s="205" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H171" s="205" t="s">
         <v>226</v>
       </c>
       <c r="I171" s="205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J171" s="211"/>
       <c r="K171" s="207" t="s">
@@ -8881,21 +8953,21 @@
       <c r="M171" s="194"/>
       <c r="N171" s="194"/>
     </row>
-    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="201" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B172" s="201" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C172" s="201" t="s">
         <v>61</v>
       </c>
       <c r="D172" s="202">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E172" s="203">
-        <v>45.13</v>
+        <v>131.28</v>
       </c>
       <c r="F172" s="210"/>
       <c r="G172" s="205" t="s">
@@ -8905,7 +8977,7 @@
         <v>226</v>
       </c>
       <c r="I172" s="205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J172" s="211"/>
       <c r="K172" s="207" t="s">
@@ -8917,21 +8989,21 @@
       <c r="M172" s="194"/>
       <c r="N172" s="194"/>
     </row>
-    <row r="173" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B173" s="201" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C173" s="201" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D173" s="202">
-        <v>66.043000000000006</v>
+        <v>1</v>
       </c>
       <c r="E173" s="203">
-        <v>1423.59</v>
+        <v>45.13</v>
       </c>
       <c r="F173" s="210"/>
       <c r="G173" s="205" t="s">
@@ -8941,7 +9013,7 @@
         <v>226</v>
       </c>
       <c r="I173" s="205">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J173" s="211"/>
       <c r="K173" s="207" t="s">
@@ -8950,36 +9022,36 @@
       <c r="L173" s="205" t="s">
         <v>364</v>
       </c>
-      <c r="M173" s="195"/>
-      <c r="N173" s="195"/>
+      <c r="M173" s="194"/>
+      <c r="N173" s="194"/>
     </row>
     <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="201" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="B174" s="201" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C174" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="D174" s="221">
-        <v>3.5449999999999999</v>
-      </c>
-      <c r="E174" s="222">
-        <v>1474.48</v>
-      </c>
-      <c r="F174" s="223"/>
-      <c r="G174" s="201" t="s">
-        <v>369</v>
+      <c r="D174" s="202">
+        <v>66.043000000000006</v>
+      </c>
+      <c r="E174" s="203">
+        <v>1423.59</v>
+      </c>
+      <c r="F174" s="210"/>
+      <c r="G174" s="205" t="s">
+        <v>268</v>
       </c>
       <c r="H174" s="205" t="s">
         <v>226</v>
       </c>
-      <c r="I174" s="201">
-        <v>11</v>
-      </c>
-      <c r="J174" s="223"/>
+      <c r="I174" s="205">
+        <v>7</v>
+      </c>
+      <c r="J174" s="211"/>
       <c r="K174" s="207" t="s">
         <v>327</v>
       </c>
@@ -8989,8 +9061,44 @@
       <c r="M174" s="195"/>
       <c r="N174" s="195"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E175" s="177"/>
+    <row r="175" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="B175" s="201" t="s">
+        <v>62</v>
+      </c>
+      <c r="C175" s="201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" s="221">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="E175" s="222">
+        <v>1474.48</v>
+      </c>
+      <c r="F175" s="223"/>
+      <c r="G175" s="201" t="s">
+        <v>369</v>
+      </c>
+      <c r="H175" s="205" t="s">
+        <v>226</v>
+      </c>
+      <c r="I175" s="201">
+        <v>11</v>
+      </c>
+      <c r="J175" s="223"/>
+      <c r="K175" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="L175" s="205" t="s">
+        <v>364</v>
+      </c>
+      <c r="M175" s="195"/>
+      <c r="N175" s="195"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E176" s="177"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9007,7 +9115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9021,33 +9129,33 @@
       <selection activeCell="R2" sqref="R2:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="17.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -9109,7 +9217,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>36</v>
       </c>
@@ -9159,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
@@ -9203,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>36</v>
       </c>
@@ -9253,7 +9361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>36</v>
       </c>
@@ -9301,7 +9409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -9351,7 +9459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>37</v>
       </c>
@@ -9401,7 +9509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
@@ -9449,7 +9557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>37</v>
       </c>
@@ -9495,7 +9603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
@@ -9545,7 +9653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
@@ -9595,7 +9703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
@@ -9643,7 +9751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
@@ -9691,7 +9799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
         <v>39</v>
       </c>
@@ -9739,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
@@ -9781,7 +9889,7 @@
         <v>1280.79</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>40</v>
       </c>
@@ -9827,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
@@ -9875,7 +9983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
         <v>40</v>
       </c>
@@ -9925,7 +10033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
         <v>40</v>
       </c>
@@ -9973,7 +10081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>41</v>
       </c>
@@ -10021,7 +10129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
         <v>41</v>
       </c>
@@ -10069,7 +10177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>41</v>
       </c>
@@ -10117,95 +10225,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -10228,33 +10336,33 @@
       <selection activeCell="R2" sqref="R2:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="18.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="18.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -10316,7 +10424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>42</v>
       </c>
@@ -10362,7 +10470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>43</v>
       </c>
@@ -10408,7 +10516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>44</v>
       </c>
@@ -10454,7 +10562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
@@ -10500,7 +10608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>45</v>
       </c>
@@ -10546,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>45</v>
       </c>
@@ -10594,7 +10702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
         <v>46</v>
       </c>
@@ -10640,7 +10748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
         <v>46</v>
       </c>
@@ -10686,7 +10794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
         <v>46</v>
       </c>
@@ -10732,7 +10840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>47</v>
       </c>
@@ -10778,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
         <v>47</v>
       </c>
@@ -10824,7 +10932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
         <v>47</v>
       </c>
@@ -10870,7 +10978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
         <v>47</v>
       </c>
@@ -10916,7 +11024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
@@ -10962,7 +11070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
         <v>49</v>
       </c>
@@ -11008,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
         <v>49</v>
       </c>
@@ -11054,7 +11162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
         <v>49</v>
       </c>
@@ -11100,7 +11208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>49</v>
       </c>
@@ -11146,93 +11254,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:T19">
     <sortCondition ref="R2:R19"/>
@@ -11258,32 +11366,32 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -11345,7 +11453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>50</v>
       </c>
@@ -11393,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>50</v>
       </c>
@@ -11441,7 +11549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
         <v>50</v>
       </c>
@@ -11491,7 +11599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
         <v>50</v>
       </c>
@@ -11541,7 +11649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>51</v>
       </c>
@@ -11589,7 +11697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
         <v>52</v>
       </c>
@@ -11637,7 +11745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
@@ -11685,7 +11793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>52</v>
       </c>
@@ -11733,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>52</v>
       </c>
@@ -11781,7 +11889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
         <v>53</v>
       </c>
@@ -11829,7 +11937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
         <v>54</v>
       </c>
@@ -11877,7 +11985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
         <v>54</v>
       </c>
@@ -11925,7 +12033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
         <v>54</v>
       </c>
@@ -11973,7 +12081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="74" t="s">
         <v>54</v>
       </c>
@@ -12021,7 +12129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
         <v>55</v>
       </c>
@@ -12069,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
         <v>55</v>
       </c>
@@ -12117,7 +12225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
         <v>55</v>
       </c>
@@ -12165,98 +12273,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" s="92"/>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -12277,7 +12385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12291,34 +12399,34 @@
       <selection activeCell="R2" sqref="R2:T79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="23" width="15.6640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="1"/>
+    <col min="22" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -12389,7 +12497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -12440,7 +12548,7 @@
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
@@ -12491,7 +12599,7 @@
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
     </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>35</v>
       </c>
@@ -12542,7 +12650,7 @@
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
     </row>
-    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -12593,7 +12701,7 @@
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
     </row>
-    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
@@ -12644,7 +12752,7 @@
       <c r="V6" s="35"/>
       <c r="W6" s="35"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
@@ -12695,7 +12803,7 @@
       <c r="V7" s="35"/>
       <c r="W7" s="35"/>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
@@ -12746,7 +12854,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
     </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
@@ -12797,7 +12905,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
     </row>
-    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
@@ -12848,7 +12956,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -12899,7 +13007,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
     </row>
-    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -12950,7 +13058,7 @@
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
     </row>
-    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -13001,7 +13109,7 @@
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
     </row>
-    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
@@ -13052,7 +13160,7 @@
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
     </row>
-    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
@@ -13103,7 +13211,7 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
     </row>
-    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>13</v>
       </c>
@@ -13154,7 +13262,7 @@
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
     </row>
-    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
@@ -13205,7 +13313,7 @@
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
     </row>
-    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
@@ -13256,7 +13364,7 @@
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
     </row>
-    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
@@ -13309,7 +13417,7 @@
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
     </row>
-    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
@@ -13360,7 +13468,7 @@
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
     </row>
-    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
@@ -13413,7 +13521,7 @@
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
     </row>
-    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13574,7 @@
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
     </row>
-    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>16</v>
       </c>
@@ -13517,7 +13625,7 @@
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
     </row>
-    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
@@ -13568,7 +13676,7 @@
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
     </row>
-    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
@@ -13619,7 +13727,7 @@
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
     </row>
-    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
@@ -13670,7 +13778,7 @@
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
     </row>
-    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
@@ -13721,7 +13829,7 @@
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
@@ -13772,7 +13880,7 @@
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
     </row>
-    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>19</v>
       </c>
@@ -13823,7 +13931,7 @@
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
     </row>
-    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
@@ -13874,7 +13982,7 @@
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
     </row>
-    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
@@ -13925,7 +14033,7 @@
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
     </row>
-    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>20</v>
       </c>
@@ -13976,7 +14084,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
     </row>
-    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>20</v>
       </c>
@@ -14027,7 +14135,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
     </row>
-    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>20</v>
       </c>
@@ -14078,7 +14186,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
     </row>
-    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>21</v>
       </c>
@@ -14131,7 +14239,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
     </row>
-    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
@@ -14182,7 +14290,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
     </row>
-    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>22</v>
       </c>
@@ -14233,7 +14341,7 @@
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
     </row>
-    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>22</v>
       </c>
@@ -14284,7 +14392,7 @@
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
     </row>
-    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>23</v>
       </c>
@@ -14335,7 +14443,7 @@
       <c r="V39" s="38"/>
       <c r="W39" s="38"/>
     </row>
-    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>23</v>
       </c>
@@ -14386,7 +14494,7 @@
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
     </row>
-    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>23</v>
       </c>
@@ -14437,7 +14545,7 @@
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
     </row>
-    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>23</v>
       </c>
@@ -14488,7 +14596,7 @@
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
     </row>
-    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>23</v>
       </c>
@@ -14539,7 +14647,7 @@
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
     </row>
-    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>24</v>
       </c>
@@ -14590,7 +14698,7 @@
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
     </row>
-    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
@@ -14641,7 +14749,7 @@
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
     </row>
-    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>24</v>
       </c>
@@ -14692,7 +14800,7 @@
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
     </row>
-    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
         <v>25</v>
       </c>
@@ -14743,7 +14851,7 @@
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
     </row>
-    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>26</v>
       </c>
@@ -14794,7 +14902,7 @@
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
     </row>
-    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>26</v>
       </c>
@@ -14845,7 +14953,7 @@
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
     </row>
-    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>26</v>
       </c>
@@ -14896,7 +15004,7 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
     </row>
-    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>27</v>
       </c>
@@ -14947,7 +15055,7 @@
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
     </row>
-    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>27</v>
       </c>
@@ -14998,7 +15106,7 @@
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
     </row>
-    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>27</v>
       </c>
@@ -15049,7 +15157,7 @@
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
     </row>
-    <row r="54" spans="1:23" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>27</v>
       </c>
@@ -15100,7 +15208,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
     </row>
-    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>28</v>
       </c>
@@ -15151,7 +15259,7 @@
       <c r="V55" s="38"/>
       <c r="W55" s="38"/>
     </row>
-    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>28</v>
       </c>
@@ -15202,7 +15310,7 @@
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
     </row>
-    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>28</v>
       </c>
@@ -15253,7 +15361,7 @@
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
     </row>
-    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>28</v>
       </c>
@@ -15304,7 +15412,7 @@
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
     </row>
-    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>28</v>
       </c>
@@ -15355,7 +15463,7 @@
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
     </row>
-    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>29</v>
       </c>
@@ -15406,7 +15514,7 @@
       <c r="V60" s="38"/>
       <c r="W60" s="38"/>
     </row>
-    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>29</v>
       </c>
@@ -15457,7 +15565,7 @@
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
     </row>
-    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>29</v>
       </c>
@@ -15508,7 +15616,7 @@
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
     </row>
-    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>29</v>
       </c>
@@ -15559,7 +15667,7 @@
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
     </row>
-    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>29</v>
       </c>
@@ -15610,7 +15718,7 @@
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
     </row>
-    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>30</v>
       </c>
@@ -15661,7 +15769,7 @@
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
     </row>
-    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>31</v>
       </c>
@@ -15718,7 +15826,7 @@
       </c>
       <c r="W66" s="35"/>
     </row>
-    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>31</v>
       </c>
@@ -15769,7 +15877,7 @@
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
     </row>
-    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>31</v>
       </c>
@@ -15820,7 +15928,7 @@
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
     </row>
-    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>31</v>
       </c>
@@ -15871,7 +15979,7 @@
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
     </row>
-    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>31</v>
       </c>
@@ -15922,7 +16030,7 @@
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
     </row>
-    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>31</v>
       </c>
@@ -15973,7 +16081,7 @@
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
     </row>
-    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>32</v>
       </c>
@@ -16024,7 +16132,7 @@
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
     </row>
-    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>32</v>
       </c>
@@ -16075,7 +16183,7 @@
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
     </row>
-    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
         <v>33</v>
       </c>
@@ -16126,7 +16234,7 @@
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
     </row>
-    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
         <v>33</v>
       </c>
@@ -16177,7 +16285,7 @@
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
     </row>
-    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
         <v>33</v>
       </c>
@@ -16228,7 +16336,7 @@
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
     </row>
-    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
         <v>33</v>
       </c>
@@ -16279,7 +16387,7 @@
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
     </row>
-    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
         <v>33</v>
       </c>
@@ -16330,7 +16438,7 @@
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
     </row>
-    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="42" t="s">
         <v>34</v>
       </c>
@@ -16381,7 +16489,7 @@
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
     </row>
-    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -16389,95 +16497,95 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="G2:T79">
     <sortCondition ref="R2:R79"/>
@@ -16518,13 +16626,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>315</v>
       </c>
@@ -16532,7 +16640,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="191" t="s">
         <v>185</v>
       </c>
@@ -16540,7 +16648,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="191" t="s">
         <v>187</v>
       </c>
@@ -16548,7 +16656,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="191" t="s">
         <v>188</v>
       </c>
@@ -16556,7 +16664,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="197" t="s">
         <v>189</v>
       </c>
@@ -16564,7 +16672,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="199" t="s">
         <v>190</v>
       </c>
@@ -16572,7 +16680,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="197" t="s">
         <v>191</v>
       </c>
@@ -16580,7 +16688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="197" t="s">
         <v>192</v>
       </c>
@@ -16588,7 +16696,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="197" t="s">
         <v>193</v>
       </c>
@@ -16596,7 +16704,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="191" t="s">
         <v>195</v>
       </c>
@@ -16604,7 +16712,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="191" t="s">
         <v>197</v>
       </c>
@@ -16612,7 +16720,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="191" t="s">
         <v>199</v>
       </c>
@@ -16620,7 +16728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="191" t="s">
         <v>201</v>
       </c>
@@ -16628,7 +16736,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="191" t="s">
         <v>203</v>
       </c>
@@ -16636,7 +16744,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="191" t="s">
         <v>205</v>
       </c>
@@ -16644,7 +16752,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="191" t="s">
         <v>206</v>
       </c>
@@ -16652,7 +16760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="191" t="s">
         <v>207</v>
       </c>
@@ -16660,7 +16768,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="191" t="s">
         <v>208</v>
       </c>
@@ -16668,7 +16776,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="191" t="s">
         <v>209</v>
       </c>
@@ -16676,7 +16784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="191" t="s">
         <v>210</v>
       </c>
@@ -16684,7 +16792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="191" t="s">
         <v>211</v>
       </c>
@@ -16692,7 +16800,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="191" t="s">
         <v>212</v>
       </c>
@@ -16700,7 +16808,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="191" t="s">
         <v>213</v>
       </c>
@@ -16708,7 +16816,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="191" t="s">
         <v>214</v>
       </c>
@@ -16716,7 +16824,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="191" t="s">
         <v>215</v>
       </c>
@@ -16724,7 +16832,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="191" t="s">
         <v>216</v>
       </c>
@@ -16732,7 +16840,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="191" t="s">
         <v>217</v>
       </c>
@@ -16740,7 +16848,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="191" t="s">
         <v>218</v>
       </c>
@@ -16748,7 +16856,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="191" t="s">
         <v>219</v>
       </c>
@@ -16756,7 +16864,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="191" t="s">
         <v>220</v>
       </c>
@@ -16764,7 +16872,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="192" t="s">
         <v>387</v>
       </c>
@@ -16789,25 +16897,25 @@
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -16817,26 +16925,26 @@
       <c r="C1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="274" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251" t="s">
+      <c r="G1" s="274"/>
+      <c r="H1" s="274" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251" t="s">
+      <c r="I1" s="274"/>
+      <c r="J1" s="274" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251" t="s">
+      <c r="K1" s="274"/>
+      <c r="L1" s="274" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="251"/>
+      <c r="M1" s="274"/>
       <c r="N1" s="63" t="s">
         <v>303</v>
       </c>
@@ -16851,7 +16959,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -16893,7 +17001,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>178</v>
       </c>
@@ -16962,7 +17070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>182</v>
       </c>
@@ -17031,7 +17139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>157</v>
       </c>
@@ -17100,7 +17208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>180</v>
       </c>
@@ -17169,7 +17277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>158</v>
       </c>
@@ -17238,7 +17346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>162</v>
       </c>
@@ -17319,7 +17427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>170</v>
       </c>
@@ -17388,7 +17496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>171</v>
       </c>
@@ -17457,7 +17565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>175</v>
       </c>
@@ -17526,7 +17634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>161</v>
       </c>
@@ -17595,7 +17703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="198" t="s">
         <v>160</v>
       </c>
@@ -17664,7 +17772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>181</v>
       </c>
@@ -17733,7 +17841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="173" t="s">
         <v>283</v>
       </c>
@@ -17761,7 +17869,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="173" t="s">
         <v>357</v>
       </c>
@@ -17789,7 +17897,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
@@ -17858,7 +17966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>380</v>
       </c>
@@ -17886,7 +17994,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>381</v>
       </c>
@@ -17914,7 +18022,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
@@ -17947,7 +18055,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>SUM(E3:E17)</f>
         <v>23586.120000000003</v>
@@ -17984,18 +18092,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>304</v>
       </c>
@@ -18024,7 +18132,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>36</v>
       </c>
@@ -18056,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
         <v>36</v>
       </c>
@@ -18086,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>36</v>
       </c>
@@ -18118,7 +18226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
         <v>36</v>
       </c>
@@ -18148,7 +18256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120" t="s">
         <v>36</v>
       </c>
@@ -18180,7 +18288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
         <v>37</v>
       </c>
@@ -18212,7 +18320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>37</v>
       </c>
@@ -18242,7 +18350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
         <v>37</v>
       </c>
@@ -18272,7 +18380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
         <v>37</v>
       </c>
@@ -18304,7 +18412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
         <v>38</v>
       </c>
@@ -18336,7 +18444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>39</v>
       </c>
@@ -18366,7 +18474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
         <v>39</v>
       </c>
@@ -18396,7 +18504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="120" t="s">
         <v>39</v>
       </c>
@@ -18426,7 +18534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="120" t="s">
         <v>39</v>
       </c>
@@ -18456,7 +18564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120" t="s">
         <v>40</v>
       </c>
@@ -18486,7 +18594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="120" t="s">
         <v>40</v>
       </c>
@@ -18518,7 +18626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="120" t="s">
         <v>40</v>
       </c>
@@ -18548,7 +18656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120" t="s">
         <v>40</v>
       </c>
@@ -18578,7 +18686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120" t="s">
         <v>41</v>
       </c>
@@ -18608,7 +18716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120" t="s">
         <v>41</v>
       </c>
@@ -18638,7 +18746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120" t="s">
         <v>41</v>
       </c>
@@ -18668,7 +18776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
         <v>35</v>
       </c>
@@ -18698,7 +18806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
         <v>35</v>
       </c>
@@ -18728,7 +18836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="132" t="s">
         <v>35</v>
       </c>
@@ -18758,7 +18866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="132" t="s">
         <v>9</v>
       </c>
@@ -18788,7 +18896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="132" t="s">
         <v>9</v>
       </c>
@@ -18818,7 +18926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="132" t="s">
         <v>9</v>
       </c>
@@ -18848,7 +18956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="132" t="s">
         <v>10</v>
       </c>
@@ -18878,7 +18986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="132" t="s">
         <v>10</v>
       </c>
@@ -18908,7 +19016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="132" t="s">
         <v>11</v>
       </c>
@@ -18938,7 +19046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="132" t="s">
         <v>11</v>
       </c>
@@ -18968,7 +19076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
@@ -18998,7 +19106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="132" t="s">
         <v>12</v>
       </c>
@@ -19028,7 +19136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="132" t="s">
         <v>12</v>
       </c>
@@ -19058,7 +19166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="132" t="s">
         <v>13</v>
       </c>
@@ -19088,7 +19196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="132" t="s">
         <v>13</v>
       </c>
@@ -19118,7 +19226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="132" t="s">
         <v>14</v>
       </c>
@@ -19148,7 +19256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="132" t="s">
         <v>14</v>
       </c>
@@ -19178,7 +19286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="132" t="s">
         <v>15</v>
       </c>
@@ -19210,7 +19318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="132" t="s">
         <v>15</v>
       </c>
@@ -19240,7 +19348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="132" t="s">
         <v>16</v>
       </c>
@@ -19272,7 +19380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="132" t="s">
         <v>16</v>
       </c>
@@ -19304,7 +19412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="132" t="s">
         <v>16</v>
       </c>
@@ -19334,7 +19442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="132" t="s">
         <v>17</v>
       </c>
@@ -19364,7 +19472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="132" t="s">
         <v>17</v>
       </c>
@@ -19394,7 +19502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="132" t="s">
         <v>18</v>
       </c>
@@ -19424,7 +19532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="132" t="s">
         <v>18</v>
       </c>
@@ -19454,7 +19562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="132" t="s">
         <v>18</v>
       </c>
@@ -19484,7 +19592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="132" t="s">
         <v>19</v>
       </c>
@@ -19514,7 +19622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="132" t="s">
         <v>19</v>
       </c>
@@ -19544,7 +19652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="132" t="s">
         <v>19</v>
       </c>
@@ -19574,7 +19682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="132" t="s">
         <v>20</v>
       </c>
@@ -19604,7 +19712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="132" t="s">
         <v>20</v>
       </c>
@@ -19634,7 +19742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="132" t="s">
         <v>20</v>
       </c>
@@ -19664,7 +19772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="132" t="s">
         <v>21</v>
       </c>
@@ -19696,7 +19804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="132" t="s">
         <v>21</v>
       </c>
@@ -19726,7 +19834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="132" t="s">
         <v>22</v>
       </c>
@@ -19756,7 +19864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="132" t="s">
         <v>22</v>
       </c>
@@ -19786,7 +19894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="132" t="s">
         <v>23</v>
       </c>
@@ -19816,7 +19924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="132" t="s">
         <v>23</v>
       </c>
@@ -19846,7 +19954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="132" t="s">
         <v>23</v>
       </c>
@@ -19876,7 +19984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="132" t="s">
         <v>23</v>
       </c>
@@ -19906,7 +20014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="132" t="s">
         <v>23</v>
       </c>
@@ -19936,7 +20044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="132" t="s">
         <v>24</v>
       </c>
@@ -19966,7 +20074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="132" t="s">
         <v>24</v>
       </c>
@@ -19996,7 +20104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="132" t="s">
         <v>24</v>
       </c>
@@ -20026,7 +20134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="136" t="s">
         <v>25</v>
       </c>
@@ -20056,7 +20164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="132" t="s">
         <v>26</v>
       </c>
@@ -20086,7 +20194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="132" t="s">
         <v>26</v>
       </c>
@@ -20116,7 +20224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="132" t="s">
         <v>26</v>
       </c>
@@ -20146,7 +20254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="132" t="s">
         <v>27</v>
       </c>
@@ -20176,7 +20284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="132" t="s">
         <v>27</v>
       </c>
@@ -20206,7 +20314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="132" t="s">
         <v>27</v>
       </c>
@@ -20236,7 +20344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="132" t="s">
         <v>27</v>
       </c>
@@ -20266,7 +20374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="132" t="s">
         <v>28</v>
       </c>
@@ -20296,7 +20404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="132" t="s">
         <v>28</v>
       </c>
@@ -20326,7 +20434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="132" t="s">
         <v>28</v>
       </c>
@@ -20356,7 +20464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="132" t="s">
         <v>28</v>
       </c>
@@ -20386,7 +20494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="132" t="s">
         <v>28</v>
       </c>
@@ -20416,7 +20524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="132" t="s">
         <v>29</v>
       </c>
@@ -20446,7 +20554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="132" t="s">
         <v>29</v>
       </c>
@@ -20476,7 +20584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="132" t="s">
         <v>29</v>
       </c>
@@ -20506,7 +20614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="132" t="s">
         <v>29</v>
       </c>
@@ -20536,7 +20644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="132" t="s">
         <v>29</v>
       </c>
@@ -20566,7 +20674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="132" t="s">
         <v>30</v>
       </c>
@@ -20596,7 +20704,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="132" t="s">
         <v>31</v>
       </c>
@@ -20626,7 +20734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="132" t="s">
         <v>31</v>
       </c>
@@ -20656,7 +20764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="132" t="s">
         <v>31</v>
       </c>
@@ -20686,7 +20794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="132" t="s">
         <v>31</v>
       </c>
@@ -20716,7 +20824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="132" t="s">
         <v>31</v>
       </c>
@@ -20746,7 +20854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="132" t="s">
         <v>31</v>
       </c>
@@ -20776,7 +20884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="132" t="s">
         <v>32</v>
       </c>
@@ -20806,7 +20914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="132" t="s">
         <v>32</v>
       </c>
@@ -20836,7 +20944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="132" t="s">
         <v>33</v>
       </c>
@@ -20866,7 +20974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="132" t="s">
         <v>33</v>
       </c>
@@ -20896,7 +21004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="132" t="s">
         <v>33</v>
       </c>
@@ -20926,7 +21034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="132" t="s">
         <v>33</v>
       </c>
@@ -20956,7 +21064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="132" t="s">
         <v>33</v>
       </c>
@@ -20986,7 +21094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="136" t="s">
         <v>34</v>
       </c>
@@ -21016,7 +21124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="132" t="s">
         <v>42</v>
       </c>
@@ -21046,7 +21154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="132" t="s">
         <v>43</v>
       </c>
@@ -21076,7 +21184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="132" t="s">
         <v>44</v>
       </c>
@@ -21106,7 +21214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="132" t="s">
         <v>44</v>
       </c>
@@ -21136,7 +21244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A105" s="132" t="s">
         <v>45</v>
       </c>
@@ -21166,7 +21274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="132" t="s">
         <v>45</v>
       </c>
@@ -21198,7 +21306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="132" t="s">
         <v>46</v>
       </c>
@@ -21228,7 +21336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="132" t="s">
         <v>46</v>
       </c>
@@ -21258,7 +21366,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="132" t="s">
         <v>46</v>
       </c>
@@ -21288,7 +21396,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="132" t="s">
         <v>47</v>
       </c>
@@ -21318,7 +21426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="132" t="s">
         <v>47</v>
       </c>
@@ -21348,7 +21456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="132" t="s">
         <v>47</v>
       </c>
@@ -21378,7 +21486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="132" t="s">
         <v>47</v>
       </c>
@@ -21408,7 +21516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="132" t="s">
         <v>48</v>
       </c>
@@ -21438,7 +21546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="132" t="s">
         <v>49</v>
       </c>
@@ -21468,7 +21576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="132" t="s">
         <v>49</v>
       </c>
@@ -21498,7 +21606,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="132" t="s">
         <v>49</v>
       </c>
@@ -21528,7 +21636,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="132" t="s">
         <v>49</v>
       </c>
@@ -21558,7 +21666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="132" t="s">
         <v>50</v>
       </c>
@@ -21588,7 +21696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="132" t="s">
         <v>50</v>
       </c>
@@ -21618,7 +21726,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="132" t="s">
         <v>50</v>
       </c>
@@ -21650,7 +21758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="132" t="s">
         <v>50</v>
       </c>
@@ -21682,7 +21790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="132" t="s">
         <v>51</v>
       </c>
@@ -21712,7 +21820,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="132" t="s">
         <v>52</v>
       </c>
@@ -21742,7 +21850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="132" t="s">
         <v>52</v>
       </c>
@@ -21772,7 +21880,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="132" t="s">
         <v>52</v>
       </c>
@@ -21802,7 +21910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="132" t="s">
         <v>52</v>
       </c>
@@ -21832,7 +21940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="132" t="s">
         <v>53</v>
       </c>
@@ -21862,7 +21970,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="132" t="s">
         <v>54</v>
       </c>
@@ -21892,7 +22000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="132" t="s">
         <v>54</v>
       </c>
@@ -21922,7 +22030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="132" t="s">
         <v>54</v>
       </c>
@@ -21952,7 +22060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="132" t="s">
         <v>54</v>
       </c>
@@ -21982,7 +22090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="132" t="s">
         <v>55</v>
       </c>
@@ -22012,7 +22120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="132" t="s">
         <v>55</v>
       </c>
@@ -22042,7 +22150,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="132" t="s">
         <v>55</v>
       </c>
@@ -22089,18 +22197,18 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>304</v>
       </c>
@@ -22129,7 +22237,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="152" t="s">
         <v>36</v>
       </c>
@@ -22157,7 +22265,7 @@
       </c>
       <c r="J2" s="169"/>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
         <v>40</v>
       </c>
@@ -22185,7 +22293,7 @@
       </c>
       <c r="J3" s="169"/>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="164" t="s">
         <v>23</v>
       </c>
@@ -22213,7 +22321,7 @@
       </c>
       <c r="J4" s="169"/>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
         <v>26</v>
       </c>
@@ -22241,7 +22349,7 @@
       </c>
       <c r="J5" s="170"/>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="164" t="s">
         <v>28</v>
       </c>
@@ -22269,7 +22377,7 @@
       </c>
       <c r="J6" s="169"/>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="164" t="s">
         <v>29</v>
       </c>
@@ -22297,7 +22405,7 @@
       </c>
       <c r="J7" s="169"/>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="164" t="s">
         <v>31</v>
       </c>
@@ -22325,7 +22433,7 @@
       </c>
       <c r="J8" s="169"/>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="164" t="s">
         <v>47</v>
       </c>
@@ -22353,7 +22461,7 @@
       </c>
       <c r="J9" s="169"/>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="164" t="s">
         <v>49</v>
       </c>
@@ -22381,7 +22489,7 @@
       </c>
       <c r="J10" s="169"/>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="164" t="s">
         <v>50</v>
       </c>
@@ -22409,7 +22517,7 @@
       </c>
       <c r="J11" s="169"/>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="164" t="s">
         <v>55</v>
       </c>
@@ -22437,7 +22545,7 @@
       </c>
       <c r="J12" s="169"/>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="152" t="s">
         <v>36</v>
       </c>
@@ -22467,7 +22575,7 @@
       </c>
       <c r="J13" s="169"/>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="164" t="s">
         <v>35</v>
       </c>
@@ -22495,7 +22603,7 @@
       </c>
       <c r="J14" s="169"/>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="164" t="s">
         <v>44</v>
       </c>
@@ -22523,7 +22631,7 @@
       </c>
       <c r="J15" s="169"/>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="152" t="s">
         <v>39</v>
       </c>
@@ -22551,7 +22659,7 @@
       </c>
       <c r="J16" s="169"/>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="152" t="s">
         <v>39</v>
       </c>
@@ -22579,7 +22687,7 @@
       </c>
       <c r="J17" s="169"/>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="152" t="s">
         <v>39</v>
       </c>
@@ -22607,7 +22715,7 @@
       </c>
       <c r="J18" s="169"/>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="164" t="s">
         <v>9</v>
       </c>
@@ -22635,7 +22743,7 @@
       </c>
       <c r="J19" s="169"/>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="164" t="s">
         <v>10</v>
       </c>
@@ -22663,7 +22771,7 @@
       </c>
       <c r="J20" s="169"/>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="164" t="s">
         <v>11</v>
       </c>
@@ -22691,7 +22799,7 @@
       </c>
       <c r="J21" s="169"/>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="164" t="s">
         <v>11</v>
       </c>
@@ -22719,7 +22827,7 @@
       </c>
       <c r="J22" s="169"/>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="164" t="s">
         <v>12</v>
       </c>
@@ -22747,7 +22855,7 @@
       </c>
       <c r="J23" s="169"/>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="164" t="s">
         <v>13</v>
       </c>
@@ -22775,7 +22883,7 @@
       </c>
       <c r="J24" s="169"/>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="164" t="s">
         <v>16</v>
       </c>
@@ -22805,7 +22913,7 @@
       </c>
       <c r="J25" s="169"/>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="164" t="s">
         <v>17</v>
       </c>
@@ -22833,7 +22941,7 @@
       </c>
       <c r="J26" s="169"/>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="164" t="s">
         <v>18</v>
       </c>
@@ -22861,7 +22969,7 @@
       </c>
       <c r="J27" s="169"/>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="164" t="s">
         <v>18</v>
       </c>
@@ -22889,7 +22997,7 @@
       </c>
       <c r="J28" s="169"/>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="164" t="s">
         <v>19</v>
       </c>
@@ -22917,7 +23025,7 @@
       </c>
       <c r="J29" s="169"/>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="164" t="s">
         <v>19</v>
       </c>
@@ -22945,7 +23053,7 @@
       </c>
       <c r="J30" s="169"/>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="164" t="s">
         <v>20</v>
       </c>
@@ -22973,7 +23081,7 @@
       </c>
       <c r="J31" s="169"/>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="164" t="s">
         <v>20</v>
       </c>
@@ -23001,7 +23109,7 @@
       </c>
       <c r="J32" s="169"/>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="164" t="s">
         <v>21</v>
       </c>
@@ -23031,7 +23139,7 @@
       </c>
       <c r="J33" s="169"/>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="164" t="s">
         <v>22</v>
       </c>
@@ -23059,7 +23167,7 @@
       </c>
       <c r="J34" s="169"/>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="164" t="s">
         <v>23</v>
       </c>
@@ -23087,7 +23195,7 @@
       </c>
       <c r="J35" s="169"/>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="164" t="s">
         <v>23</v>
       </c>
@@ -23115,7 +23223,7 @@
       </c>
       <c r="J36" s="169"/>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="164" t="s">
         <v>27</v>
       </c>
@@ -23143,7 +23251,7 @@
       </c>
       <c r="J37" s="169"/>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="164" t="s">
         <v>27</v>
       </c>
@@ -23171,7 +23279,7 @@
       </c>
       <c r="J38" s="169"/>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="164" t="s">
         <v>29</v>
       </c>
@@ -23199,7 +23307,7 @@
       </c>
       <c r="J39" s="169"/>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
@@ -23227,7 +23335,7 @@
       </c>
       <c r="J40" s="169"/>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="164" t="s">
         <v>33</v>
       </c>
@@ -23255,7 +23363,7 @@
       </c>
       <c r="J41" s="169"/>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="164" t="s">
         <v>33</v>
       </c>
@@ -23283,7 +23391,7 @@
       </c>
       <c r="J42" s="169"/>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="164" t="s">
         <v>46</v>
       </c>
@@ -23311,7 +23419,7 @@
       </c>
       <c r="J43" s="169"/>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="164" t="s">
         <v>46</v>
       </c>
@@ -23339,7 +23447,7 @@
       </c>
       <c r="J44" s="169"/>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="164" t="s">
         <v>49</v>
       </c>
@@ -23367,7 +23475,7 @@
       </c>
       <c r="J45" s="169"/>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="164" t="s">
         <v>52</v>
       </c>
@@ -23395,7 +23503,7 @@
       </c>
       <c r="J46" s="169"/>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="164" t="s">
         <v>52</v>
       </c>
@@ -23423,7 +23531,7 @@
       </c>
       <c r="J47" s="169"/>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="164" t="s">
         <v>54</v>
       </c>
@@ -23451,7 +23559,7 @@
       </c>
       <c r="J48" s="169"/>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="164" t="s">
         <v>54</v>
       </c>
@@ -23479,7 +23587,7 @@
       </c>
       <c r="J49" s="169"/>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="152" t="s">
         <v>37</v>
       </c>
@@ -23507,7 +23615,7 @@
       </c>
       <c r="J50" s="169"/>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="152" t="s">
         <v>40</v>
       </c>
@@ -23537,7 +23645,7 @@
       </c>
       <c r="J51" s="169"/>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="164" t="s">
         <v>23</v>
       </c>
@@ -23565,7 +23673,7 @@
       </c>
       <c r="J52" s="169"/>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="164" t="s">
         <v>26</v>
       </c>
@@ -23593,7 +23701,7 @@
       </c>
       <c r="J53" s="169"/>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="164" t="s">
         <v>28</v>
       </c>
@@ -23621,7 +23729,7 @@
       </c>
       <c r="J54" s="169"/>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="164" t="s">
         <v>29</v>
       </c>
@@ -23649,7 +23757,7 @@
       </c>
       <c r="J55" s="169"/>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="164" t="s">
         <v>31</v>
       </c>
@@ -23677,7 +23785,7 @@
       </c>
       <c r="J56" s="169"/>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="164" t="s">
         <v>33</v>
       </c>
@@ -23705,7 +23813,7 @@
       </c>
       <c r="J57" s="169"/>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="164" t="s">
         <v>47</v>
       </c>
@@ -23733,7 +23841,7 @@
       </c>
       <c r="J58" s="169"/>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="164" t="s">
         <v>49</v>
       </c>
@@ -23761,7 +23869,7 @@
       </c>
       <c r="J59" s="169"/>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="164" t="s">
         <v>50</v>
       </c>
@@ -23789,7 +23897,7 @@
       </c>
       <c r="J60" s="169"/>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="164" t="s">
         <v>55</v>
       </c>
@@ -23817,7 +23925,7 @@
       </c>
       <c r="J61" s="169"/>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="152" t="s">
         <v>36</v>
       </c>
@@ -23847,7 +23955,7 @@
       </c>
       <c r="J62" s="169"/>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="152" t="s">
         <v>37</v>
       </c>
@@ -23877,7 +23985,7 @@
       </c>
       <c r="J63" s="169"/>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="152" t="s">
         <v>39</v>
       </c>
@@ -23905,7 +24013,7 @@
       </c>
       <c r="J64" s="169"/>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="152" t="s">
         <v>40</v>
       </c>
@@ -23933,7 +24041,7 @@
       </c>
       <c r="J65" s="169"/>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="152" t="s">
         <v>40</v>
       </c>
@@ -23961,7 +24069,7 @@
       </c>
       <c r="J66" s="169"/>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="164" t="s">
         <v>15</v>
       </c>
@@ -23991,7 +24099,7 @@
       </c>
       <c r="J67" s="169"/>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="164" t="s">
         <v>15</v>
       </c>
@@ -24019,7 +24127,7 @@
       </c>
       <c r="J68" s="169"/>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="164" t="s">
         <v>16</v>
       </c>
@@ -24049,7 +24157,7 @@
       </c>
       <c r="J69" s="169"/>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="164" t="s">
         <v>24</v>
       </c>
@@ -24077,7 +24185,7 @@
       </c>
       <c r="J70" s="169"/>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="164" t="s">
         <v>24</v>
       </c>
@@ -24105,7 +24213,7 @@
       </c>
       <c r="J71" s="169"/>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="164" t="s">
         <v>26</v>
       </c>
@@ -24133,7 +24241,7 @@
       </c>
       <c r="J72" s="169"/>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="164" t="s">
         <v>28</v>
       </c>
@@ -24161,7 +24269,7 @@
       </c>
       <c r="J73" s="169"/>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="164" t="s">
         <v>31</v>
       </c>
@@ -24189,7 +24297,7 @@
       </c>
       <c r="J74" s="169"/>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="164" t="s">
         <v>31</v>
       </c>
@@ -24217,7 +24325,7 @@
       </c>
       <c r="J75" s="169"/>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="164" t="s">
         <v>33</v>
       </c>
@@ -24245,7 +24353,7 @@
       </c>
       <c r="J76" s="169"/>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="164" t="s">
         <v>33</v>
       </c>
@@ -24273,7 +24381,7 @@
       </c>
       <c r="J77" s="169"/>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="164" t="s">
         <v>52</v>
       </c>
@@ -24301,7 +24409,7 @@
       </c>
       <c r="J78" s="169"/>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="164" t="s">
         <v>52</v>
       </c>
@@ -24329,7 +24437,7 @@
       </c>
       <c r="J79" s="169"/>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="164" t="s">
         <v>54</v>
       </c>
@@ -24357,7 +24465,7 @@
       </c>
       <c r="J80" s="169"/>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="164" t="s">
         <v>54</v>
       </c>
@@ -24385,7 +24493,7 @@
       </c>
       <c r="J81" s="169"/>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="152" t="s">
         <v>41</v>
       </c>
@@ -24413,7 +24521,7 @@
       </c>
       <c r="J82" s="169"/>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="152" t="s">
         <v>41</v>
       </c>
@@ -24441,7 +24549,7 @@
       </c>
       <c r="J83" s="169"/>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="164" t="s">
         <v>9</v>
       </c>
@@ -24469,7 +24577,7 @@
       </c>
       <c r="J84" s="169"/>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="164" t="s">
         <v>13</v>
       </c>
@@ -24497,7 +24605,7 @@
       </c>
       <c r="J85" s="169"/>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="164" t="s">
         <v>14</v>
       </c>
@@ -24525,7 +24633,7 @@
       </c>
       <c r="J86" s="169"/>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="164" t="s">
         <v>18</v>
       </c>
@@ -24553,7 +24661,7 @@
       </c>
       <c r="J87" s="169"/>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="164" t="s">
         <v>24</v>
       </c>
@@ -24581,7 +24689,7 @@
       </c>
       <c r="J88" s="169"/>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="168" t="s">
         <v>25</v>
       </c>
@@ -24609,7 +24717,7 @@
       </c>
       <c r="J89" s="169"/>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="164" t="s">
         <v>28</v>
       </c>
@@ -24637,7 +24745,7 @@
       </c>
       <c r="J90" s="169"/>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="164" t="s">
         <v>29</v>
       </c>
@@ -24665,7 +24773,7 @@
       </c>
       <c r="J91" s="169"/>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="164" t="s">
         <v>31</v>
       </c>
@@ -24693,7 +24801,7 @@
       </c>
       <c r="J92" s="169"/>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="164" t="s">
         <v>32</v>
       </c>
@@ -24721,7 +24829,7 @@
       </c>
       <c r="J93" s="169"/>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="164" t="s">
         <v>47</v>
       </c>
@@ -24749,7 +24857,7 @@
       </c>
       <c r="J94" s="170"/>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="164" t="s">
         <v>48</v>
       </c>
@@ -24777,7 +24885,7 @@
       </c>
       <c r="J95" s="169"/>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="164" t="s">
         <v>50</v>
       </c>
@@ -24807,7 +24915,7 @@
       </c>
       <c r="J96" s="169"/>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="164" t="s">
         <v>51</v>
       </c>
@@ -24835,7 +24943,7 @@
       </c>
       <c r="J97" s="169"/>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="164" t="s">
         <v>55</v>
       </c>
@@ -24863,7 +24971,7 @@
       </c>
       <c r="J98" s="169"/>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="152" t="s">
         <v>36</v>
       </c>
@@ -24891,7 +24999,7 @@
       </c>
       <c r="J99" s="169"/>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="152" t="s">
         <v>37</v>
       </c>
@@ -24919,7 +25027,7 @@
       </c>
       <c r="J100" s="169"/>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="164" t="s">
         <v>35</v>
       </c>
@@ -24947,7 +25055,7 @@
       </c>
       <c r="J101" s="169"/>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="164" t="s">
         <v>43</v>
       </c>
@@ -24975,7 +25083,7 @@
       </c>
       <c r="J102" s="169"/>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="164" t="s">
         <v>45</v>
       </c>
@@ -25003,7 +25111,7 @@
       </c>
       <c r="J103" s="169"/>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="164" t="s">
         <v>35</v>
       </c>
@@ -25031,7 +25139,7 @@
       </c>
       <c r="J104" s="169"/>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="164" t="s">
         <v>42</v>
       </c>
@@ -25059,7 +25167,7 @@
       </c>
       <c r="J105" s="169"/>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="164" t="s">
         <v>44</v>
       </c>
@@ -25087,7 +25195,7 @@
       </c>
       <c r="J106" s="169"/>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="152" t="s">
         <v>36</v>
       </c>
@@ -25117,7 +25225,7 @@
       </c>
       <c r="J107" s="169"/>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A108" s="152" t="s">
         <v>37</v>
       </c>
@@ -25147,7 +25255,7 @@
       </c>
       <c r="J108" s="169"/>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="164" t="s">
         <v>44</v>
       </c>
@@ -25175,7 +25283,7 @@
       </c>
       <c r="J109" s="169"/>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A110" s="164" t="s">
         <v>45</v>
       </c>
@@ -25205,7 +25313,7 @@
       </c>
       <c r="J110" s="169"/>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="152" t="s">
         <v>38</v>
       </c>
@@ -25235,7 +25343,7 @@
       </c>
       <c r="J111" s="169"/>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="164" t="s">
         <v>9</v>
       </c>
@@ -25263,7 +25371,7 @@
       </c>
       <c r="J112" s="169"/>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="164" t="s">
         <v>10</v>
       </c>
@@ -25291,7 +25399,7 @@
       </c>
       <c r="J113" s="169"/>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="164" t="s">
         <v>11</v>
       </c>
@@ -25319,7 +25427,7 @@
       </c>
       <c r="J114" s="169"/>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="164" t="s">
         <v>12</v>
       </c>
@@ -25347,7 +25455,7 @@
       </c>
       <c r="J115" s="169"/>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="164" t="s">
         <v>14</v>
       </c>
@@ -25375,7 +25483,7 @@
       </c>
       <c r="J116" s="169"/>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="164" t="s">
         <v>16</v>
       </c>
@@ -25403,7 +25511,7 @@
       </c>
       <c r="J117" s="169"/>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="164" t="s">
         <v>17</v>
       </c>
@@ -25431,7 +25539,7 @@
       </c>
       <c r="J118" s="169"/>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="164" t="s">
         <v>19</v>
       </c>
@@ -25459,7 +25567,7 @@
       </c>
       <c r="J119" s="169"/>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="164" t="s">
         <v>20</v>
       </c>
@@ -25487,7 +25595,7 @@
       </c>
       <c r="J120" s="169"/>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="164" t="s">
         <v>21</v>
       </c>
@@ -25515,7 +25623,7 @@
       </c>
       <c r="J121" s="169"/>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="164" t="s">
         <v>22</v>
       </c>
@@ -25543,7 +25651,7 @@
       </c>
       <c r="J122" s="169"/>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="164" t="s">
         <v>23</v>
       </c>
@@ -25571,7 +25679,7 @@
       </c>
       <c r="J123" s="169"/>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="164" t="s">
         <v>27</v>
       </c>
@@ -25599,7 +25707,7 @@
       </c>
       <c r="J124" s="169"/>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="164" t="s">
         <v>28</v>
       </c>
@@ -25627,7 +25735,7 @@
       </c>
       <c r="J125" s="169"/>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="164" t="s">
         <v>29</v>
       </c>
@@ -25655,7 +25763,7 @@
       </c>
       <c r="J126" s="169"/>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="164" t="s">
         <v>30</v>
       </c>
@@ -25683,7 +25791,7 @@
       </c>
       <c r="J127" s="169"/>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="164" t="s">
         <v>32</v>
       </c>
@@ -25711,7 +25819,7 @@
       </c>
       <c r="J128" s="169"/>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="164" t="s">
         <v>46</v>
       </c>
@@ -25739,7 +25847,7 @@
       </c>
       <c r="J129" s="169"/>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="164" t="s">
         <v>49</v>
       </c>
@@ -25767,7 +25875,7 @@
       </c>
       <c r="J130" s="169"/>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A131" s="164" t="s">
         <v>50</v>
       </c>
@@ -25797,7 +25905,7 @@
       </c>
       <c r="J131" s="169"/>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="164" t="s">
         <v>53</v>
       </c>
@@ -25825,7 +25933,7 @@
       </c>
       <c r="J132" s="169"/>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="152" t="s">
         <v>41</v>
       </c>
@@ -25853,7 +25961,7 @@
       </c>
       <c r="J133" s="169"/>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="164" t="s">
         <v>27</v>
       </c>
@@ -25881,7 +25989,7 @@
       </c>
       <c r="J134" s="169"/>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="164" t="s">
         <v>47</v>
       </c>
@@ -25909,7 +26017,7 @@
       </c>
       <c r="J135" s="169"/>
     </row>
-    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="168" t="s">
         <v>34</v>
       </c>
@@ -25954,9 +26062,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25971,17 +26079,17 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="94" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>273</v>
       </c>
@@ -26001,7 +26109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>274</v>
       </c>
@@ -26028,7 +26136,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>275</v>
       </c>
@@ -26055,7 +26163,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>276</v>
       </c>
@@ -26082,7 +26190,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>277</v>
       </c>
@@ -26109,7 +26217,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>278</v>
       </c>
@@ -26136,7 +26244,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>279</v>
       </c>
@@ -26163,7 +26271,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>280</v>
       </c>
@@ -26190,7 +26298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>281</v>
       </c>
@@ -26217,7 +26325,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>282</v>
       </c>
@@ -26244,7 +26352,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>283</v>
       </c>
@@ -26271,7 +26379,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>290</v>
       </c>
@@ -26298,7 +26406,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
         <v>284</v>
       </c>
@@ -26323,7 +26431,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>239</v>
       </c>
@@ -26357,15 +26465,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>183</v>
       </c>
@@ -26379,7 +26487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>28</v>
       </c>
@@ -26393,7 +26501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>29</v>
       </c>
@@ -26407,7 +26515,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>10</v>
       </c>
@@ -26421,7 +26529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -26435,7 +26543,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -26449,7 +26557,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -26463,7 +26571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -26477,7 +26585,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -26491,7 +26599,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -26505,7 +26613,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -26519,7 +26627,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -26533,7 +26641,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -26547,7 +26655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -26561,7 +26669,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -26575,7 +26683,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -26589,7 +26697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -26603,7 +26711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -26617,7 +26725,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>8</v>
       </c>
@@ -26631,7 +26739,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -26645,7 +26753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -26659,7 +26767,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>11</v>
       </c>
@@ -26673,7 +26781,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -26687,7 +26795,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -26701,7 +26809,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -26715,7 +26823,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -26729,7 +26837,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -26743,7 +26851,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -26757,7 +26865,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -26771,7 +26879,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>12</v>
       </c>

--- a/IMED/DPP_Revised/Revised_package_cost3.xlsx
+++ b/IMED/DPP_Revised/Revised_package_cost3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="Revised" sheetId="15" r:id="rId1"/>
@@ -2681,27 +2681,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="48" style="176" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="177" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="177" customWidth="1"/>
     <col min="4" max="4" width="12" style="175" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="176" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="176" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="177" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="176" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="176" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="177" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="176" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="176" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="176" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="176" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="177" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="176" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="176" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="177" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="176" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="176" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="184" t="s">
         <v>304</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="s">
         <v>374</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="201" t="s">
         <v>374</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="201" t="s">
         <v>36</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="201" t="s">
         <v>36</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="M5" s="98"/>
       <c r="N5" s="98"/>
     </row>
-    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="201" t="s">
         <v>37</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="M6" s="98"/>
       <c r="N6" s="98"/>
     </row>
-    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
         <v>40</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="M7" s="98"/>
       <c r="N7" s="98"/>
     </row>
-    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="201" t="s">
         <v>40</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
     </row>
-    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="201" t="s">
         <v>36</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="M9" s="98"/>
       <c r="N9" s="98"/>
     </row>
-    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="201" t="s">
         <v>379</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="M10" s="98"/>
       <c r="N10" s="98"/>
     </row>
-    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="201" t="s">
         <v>39</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="M11" s="98"/>
       <c r="N11" s="98"/>
     </row>
-    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="201" t="s">
         <v>40</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="201" t="s">
         <v>40</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="M13" s="98"/>
       <c r="N13" s="98"/>
     </row>
-    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="201" t="s">
         <v>36</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="M14" s="98"/>
       <c r="N14" s="98"/>
     </row>
-    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="201" t="s">
         <v>41</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="M15" s="98"/>
       <c r="N15" s="98"/>
     </row>
-    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="201" t="s">
         <v>41</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="M16" s="98"/>
       <c r="N16" s="98"/>
     </row>
-    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201" t="s">
         <v>37</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="201" t="s">
         <v>37</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
     </row>
-    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="201" t="s">
         <v>37</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
     </row>
-    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="201" t="s">
         <v>37</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="98"/>
     </row>
-    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="201" t="s">
         <v>36</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="98"/>
     </row>
-    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="201" t="s">
         <v>379</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="M22" s="98"/>
       <c r="N22" s="98"/>
     </row>
-    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="201" t="s">
         <v>38</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
     </row>
-    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="201" t="s">
         <v>39</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="201" t="s">
         <v>39</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="M25" s="98"/>
       <c r="N25" s="98"/>
     </row>
-    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="201" t="s">
         <v>39</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="M26" s="98"/>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="201" t="s">
         <v>41</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="M27" s="98"/>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="201" t="s">
         <v>384</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="M28" s="193"/>
       <c r="N28" s="193"/>
     </row>
-    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="201" t="s">
         <v>27</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="201" t="s">
         <v>28</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="201" t="s">
         <v>28</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="201" t="s">
         <v>353</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="201" t="s">
         <v>372</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="M33" s="98"/>
       <c r="N33" s="98"/>
     </row>
-    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="201" t="s">
         <v>354</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="M34" s="98"/>
       <c r="N34" s="98"/>
     </row>
-    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="201" t="s">
         <v>355</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="M35" s="98"/>
       <c r="N35" s="98"/>
     </row>
-    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="201" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="M36" s="98"/>
       <c r="N36" s="98"/>
     </row>
-    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="201" t="s">
         <v>26</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="M37" s="98"/>
       <c r="N37" s="98"/>
     </row>
-    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="201" t="s">
         <v>28</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
     </row>
-    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="201" t="s">
         <v>9</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="M39" s="98"/>
       <c r="N39" s="98"/>
     </row>
-    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="201" t="s">
         <v>28</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
     </row>
-    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="201" t="s">
         <v>9</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="M41" s="98"/>
       <c r="N41" s="98"/>
     </row>
-    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="201" t="s">
         <v>10</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="M42" s="98"/>
       <c r="N42" s="98"/>
     </row>
-    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="201" t="s">
         <v>28</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="M43" s="102"/>
       <c r="N43" s="102"/>
     </row>
-    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="201" t="s">
         <v>10</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
     </row>
-    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="201" t="s">
         <v>29</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="M45" s="102"/>
       <c r="N45" s="102"/>
     </row>
-    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="201" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="M46" s="102"/>
       <c r="N46" s="102"/>
     </row>
-    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="201" t="s">
         <v>26</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="M47" s="102"/>
       <c r="N47" s="102"/>
     </row>
-    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="201" t="s">
         <v>26</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="M48" s="102"/>
       <c r="N48" s="102"/>
     </row>
-    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="201" t="s">
         <v>29</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="M49" s="102"/>
       <c r="N49" s="102"/>
     </row>
-    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="201" t="s">
         <v>18</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="M50" s="102"/>
       <c r="N50" s="102"/>
     </row>
-    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="201" t="s">
         <v>21</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
     </row>
-    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="201" t="s">
         <v>22</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
     </row>
-    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="201" t="s">
         <v>22</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="M53" s="102"/>
       <c r="N53" s="102"/>
     </row>
-    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="250" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="M54" s="102"/>
       <c r="N54" s="102"/>
     </row>
-    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="250" t="s">
         <v>23</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="M55" s="102"/>
       <c r="N55" s="102"/>
     </row>
-    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="250" t="s">
         <v>29</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="M56" s="102"/>
       <c r="N56" s="102"/>
     </row>
-    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="201" t="s">
         <v>11</v>
       </c>
@@ -4799,7 +4799,7 @@
       <c r="M57" s="102"/>
       <c r="N57" s="102"/>
     </row>
-    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="201" t="s">
         <v>29</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="M58" s="102"/>
       <c r="N58" s="102"/>
     </row>
-    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="250" t="s">
         <v>12</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="M59" s="102"/>
       <c r="N59" s="102"/>
     </row>
-    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="250" t="s">
         <v>12</v>
       </c>
@@ -4909,7 +4909,7 @@
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
     </row>
-    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="250" t="s">
         <v>26</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="M61" s="102"/>
       <c r="N61" s="102"/>
     </row>
-    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="201" t="s">
         <v>13</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
     </row>
-    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="201" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="M63" s="102"/>
       <c r="N63" s="102"/>
     </row>
-    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="201" t="s">
         <v>31</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="M64" s="102"/>
       <c r="N64" s="102"/>
     </row>
-    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="201" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="M65" s="102"/>
       <c r="N65" s="102"/>
     </row>
-    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="201" t="s">
         <v>14</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="M66" s="102"/>
       <c r="N66" s="102"/>
     </row>
-    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="201" t="s">
         <v>31</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="M67" s="102"/>
       <c r="N67" s="102"/>
     </row>
-    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="201" t="s">
         <v>23</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="M68" s="102"/>
       <c r="N68" s="102"/>
     </row>
-    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="201" t="s">
         <v>31</v>
       </c>
@@ -5243,7 +5243,7 @@
       <c r="M69" s="102"/>
       <c r="N69" s="102"/>
     </row>
-    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="201" t="s">
         <v>15</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
     </row>
-    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="201" t="s">
         <v>31</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="M71" s="102"/>
       <c r="N71" s="102"/>
     </row>
-    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="229" t="s">
         <v>35</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="M72" s="102"/>
       <c r="N72" s="102"/>
     </row>
-    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="201" t="s">
         <v>15</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="M73" s="102"/>
       <c r="N73" s="102"/>
     </row>
-    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="201" t="s">
         <v>15</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="M74" s="102"/>
       <c r="N74" s="102"/>
     </row>
-    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="201" t="s">
         <v>19</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="M75" s="102"/>
       <c r="N75" s="102"/>
     </row>
-    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="201" t="s">
         <v>31</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="M76" s="102"/>
       <c r="N76" s="102"/>
     </row>
-    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="201" t="s">
         <v>23</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="M77" s="102"/>
       <c r="N77" s="102"/>
     </row>
-    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="201" t="s">
         <v>24</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
     </row>
-    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="201" t="s">
         <v>26</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="M79" s="102"/>
       <c r="N79" s="102"/>
     </row>
-    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="201" t="s">
         <v>26</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="M80" s="102"/>
       <c r="N80" s="102"/>
     </row>
-    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="201" t="s">
         <v>35</v>
       </c>
@@ -5683,7 +5683,7 @@
       <c r="M81" s="102"/>
       <c r="N81" s="102"/>
     </row>
-    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="201" t="s">
         <v>35</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="M82" s="102"/>
       <c r="N82" s="102"/>
     </row>
-    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="201" t="s">
         <v>35</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="M83" s="102"/>
       <c r="N83" s="102"/>
     </row>
-    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="201" t="s">
         <v>18</v>
       </c>
@@ -5791,7 +5791,7 @@
       <c r="M84" s="102"/>
       <c r="N84" s="102"/>
     </row>
-    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="201" t="s">
         <v>18</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="M85" s="102"/>
       <c r="N85" s="102"/>
     </row>
-    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="201" t="s">
         <v>19</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="M86" s="102"/>
       <c r="N86" s="102"/>
     </row>
-    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="201" t="s">
         <v>21</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="M87" s="102"/>
       <c r="N87" s="102"/>
     </row>
-    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="201" t="s">
         <v>23</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="M88" s="102"/>
       <c r="N88" s="102"/>
     </row>
-    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="201" t="s">
         <v>23</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="M89" s="102"/>
       <c r="N89" s="102"/>
     </row>
-    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="201" t="s">
         <v>15</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="M90" s="102"/>
       <c r="N90" s="102"/>
     </row>
-    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="201" t="s">
         <v>16</v>
       </c>
@@ -6043,7 +6043,7 @@
       <c r="M91" s="102"/>
       <c r="N91" s="102"/>
     </row>
-    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="201" t="s">
         <v>33</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="M92" s="102"/>
       <c r="N92" s="102"/>
     </row>
-    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="201" t="s">
         <v>389</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="M93" s="102"/>
       <c r="N93" s="102"/>
     </row>
-    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="229" t="s">
         <v>35</v>
       </c>
@@ -6153,7 +6153,7 @@
       <c r="M94" s="102"/>
       <c r="N94" s="102"/>
     </row>
-    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="201" t="s">
         <v>19</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="M95" s="102"/>
       <c r="N95" s="102"/>
     </row>
-    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="201" t="s">
         <v>24</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="M96" s="102"/>
       <c r="N96" s="102"/>
     </row>
-    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="201" t="s">
         <v>26</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="M97" s="102"/>
       <c r="N97" s="102"/>
     </row>
-    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="201" t="s">
         <v>33</v>
       </c>
@@ -6301,7 +6301,7 @@
       <c r="M98" s="102"/>
       <c r="N98" s="102"/>
     </row>
-    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="201" t="s">
         <v>35</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="E99" s="249">
-        <v>41.87</v>
+        <v>47.87</v>
       </c>
       <c r="F99" s="210"/>
       <c r="G99" s="228" t="s">
@@ -6337,7 +6337,7 @@
       <c r="M99" s="102"/>
       <c r="N99" s="102"/>
     </row>
-    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="201" t="s">
         <v>16</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="M100" s="102"/>
       <c r="N100" s="102"/>
     </row>
-    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="201" t="s">
         <v>20</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="M101" s="102"/>
       <c r="N101" s="102"/>
     </row>
-    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="201" t="s">
         <v>27</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="M102" s="102"/>
       <c r="N102" s="102"/>
     </row>
-    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="201" t="s">
         <v>33</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="M103" s="102"/>
       <c r="N103" s="102"/>
     </row>
-    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="201" t="s">
         <v>33</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="M104" s="102"/>
       <c r="N104" s="102"/>
     </row>
-    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="201" t="s">
         <v>35</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="M105" s="102"/>
       <c r="N105" s="102"/>
     </row>
-    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="201" t="s">
         <v>16</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="M106" s="102"/>
       <c r="N106" s="102"/>
     </row>
-    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="201" t="s">
         <v>20</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="M107" s="102"/>
       <c r="N107" s="102"/>
     </row>
-    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="201" t="s">
         <v>24</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="M108" s="102"/>
       <c r="N108" s="102"/>
     </row>
-    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="201" t="s">
         <v>25</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="M109" s="102"/>
       <c r="N109" s="102"/>
     </row>
-    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="201" t="s">
         <v>27</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="M110" s="102"/>
       <c r="N110" s="102"/>
     </row>
-    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="201" t="s">
         <v>27</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="M111" s="102"/>
       <c r="N111" s="102"/>
     </row>
-    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="201" t="s">
         <v>34</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="M112" s="102"/>
       <c r="N112" s="102"/>
     </row>
-    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="201" t="s">
         <v>17</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="M113" s="102"/>
       <c r="N113" s="102"/>
     </row>
-    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="201" t="s">
         <v>17</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="M114" s="102"/>
       <c r="N114" s="102"/>
     </row>
-    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="201" t="s">
         <v>20</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="M115" s="102"/>
       <c r="N115" s="102"/>
     </row>
-    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="201" t="s">
         <v>26</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="M116" s="98"/>
       <c r="N116" s="98"/>
     </row>
-    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="201" t="s">
         <v>26</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="M117" s="98"/>
       <c r="N117" s="98"/>
     </row>
-    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="241" t="s">
         <v>352</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="M118" s="98"/>
       <c r="N118" s="98"/>
     </row>
-    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="201" t="s">
         <v>371</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="M119" s="98"/>
       <c r="N119" s="98"/>
     </row>
-    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="201" t="s">
         <v>31</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="M120" s="98"/>
       <c r="N120" s="98"/>
     </row>
-    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="201" t="s">
         <v>31</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="M121" s="98"/>
       <c r="N121" s="98"/>
     </row>
-    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="201" t="s">
         <v>32</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="M122" s="98"/>
       <c r="N122" s="98"/>
     </row>
-    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="201" t="s">
         <v>29</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="M123" s="98"/>
       <c r="N123" s="98"/>
     </row>
-    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="201" t="s">
         <v>400</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="M124" s="98"/>
       <c r="N124" s="98"/>
     </row>
-    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="201" t="s">
         <v>399</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="M125" s="98"/>
       <c r="N125" s="98"/>
     </row>
-    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="201" t="s">
         <v>398</v>
       </c>
@@ -7321,7 +7321,7 @@
       <c r="M126" s="98"/>
       <c r="N126" s="98"/>
     </row>
-    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="201" t="s">
         <v>394</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="M127" s="98"/>
       <c r="N127" s="98"/>
     </row>
-    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="201" t="s">
         <v>394</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="M128" s="98"/>
       <c r="N128" s="98"/>
     </row>
-    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="201" t="s">
         <v>396</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="M129" s="98"/>
       <c r="N129" s="98"/>
     </row>
-    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="201" t="s">
         <v>46</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="M130" s="98"/>
       <c r="N130" s="98"/>
     </row>
-    <row r="131" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="201" t="s">
         <v>46</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="M131" s="98"/>
       <c r="N131" s="98"/>
     </row>
-    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="201" t="s">
         <v>44</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="201" t="s">
         <v>45</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="201" t="s">
         <v>45</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="201" t="s">
         <v>43</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="M135" s="98"/>
       <c r="N135" s="98"/>
     </row>
-    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="201" t="s">
         <v>45</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="201" t="s">
         <v>46</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="201" t="s">
         <v>48</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="M138" s="98"/>
       <c r="N138" s="98"/>
     </row>
-    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="201" t="s">
         <v>49</v>
       </c>
@@ -7785,7 +7785,7 @@
       <c r="M139" s="98"/>
       <c r="N139" s="98"/>
     </row>
-    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="201" t="s">
         <v>49</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="M140" s="98"/>
       <c r="N140" s="98"/>
     </row>
-    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="201" t="s">
         <v>45</v>
       </c>
@@ -7857,7 +7857,7 @@
       <c r="M141" s="98"/>
       <c r="N141" s="98"/>
     </row>
-    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="201" t="s">
         <v>45</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="M142" s="98"/>
       <c r="N142" s="98"/>
     </row>
-    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="201" t="s">
         <v>47</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="M143" s="98"/>
       <c r="N143" s="98"/>
     </row>
-    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="201" t="s">
         <v>49</v>
       </c>
@@ -7967,7 +7967,7 @@
       <c r="M144" s="98"/>
       <c r="N144" s="98"/>
     </row>
-    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="201" t="s">
         <v>49</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="M145" s="98"/>
       <c r="N145" s="98"/>
     </row>
-    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="201" t="s">
         <v>43</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="M146" s="98"/>
       <c r="N146" s="98"/>
     </row>
-    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="201" t="s">
         <v>43</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="M147" s="98"/>
       <c r="N147" s="98"/>
     </row>
-    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="201" t="s">
         <v>47</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="M148" s="98"/>
       <c r="N148" s="98"/>
     </row>
-    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="201" t="s">
         <v>42</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="M149" s="98"/>
       <c r="N149" s="98"/>
     </row>
-    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="201" t="s">
         <v>44</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="M150" s="98"/>
       <c r="N150" s="98"/>
     </row>
-    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="201" t="s">
         <v>44</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="M151" s="98"/>
       <c r="N151" s="98"/>
     </row>
-    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="201" t="s">
         <v>47</v>
       </c>
@@ -8257,7 +8257,7 @@
       <c r="M152" s="98"/>
       <c r="N152" s="98"/>
     </row>
-    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="201" t="s">
         <v>44</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="M153" s="98"/>
       <c r="N153" s="98"/>
     </row>
-    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="201" t="s">
         <v>42</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="M154" s="98"/>
       <c r="N154" s="98"/>
     </row>
-    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="201" t="s">
         <v>44</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="M155" s="98"/>
       <c r="N155" s="98"/>
     </row>
-    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="201" t="s">
         <v>44</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="M156" s="98"/>
       <c r="N156" s="98"/>
     </row>
-    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="201" t="s">
         <v>47</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="M157" s="98"/>
       <c r="N157" s="98"/>
     </row>
-    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="201" t="s">
         <v>50</v>
       </c>
@@ -8475,7 +8475,7 @@
       <c r="M158" s="98"/>
       <c r="N158" s="98"/>
     </row>
-    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="201" t="s">
         <v>52</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="M159" s="98"/>
       <c r="N159" s="98"/>
     </row>
-    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="201" t="s">
         <v>54</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="M160" s="98"/>
       <c r="N160" s="98"/>
     </row>
-    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="201" t="s">
         <v>368</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="M161" s="98"/>
       <c r="N161" s="98"/>
     </row>
-    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="201" t="s">
         <v>55</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="M162" s="98"/>
       <c r="N162" s="98"/>
     </row>
-    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="201" t="s">
         <v>51</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
     </row>
-    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="201" t="s">
         <v>52</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="M164" s="98"/>
       <c r="N164" s="98"/>
     </row>
-    <row r="165" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="201" t="s">
         <v>54</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="M165" s="98"/>
       <c r="N165" s="98"/>
     </row>
-    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="201" t="s">
         <v>54</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="M166" s="194"/>
       <c r="N166" s="194"/>
     </row>
-    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="201" t="s">
         <v>55</v>
       </c>
@@ -8809,7 +8809,7 @@
       <c r="M167" s="194"/>
       <c r="N167" s="194"/>
     </row>
-    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="201" t="s">
         <v>50</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="M168" s="194"/>
       <c r="N168" s="194"/>
     </row>
-    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="201" t="s">
         <v>50</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="M169" s="194"/>
       <c r="N169" s="194"/>
     </row>
-    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="201" t="s">
         <v>52</v>
       </c>
@@ -8917,7 +8917,7 @@
       <c r="M170" s="194"/>
       <c r="N170" s="194"/>
     </row>
-    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="201" t="s">
         <v>53</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="M171" s="194"/>
       <c r="N171" s="194"/>
     </row>
-    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="201" t="s">
         <v>50</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="M172" s="194"/>
       <c r="N172" s="194"/>
     </row>
-    <row r="173" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="201" t="s">
         <v>52</v>
       </c>
@@ -9025,7 +9025,7 @@
       <c r="M173" s="194"/>
       <c r="N173" s="194"/>
     </row>
-    <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="201" t="s">
         <v>54</v>
       </c>
@@ -9061,7 +9061,7 @@
       <c r="M174" s="195"/>
       <c r="N174" s="195"/>
     </row>
-    <row r="175" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="201" t="s">
         <v>395</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="M175" s="195"/>
       <c r="N175" s="195"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E176" s="177"/>
     </row>
   </sheetData>
@@ -9115,7 +9115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9129,33 +9129,33 @@
       <selection activeCell="R2" sqref="R2:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="4" customWidth="1"/>
-    <col min="17" max="18" width="17.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="17.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>36</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>36</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>36</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>37</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>37</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>39</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>1280.79</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>40</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>40</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>40</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>41</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>41</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>41</v>
       </c>
@@ -10225,95 +10225,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -10336,33 +10336,33 @@
       <selection activeCell="R2" sqref="R2:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="18.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="18.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" style="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>42</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>43</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>44</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>45</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>45</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>46</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>46</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>46</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
         <v>47</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
         <v>47</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
         <v>47</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
         <v>47</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>49</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>49</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
         <v>49</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
         <v>49</v>
       </c>
@@ -11254,93 +11254,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:T19">
     <sortCondition ref="R2:R19"/>
@@ -11366,32 +11366,32 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>50</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>50</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>50</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>50</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>51</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>52</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>52</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
         <v>52</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>53</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
         <v>54</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
         <v>54</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
         <v>54</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>54</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>55</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>55</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
         <v>55</v>
       </c>
@@ -12273,98 +12273,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I19" s="92"/>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -12385,7 +12385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12399,34 +12399,34 @@
       <selection activeCell="R2" sqref="R2:T79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="72.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="23" width="15.7109375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="23" width="15.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -12548,7 +12548,7 @@
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
@@ -12599,7 +12599,7 @@
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
     </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>35</v>
       </c>
@@ -12650,7 +12650,7 @@
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
     </row>
-    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -12701,7 +12701,7 @@
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
     </row>
-    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
@@ -12752,7 +12752,7 @@
       <c r="V6" s="35"/>
       <c r="W6" s="35"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="V7" s="35"/>
       <c r="W7" s="35"/>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
@@ -12854,7 +12854,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
     </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
@@ -12905,7 +12905,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
     </row>
-    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -13007,7 +13007,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
     </row>
-    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
     </row>
-    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -13109,7 +13109,7 @@
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
     </row>
-    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
@@ -13160,7 +13160,7 @@
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
     </row>
-    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
@@ -13211,7 +13211,7 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
     </row>
-    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>13</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
     </row>
-    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
@@ -13313,7 +13313,7 @@
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
     </row>
-    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
@@ -13364,7 +13364,7 @@
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
     </row>
-    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
@@ -13417,7 +13417,7 @@
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
     </row>
-    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
     </row>
-    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
@@ -13521,7 +13521,7 @@
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
     </row>
-    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>16</v>
       </c>
@@ -13574,7 +13574,7 @@
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
     </row>
-    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>16</v>
       </c>
@@ -13625,7 +13625,7 @@
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
     </row>
-    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
@@ -13676,7 +13676,7 @@
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
     </row>
-    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
     </row>
-    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
     </row>
-    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
@@ -13829,7 +13829,7 @@
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
@@ -13880,7 +13880,7 @@
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
     </row>
-    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>19</v>
       </c>
@@ -13931,7 +13931,7 @@
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
     </row>
-    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
@@ -13982,7 +13982,7 @@
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
     </row>
-    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
@@ -14033,7 +14033,7 @@
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
     </row>
-    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>20</v>
       </c>
@@ -14084,7 +14084,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
     </row>
-    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>20</v>
       </c>
@@ -14135,7 +14135,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
     </row>
-    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>20</v>
       </c>
@@ -14186,7 +14186,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
     </row>
-    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>21</v>
       </c>
@@ -14239,7 +14239,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
     </row>
-    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
     </row>
-    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>22</v>
       </c>
@@ -14341,7 +14341,7 @@
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
     </row>
-    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>22</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
     </row>
-    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>23</v>
       </c>
@@ -14443,7 +14443,7 @@
       <c r="V39" s="38"/>
       <c r="W39" s="38"/>
     </row>
-    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>23</v>
       </c>
@@ -14494,7 +14494,7 @@
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
     </row>
-    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>23</v>
       </c>
@@ -14545,7 +14545,7 @@
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
     </row>
-    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>23</v>
       </c>
@@ -14596,7 +14596,7 @@
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
     </row>
-    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>23</v>
       </c>
@@ -14647,7 +14647,7 @@
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
     </row>
-    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>24</v>
       </c>
@@ -14698,7 +14698,7 @@
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
     </row>
-    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
@@ -14749,7 +14749,7 @@
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
     </row>
-    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>24</v>
       </c>
@@ -14800,7 +14800,7 @@
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
     </row>
-    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>25</v>
       </c>
@@ -14851,7 +14851,7 @@
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
     </row>
-    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
         <v>26</v>
       </c>
@@ -14902,7 +14902,7 @@
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
     </row>
-    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>26</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
     </row>
-    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>26</v>
       </c>
@@ -15004,7 +15004,7 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
     </row>
-    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
         <v>27</v>
       </c>
@@ -15055,7 +15055,7 @@
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
     </row>
-    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>27</v>
       </c>
@@ -15106,7 +15106,7 @@
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
     </row>
-    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
         <v>27</v>
       </c>
@@ -15157,7 +15157,7 @@
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
     </row>
-    <row r="54" spans="1:23" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>27</v>
       </c>
@@ -15208,7 +15208,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
     </row>
-    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>28</v>
       </c>
@@ -15259,7 +15259,7 @@
       <c r="V55" s="38"/>
       <c r="W55" s="38"/>
     </row>
-    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
         <v>28</v>
       </c>
@@ -15310,7 +15310,7 @@
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
     </row>
-    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
         <v>28</v>
       </c>
@@ -15361,7 +15361,7 @@
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
     </row>
-    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>28</v>
       </c>
@@ -15412,7 +15412,7 @@
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
     </row>
-    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
         <v>28</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
     </row>
-    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
         <v>29</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="V60" s="38"/>
       <c r="W60" s="38"/>
     </row>
-    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
         <v>29</v>
       </c>
@@ -15565,7 +15565,7 @@
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
     </row>
-    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
         <v>29</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
     </row>
-    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
         <v>29</v>
       </c>
@@ -15667,7 +15667,7 @@
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
     </row>
-    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27" t="s">
         <v>29</v>
       </c>
@@ -15718,7 +15718,7 @@
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
     </row>
-    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
         <v>30</v>
       </c>
@@ -15769,7 +15769,7 @@
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
     </row>
-    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>31</v>
       </c>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="W66" s="35"/>
     </row>
-    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>31</v>
       </c>
@@ -15877,7 +15877,7 @@
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
     </row>
-    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
         <v>31</v>
       </c>
@@ -15928,7 +15928,7 @@
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
     </row>
-    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
         <v>31</v>
       </c>
@@ -15979,7 +15979,7 @@
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
     </row>
-    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
         <v>31</v>
       </c>
@@ -16030,7 +16030,7 @@
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
     </row>
-    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>31</v>
       </c>
@@ -16081,7 +16081,7 @@
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
     </row>
-    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>32</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
     </row>
-    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
         <v>32</v>
       </c>
@@ -16183,7 +16183,7 @@
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
     </row>
-    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>33</v>
       </c>
@@ -16234,7 +16234,7 @@
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
     </row>
-    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>33</v>
       </c>
@@ -16285,7 +16285,7 @@
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
     </row>
-    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>33</v>
       </c>
@@ -16336,7 +16336,7 @@
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
     </row>
-    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>33</v>
       </c>
@@ -16387,7 +16387,7 @@
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
     </row>
-    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>33</v>
       </c>
@@ -16438,7 +16438,7 @@
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
     </row>
-    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="42" t="s">
         <v>34</v>
       </c>
@@ -16489,7 +16489,7 @@
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
     </row>
-    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -16497,95 +16497,95 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState ref="G2:T79">
     <sortCondition ref="R2:R79"/>
@@ -16626,13 +16626,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>315</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="191" t="s">
         <v>185</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="191" t="s">
         <v>187</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="191" t="s">
         <v>188</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="197" t="s">
         <v>189</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="199" t="s">
         <v>190</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="197" t="s">
         <v>191</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="197" t="s">
         <v>192</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="197" t="s">
         <v>193</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="191" t="s">
         <v>195</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="191" t="s">
         <v>197</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="191" t="s">
         <v>199</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="191" t="s">
         <v>201</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="191" t="s">
         <v>203</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="191" t="s">
         <v>205</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="191" t="s">
         <v>206</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="191" t="s">
         <v>207</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="191" t="s">
         <v>208</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="191" t="s">
         <v>209</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="191" t="s">
         <v>210</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="191" t="s">
         <v>211</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="191" t="s">
         <v>212</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="191" t="s">
         <v>213</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="191" t="s">
         <v>214</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="191" t="s">
         <v>215</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="191" t="s">
         <v>216</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="191" t="s">
         <v>217</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="191" t="s">
         <v>218</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="191" t="s">
         <v>219</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="191" t="s">
         <v>220</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="192" t="s">
         <v>387</v>
       </c>
@@ -16897,25 +16897,25 @@
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="13.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -16959,7 +16959,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="172"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -17001,7 +17001,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>178</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>182</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>157</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>180</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>158</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>162</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>170</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>171</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>175</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>161</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="198" t="s">
         <v>160</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>181</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="173" t="s">
         <v>283</v>
       </c>
@@ -17869,7 +17869,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="173" t="s">
         <v>357</v>
       </c>
@@ -17897,7 +17897,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="174" t="s">
         <v>380</v>
       </c>
@@ -17994,7 +17994,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="174" t="s">
         <v>381</v>
       </c>
@@ -18022,7 +18022,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
@@ -18055,7 +18055,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E21">
         <f>SUM(E3:E17)</f>
         <v>23586.120000000003</v>
@@ -18092,18 +18092,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>304</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>36</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="120" t="s">
         <v>36</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>36</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
         <v>36</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120" t="s">
         <v>36</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="120" t="s">
         <v>37</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="120" t="s">
         <v>37</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
         <v>37</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="120" t="s">
         <v>37</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="120" t="s">
         <v>38</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="120" t="s">
         <v>39</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="120" t="s">
         <v>39</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="120" t="s">
         <v>39</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="120" t="s">
         <v>39</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="120" t="s">
         <v>40</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="120" t="s">
         <v>40</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="120" t="s">
         <v>40</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120" t="s">
         <v>40</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="120" t="s">
         <v>41</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="120" t="s">
         <v>41</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="120" t="s">
         <v>41</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="132" t="s">
         <v>35</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="132" t="s">
         <v>35</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="132" t="s">
         <v>35</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="132" t="s">
         <v>9</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="132" t="s">
         <v>9</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="132" t="s">
         <v>9</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="132" t="s">
         <v>10</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="132" t="s">
         <v>10</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="132" t="s">
         <v>11</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="132" t="s">
         <v>11</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="132" t="s">
         <v>12</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="132" t="s">
         <v>12</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="132" t="s">
         <v>13</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="132" t="s">
         <v>13</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="132" t="s">
         <v>14</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="132" t="s">
         <v>14</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="132" t="s">
         <v>15</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="132" t="s">
         <v>15</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="132" t="s">
         <v>16</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="132" t="s">
         <v>16</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="132" t="s">
         <v>16</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="132" t="s">
         <v>17</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="132" t="s">
         <v>17</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="132" t="s">
         <v>18</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="132" t="s">
         <v>18</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="132" t="s">
         <v>18</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="132" t="s">
         <v>19</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="132" t="s">
         <v>19</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="132" t="s">
         <v>19</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="132" t="s">
         <v>20</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="132" t="s">
         <v>20</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="132" t="s">
         <v>20</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="132" t="s">
         <v>21</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="132" t="s">
         <v>21</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="132" t="s">
         <v>22</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="132" t="s">
         <v>22</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="132" t="s">
         <v>23</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="132" t="s">
         <v>23</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="132" t="s">
         <v>23</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="132" t="s">
         <v>23</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="132" t="s">
         <v>23</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="132" t="s">
         <v>24</v>
       </c>
@@ -20074,7 +20074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="132" t="s">
         <v>24</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="132" t="s">
         <v>24</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="136" t="s">
         <v>25</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="132" t="s">
         <v>26</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="132" t="s">
         <v>26</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="132" t="s">
         <v>26</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="132" t="s">
         <v>27</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="132" t="s">
         <v>27</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="132" t="s">
         <v>27</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="132" t="s">
         <v>27</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="132" t="s">
         <v>28</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="132" t="s">
         <v>28</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="132" t="s">
         <v>28</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="132" t="s">
         <v>28</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="132" t="s">
         <v>28</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="132" t="s">
         <v>29</v>
       </c>
@@ -20554,7 +20554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="132" t="s">
         <v>29</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="132" t="s">
         <v>29</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="132" t="s">
         <v>29</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="132" t="s">
         <v>29</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="132" t="s">
         <v>30</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="132" t="s">
         <v>31</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="132" t="s">
         <v>31</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="132" t="s">
         <v>31</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="132" t="s">
         <v>31</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="132" t="s">
         <v>31</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="132" t="s">
         <v>31</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="132" t="s">
         <v>32</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="132" t="s">
         <v>32</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="132" t="s">
         <v>33</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="132" t="s">
         <v>33</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="132" t="s">
         <v>33</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="132" t="s">
         <v>33</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="132" t="s">
         <v>33</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="136" t="s">
         <v>34</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="132" t="s">
         <v>42</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="132" t="s">
         <v>43</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="132" t="s">
         <v>44</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="132" t="s">
         <v>44</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="132" t="s">
         <v>45</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="132" t="s">
         <v>45</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="132" t="s">
         <v>46</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="132" t="s">
         <v>46</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="132" t="s">
         <v>46</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="132" t="s">
         <v>47</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="132" t="s">
         <v>47</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="132" t="s">
         <v>47</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="132" t="s">
         <v>47</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A114" s="132" t="s">
         <v>48</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="132" t="s">
         <v>49</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="132" t="s">
         <v>49</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="132" t="s">
         <v>49</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="132" t="s">
         <v>49</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="132" t="s">
         <v>50</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="132" t="s">
         <v>50</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="132" t="s">
         <v>50</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="132" t="s">
         <v>50</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="132" t="s">
         <v>51</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="132" t="s">
         <v>52</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="132" t="s">
         <v>52</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="132" t="s">
         <v>52</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="132" t="s">
         <v>52</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="132" t="s">
         <v>53</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="132" t="s">
         <v>54</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="132" t="s">
         <v>54</v>
       </c>
@@ -22030,7 +22030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="132" t="s">
         <v>54</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="132" t="s">
         <v>54</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="132" t="s">
         <v>55</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="132" t="s">
         <v>55</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="132" t="s">
         <v>55</v>
       </c>
@@ -22197,18 +22197,18 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>304</v>
       </c>
@@ -22237,7 +22237,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
         <v>36</v>
       </c>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="J2" s="169"/>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>40</v>
       </c>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="J3" s="169"/>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="164" t="s">
         <v>23</v>
       </c>
@@ -22321,7 +22321,7 @@
       </c>
       <c r="J4" s="169"/>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="164" t="s">
         <v>26</v>
       </c>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="J5" s="170"/>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="164" t="s">
         <v>28</v>
       </c>
@@ -22377,7 +22377,7 @@
       </c>
       <c r="J6" s="169"/>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="164" t="s">
         <v>29</v>
       </c>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="J7" s="169"/>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="164" t="s">
         <v>31</v>
       </c>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="J8" s="169"/>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="164" t="s">
         <v>47</v>
       </c>
@@ -22461,7 +22461,7 @@
       </c>
       <c r="J9" s="169"/>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="164" t="s">
         <v>49</v>
       </c>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="J10" s="169"/>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="164" t="s">
         <v>50</v>
       </c>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="J11" s="169"/>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="164" t="s">
         <v>55</v>
       </c>
@@ -22545,7 +22545,7 @@
       </c>
       <c r="J12" s="169"/>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="152" t="s">
         <v>36</v>
       </c>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="J13" s="169"/>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="164" t="s">
         <v>35</v>
       </c>
@@ -22603,7 +22603,7 @@
       </c>
       <c r="J14" s="169"/>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="164" t="s">
         <v>44</v>
       </c>
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J15" s="169"/>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="152" t="s">
         <v>39</v>
       </c>
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J16" s="169"/>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="152" t="s">
         <v>39</v>
       </c>
@@ -22687,7 +22687,7 @@
       </c>
       <c r="J17" s="169"/>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="152" t="s">
         <v>39</v>
       </c>
@@ -22715,7 +22715,7 @@
       </c>
       <c r="J18" s="169"/>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="164" t="s">
         <v>9</v>
       </c>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J19" s="169"/>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="164" t="s">
         <v>10</v>
       </c>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="J20" s="169"/>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="164" t="s">
         <v>11</v>
       </c>
@@ -22799,7 +22799,7 @@
       </c>
       <c r="J21" s="169"/>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="164" t="s">
         <v>11</v>
       </c>
@@ -22827,7 +22827,7 @@
       </c>
       <c r="J22" s="169"/>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="164" t="s">
         <v>12</v>
       </c>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="J23" s="169"/>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="164" t="s">
         <v>13</v>
       </c>
@@ -22883,7 +22883,7 @@
       </c>
       <c r="J24" s="169"/>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="164" t="s">
         <v>16</v>
       </c>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="J25" s="169"/>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="164" t="s">
         <v>17</v>
       </c>
@@ -22941,7 +22941,7 @@
       </c>
       <c r="J26" s="169"/>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="164" t="s">
         <v>18</v>
       </c>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="J27" s="169"/>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="164" t="s">
         <v>18</v>
       </c>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="J28" s="169"/>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="164" t="s">
         <v>19</v>
       </c>
@@ -23025,7 +23025,7 @@
       </c>
       <c r="J29" s="169"/>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="164" t="s">
         <v>19</v>
       </c>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="J30" s="169"/>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="164" t="s">
         <v>20</v>
       </c>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="J31" s="169"/>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="164" t="s">
         <v>20</v>
       </c>
@@ -23109,7 +23109,7 @@
       </c>
       <c r="J32" s="169"/>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="164" t="s">
         <v>21</v>
       </c>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="J33" s="169"/>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="164" t="s">
         <v>22</v>
       </c>
@@ -23167,7 +23167,7 @@
       </c>
       <c r="J34" s="169"/>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="164" t="s">
         <v>23</v>
       </c>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J35" s="169"/>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="164" t="s">
         <v>23</v>
       </c>
@@ -23223,7 +23223,7 @@
       </c>
       <c r="J36" s="169"/>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="164" t="s">
         <v>27</v>
       </c>
@@ -23251,7 +23251,7 @@
       </c>
       <c r="J37" s="169"/>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="164" t="s">
         <v>27</v>
       </c>
@@ -23279,7 +23279,7 @@
       </c>
       <c r="J38" s="169"/>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="164" t="s">
         <v>29</v>
       </c>
@@ -23307,7 +23307,7 @@
       </c>
       <c r="J39" s="169"/>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
@@ -23335,7 +23335,7 @@
       </c>
       <c r="J40" s="169"/>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="164" t="s">
         <v>33</v>
       </c>
@@ -23363,7 +23363,7 @@
       </c>
       <c r="J41" s="169"/>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="164" t="s">
         <v>33</v>
       </c>
@@ -23391,7 +23391,7 @@
       </c>
       <c r="J42" s="169"/>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="164" t="s">
         <v>46</v>
       </c>
@@ -23419,7 +23419,7 @@
       </c>
       <c r="J43" s="169"/>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="164" t="s">
         <v>46</v>
       </c>
@@ -23447,7 +23447,7 @@
       </c>
       <c r="J44" s="169"/>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="164" t="s">
         <v>49</v>
       </c>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="J45" s="169"/>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="164" t="s">
         <v>52</v>
       </c>
@@ -23503,7 +23503,7 @@
       </c>
       <c r="J46" s="169"/>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="164" t="s">
         <v>52</v>
       </c>
@@ -23531,7 +23531,7 @@
       </c>
       <c r="J47" s="169"/>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="164" t="s">
         <v>54</v>
       </c>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="J48" s="169"/>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="164" t="s">
         <v>54</v>
       </c>
@@ -23587,7 +23587,7 @@
       </c>
       <c r="J49" s="169"/>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="152" t="s">
         <v>37</v>
       </c>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="J50" s="169"/>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="152" t="s">
         <v>40</v>
       </c>
@@ -23645,7 +23645,7 @@
       </c>
       <c r="J51" s="169"/>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="164" t="s">
         <v>23</v>
       </c>
@@ -23673,7 +23673,7 @@
       </c>
       <c r="J52" s="169"/>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="164" t="s">
         <v>26</v>
       </c>
@@ -23701,7 +23701,7 @@
       </c>
       <c r="J53" s="169"/>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="164" t="s">
         <v>28</v>
       </c>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="J54" s="169"/>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="164" t="s">
         <v>29</v>
       </c>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="J55" s="169"/>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="164" t="s">
         <v>31</v>
       </c>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="J56" s="169"/>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="164" t="s">
         <v>33</v>
       </c>
@@ -23813,7 +23813,7 @@
       </c>
       <c r="J57" s="169"/>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="164" t="s">
         <v>47</v>
       </c>
@@ -23841,7 +23841,7 @@
       </c>
       <c r="J58" s="169"/>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="164" t="s">
         <v>49</v>
       </c>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="J59" s="169"/>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="164" t="s">
         <v>50</v>
       </c>
@@ -23897,7 +23897,7 @@
       </c>
       <c r="J60" s="169"/>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="164" t="s">
         <v>55</v>
       </c>
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J61" s="169"/>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="152" t="s">
         <v>36</v>
       </c>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="J62" s="169"/>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="152" t="s">
         <v>37</v>
       </c>
@@ -23985,7 +23985,7 @@
       </c>
       <c r="J63" s="169"/>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="152" t="s">
         <v>39</v>
       </c>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="J64" s="169"/>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="152" t="s">
         <v>40</v>
       </c>
@@ -24041,7 +24041,7 @@
       </c>
       <c r="J65" s="169"/>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="152" t="s">
         <v>40</v>
       </c>
@@ -24069,7 +24069,7 @@
       </c>
       <c r="J66" s="169"/>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="164" t="s">
         <v>15</v>
       </c>
@@ -24099,7 +24099,7 @@
       </c>
       <c r="J67" s="169"/>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="164" t="s">
         <v>15</v>
       </c>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="J68" s="169"/>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="164" t="s">
         <v>16</v>
       </c>
@@ -24157,7 +24157,7 @@
       </c>
       <c r="J69" s="169"/>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="164" t="s">
         <v>24</v>
       </c>
@@ -24185,7 +24185,7 @@
       </c>
       <c r="J70" s="169"/>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="164" t="s">
         <v>24</v>
       </c>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="J71" s="169"/>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="164" t="s">
         <v>26</v>
       </c>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="J72" s="169"/>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="164" t="s">
         <v>28</v>
       </c>
@@ -24269,7 +24269,7 @@
       </c>
       <c r="J73" s="169"/>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="164" t="s">
         <v>31</v>
       </c>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="J74" s="169"/>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="164" t="s">
         <v>31</v>
       </c>
@@ -24325,7 +24325,7 @@
       </c>
       <c r="J75" s="169"/>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="164" t="s">
         <v>33</v>
       </c>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="J76" s="169"/>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="164" t="s">
         <v>33</v>
       </c>
@@ -24381,7 +24381,7 @@
       </c>
       <c r="J77" s="169"/>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="164" t="s">
         <v>52</v>
       </c>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="J78" s="169"/>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="164" t="s">
         <v>52</v>
       </c>
@@ -24437,7 +24437,7 @@
       </c>
       <c r="J79" s="169"/>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="164" t="s">
         <v>54</v>
       </c>
@@ -24465,7 +24465,7 @@
       </c>
       <c r="J80" s="169"/>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="164" t="s">
         <v>54</v>
       </c>
@@ -24493,7 +24493,7 @@
       </c>
       <c r="J81" s="169"/>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="152" t="s">
         <v>41</v>
       </c>
@@ -24521,7 +24521,7 @@
       </c>
       <c r="J82" s="169"/>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="152" t="s">
         <v>41</v>
       </c>
@@ -24549,7 +24549,7 @@
       </c>
       <c r="J83" s="169"/>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="164" t="s">
         <v>9</v>
       </c>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="J84" s="169"/>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="164" t="s">
         <v>13</v>
       </c>
@@ -24605,7 +24605,7 @@
       </c>
       <c r="J85" s="169"/>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="164" t="s">
         <v>14</v>
       </c>
@@ -24633,7 +24633,7 @@
       </c>
       <c r="J86" s="169"/>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="164" t="s">
         <v>18</v>
       </c>
@@ -24661,7 +24661,7 @@
       </c>
       <c r="J87" s="169"/>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="164" t="s">
         <v>24</v>
       </c>
@@ -24689,7 +24689,7 @@
       </c>
       <c r="J88" s="169"/>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="168" t="s">
         <v>25</v>
       </c>
@@ -24717,7 +24717,7 @@
       </c>
       <c r="J89" s="169"/>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="164" t="s">
         <v>28</v>
       </c>
@@ -24745,7 +24745,7 @@
       </c>
       <c r="J90" s="169"/>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="164" t="s">
         <v>29</v>
       </c>
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J91" s="169"/>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="164" t="s">
         <v>31</v>
       </c>
@@ -24801,7 +24801,7 @@
       </c>
       <c r="J92" s="169"/>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="164" t="s">
         <v>32</v>
       </c>
@@ -24829,7 +24829,7 @@
       </c>
       <c r="J93" s="169"/>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="164" t="s">
         <v>47</v>
       </c>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J94" s="170"/>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="164" t="s">
         <v>48</v>
       </c>
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J95" s="169"/>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="164" t="s">
         <v>50</v>
       </c>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="J96" s="169"/>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="164" t="s">
         <v>51</v>
       </c>
@@ -24943,7 +24943,7 @@
       </c>
       <c r="J97" s="169"/>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="164" t="s">
         <v>55</v>
       </c>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="J98" s="169"/>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="152" t="s">
         <v>36</v>
       </c>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="J99" s="169"/>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="152" t="s">
         <v>37</v>
       </c>
@@ -25027,7 +25027,7 @@
       </c>
       <c r="J100" s="169"/>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="164" t="s">
         <v>35</v>
       </c>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="J101" s="169"/>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="164" t="s">
         <v>43</v>
       </c>
@@ -25083,7 +25083,7 @@
       </c>
       <c r="J102" s="169"/>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="164" t="s">
         <v>45</v>
       </c>
@@ -25111,7 +25111,7 @@
       </c>
       <c r="J103" s="169"/>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="164" t="s">
         <v>35</v>
       </c>
@@ -25139,7 +25139,7 @@
       </c>
       <c r="J104" s="169"/>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="164" t="s">
         <v>42</v>
       </c>
@@ -25167,7 +25167,7 @@
       </c>
       <c r="J105" s="169"/>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="164" t="s">
         <v>44</v>
       </c>
@@ -25195,7 +25195,7 @@
       </c>
       <c r="J106" s="169"/>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="152" t="s">
         <v>36</v>
       </c>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="J107" s="169"/>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A108" s="152" t="s">
         <v>37</v>
       </c>
@@ -25255,7 +25255,7 @@
       </c>
       <c r="J108" s="169"/>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A109" s="164" t="s">
         <v>44</v>
       </c>
@@ -25283,7 +25283,7 @@
       </c>
       <c r="J109" s="169"/>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A110" s="164" t="s">
         <v>45</v>
       </c>
@@ -25313,7 +25313,7 @@
       </c>
       <c r="J110" s="169"/>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A111" s="152" t="s">
         <v>38</v>
       </c>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="J111" s="169"/>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="164" t="s">
         <v>9</v>
       </c>
@@ -25371,7 +25371,7 @@
       </c>
       <c r="J112" s="169"/>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="164" t="s">
         <v>10</v>
       </c>
@@ -25399,7 +25399,7 @@
       </c>
       <c r="J113" s="169"/>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="164" t="s">
         <v>11</v>
       </c>
@@ -25427,7 +25427,7 @@
       </c>
       <c r="J114" s="169"/>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="164" t="s">
         <v>12</v>
       </c>
@@ -25455,7 +25455,7 @@
       </c>
       <c r="J115" s="169"/>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="164" t="s">
         <v>14</v>
       </c>
@@ -25483,7 +25483,7 @@
       </c>
       <c r="J116" s="169"/>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="164" t="s">
         <v>16</v>
       </c>
@@ -25511,7 +25511,7 @@
       </c>
       <c r="J117" s="169"/>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="164" t="s">
         <v>17</v>
       </c>
@@ -25539,7 +25539,7 @@
       </c>
       <c r="J118" s="169"/>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="164" t="s">
         <v>19</v>
       </c>
@@ -25567,7 +25567,7 @@
       </c>
       <c r="J119" s="169"/>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="164" t="s">
         <v>20</v>
       </c>
@@ -25595,7 +25595,7 @@
       </c>
       <c r="J120" s="169"/>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="164" t="s">
         <v>21</v>
       </c>
@@ -25623,7 +25623,7 @@
       </c>
       <c r="J121" s="169"/>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="164" t="s">
         <v>22</v>
       </c>
@@ -25651,7 +25651,7 @@
       </c>
       <c r="J122" s="169"/>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="164" t="s">
         <v>23</v>
       </c>
@@ -25679,7 +25679,7 @@
       </c>
       <c r="J123" s="169"/>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="164" t="s">
         <v>27</v>
       </c>
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J124" s="169"/>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="164" t="s">
         <v>28</v>
       </c>
@@ -25735,7 +25735,7 @@
       </c>
       <c r="J125" s="169"/>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="164" t="s">
         <v>29</v>
       </c>
@@ -25763,7 +25763,7 @@
       </c>
       <c r="J126" s="169"/>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="164" t="s">
         <v>30</v>
       </c>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="J127" s="169"/>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="164" t="s">
         <v>32</v>
       </c>
@@ -25819,7 +25819,7 @@
       </c>
       <c r="J128" s="169"/>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="164" t="s">
         <v>46</v>
       </c>
@@ -25847,7 +25847,7 @@
       </c>
       <c r="J129" s="169"/>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="164" t="s">
         <v>49</v>
       </c>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="J130" s="169"/>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A131" s="164" t="s">
         <v>50</v>
       </c>
@@ -25905,7 +25905,7 @@
       </c>
       <c r="J131" s="169"/>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="164" t="s">
         <v>53</v>
       </c>
@@ -25933,7 +25933,7 @@
       </c>
       <c r="J132" s="169"/>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="152" t="s">
         <v>41</v>
       </c>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="J133" s="169"/>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="164" t="s">
         <v>27</v>
       </c>
@@ -25989,7 +25989,7 @@
       </c>
       <c r="J134" s="169"/>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="164" t="s">
         <v>47</v>
       </c>
@@ -26017,7 +26017,7 @@
       </c>
       <c r="J135" s="169"/>
     </row>
-    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="168" t="s">
         <v>34</v>
       </c>
@@ -26062,9 +26062,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26079,17 +26079,17 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="94" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>273</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>274</v>
       </c>
@@ -26136,7 +26136,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="s">
         <v>275</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="s">
         <v>276</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>277</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
         <v>278</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>279</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
         <v>280</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
         <v>281</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="95" t="s">
         <v>282</v>
       </c>
@@ -26352,7 +26352,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
         <v>283</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
         <v>290</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
         <v>284</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
         <v>239</v>
       </c>
@@ -26465,15 +26465,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>183</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>28</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>29</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>10</v>
       </c>
@@ -26529,7 +26529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -26557,7 +26557,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -26599,7 +26599,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -26613,7 +26613,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -26711,7 +26711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>8</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -26753,7 +26753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -26767,7 +26767,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>11</v>
       </c>
@@ -26781,7 +26781,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -26795,7 +26795,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -26851,7 +26851,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -26879,7 +26879,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>12</v>
       </c>

--- a/IMED/DPP_Revised/Revised_package_cost3.xlsx
+++ b/IMED/DPP_Revised/Revised_package_cost3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Revised" sheetId="15" r:id="rId1"/>
@@ -1648,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2340,6 +2340,12 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2649,27 +2655,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
     <col min="2" max="2" width="48" style="176" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="177" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="177" customWidth="1"/>
     <col min="4" max="4" width="12" style="175" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="176" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="176" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="177" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="176" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="176" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="177" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="176" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="176" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="176" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="176" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="177" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="176" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="176" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="177" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="176" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="176" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="171" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="184" t="s">
         <v>304</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="210" t="s">
         <v>374</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="210" t="s">
         <v>374</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="210" t="s">
         <v>36</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="210" t="s">
         <v>36</v>
       </c>
@@ -2849,7 +2855,7 @@
       <c r="M5" s="98"/>
       <c r="N5" s="98"/>
     </row>
-    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="210" t="s">
         <v>37</v>
       </c>
@@ -2887,7 +2893,7 @@
       <c r="M6" s="98"/>
       <c r="N6" s="98"/>
     </row>
-    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="210" t="s">
         <v>40</v>
       </c>
@@ -2925,7 +2931,7 @@
       <c r="M7" s="98"/>
       <c r="N7" s="98"/>
     </row>
-    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="210" t="s">
         <v>40</v>
       </c>
@@ -2965,7 +2971,7 @@
       <c r="M8" s="98"/>
       <c r="N8" s="98"/>
     </row>
-    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="210" t="s">
         <v>36</v>
       </c>
@@ -3003,7 +3009,7 @@
       <c r="M9" s="98"/>
       <c r="N9" s="98"/>
     </row>
-    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="210" t="s">
         <v>379</v>
       </c>
@@ -3039,7 +3045,7 @@
       <c r="M10" s="98"/>
       <c r="N10" s="98"/>
     </row>
-    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="210" t="s">
         <v>39</v>
       </c>
@@ -3077,7 +3083,7 @@
       <c r="M11" s="98"/>
       <c r="N11" s="98"/>
     </row>
-    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="210" t="s">
         <v>40</v>
       </c>
@@ -3117,7 +3123,7 @@
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="210" t="s">
         <v>40</v>
       </c>
@@ -3155,7 +3161,7 @@
       <c r="M13" s="98"/>
       <c r="N13" s="98"/>
     </row>
-    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="210" t="s">
         <v>36</v>
       </c>
@@ -3189,7 +3195,7 @@
       <c r="M14" s="98"/>
       <c r="N14" s="98"/>
     </row>
-    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="210" t="s">
         <v>41</v>
       </c>
@@ -3223,7 +3229,7 @@
       <c r="M15" s="98"/>
       <c r="N15" s="98"/>
     </row>
-    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="210" t="s">
         <v>41</v>
       </c>
@@ -3263,7 +3269,7 @@
       <c r="M16" s="98"/>
       <c r="N16" s="98"/>
     </row>
-    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="210" t="s">
         <v>37</v>
       </c>
@@ -3299,7 +3305,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="210" t="s">
         <v>37</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="254">
-        <v>742</v>
+        <v>742.4</v>
       </c>
       <c r="F18" s="263"/>
       <c r="G18" s="264" t="s">
@@ -3335,7 +3341,7 @@
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
     </row>
-    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="210" t="s">
         <v>37</v>
       </c>
@@ -3371,7 +3377,7 @@
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
     </row>
-    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="210" t="s">
         <v>37</v>
       </c>
@@ -3407,7 +3413,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="98"/>
     </row>
-    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="210" t="s">
         <v>36</v>
       </c>
@@ -3443,7 +3449,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="98"/>
     </row>
-    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="210" t="s">
         <v>379</v>
       </c>
@@ -3479,7 +3485,7 @@
       <c r="M22" s="98"/>
       <c r="N22" s="98"/>
     </row>
-    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="210" t="s">
         <v>38</v>
       </c>
@@ -3517,7 +3523,7 @@
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>
     </row>
-    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="210" t="s">
         <v>39</v>
       </c>
@@ -3553,7 +3559,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="210" t="s">
         <v>39</v>
       </c>
@@ -3591,7 +3597,7 @@
       <c r="M25" s="98"/>
       <c r="N25" s="98"/>
     </row>
-    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="210" t="s">
         <v>39</v>
       </c>
@@ -3629,7 +3635,7 @@
       <c r="M26" s="98"/>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="210" t="s">
         <v>41</v>
       </c>
@@ -3665,7 +3671,7 @@
       <c r="M27" s="98"/>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="179" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="210" t="s">
         <v>384</v>
       </c>
@@ -3701,7 +3707,7 @@
       <c r="M28" s="193"/>
       <c r="N28" s="193"/>
     </row>
-    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="210" t="s">
         <v>27</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="210" t="s">
         <v>28</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="210" t="s">
         <v>28</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="210" t="s">
         <v>353</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="210" t="s">
         <v>372</v>
       </c>
@@ -3879,7 +3885,7 @@
       <c r="M33" s="98"/>
       <c r="N33" s="98"/>
     </row>
-    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="210" t="s">
         <v>354</v>
       </c>
@@ -3915,7 +3921,7 @@
       <c r="M34" s="98"/>
       <c r="N34" s="98"/>
     </row>
-    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="210" t="s">
         <v>355</v>
       </c>
@@ -3951,7 +3957,7 @@
       <c r="M35" s="98"/>
       <c r="N35" s="98"/>
     </row>
-    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="210" t="s">
         <v>9</v>
       </c>
@@ -3987,7 +3993,7 @@
       <c r="M36" s="98"/>
       <c r="N36" s="98"/>
     </row>
-    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="210" t="s">
         <v>26</v>
       </c>
@@ -4025,7 +4031,7 @@
       <c r="M37" s="98"/>
       <c r="N37" s="98"/>
     </row>
-    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="210" t="s">
         <v>28</v>
       </c>
@@ -4063,7 +4069,7 @@
       <c r="M38" s="98"/>
       <c r="N38" s="98"/>
     </row>
-    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="210" t="s">
         <v>9</v>
       </c>
@@ -4099,7 +4105,7 @@
       <c r="M39" s="98"/>
       <c r="N39" s="98"/>
     </row>
-    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="210" t="s">
         <v>28</v>
       </c>
@@ -4137,7 +4143,7 @@
       <c r="M40" s="98"/>
       <c r="N40" s="98"/>
     </row>
-    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="210" t="s">
         <v>9</v>
       </c>
@@ -4173,7 +4179,7 @@
       <c r="M41" s="98"/>
       <c r="N41" s="98"/>
     </row>
-    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="210" t="s">
         <v>10</v>
       </c>
@@ -4186,8 +4192,8 @@
       <c r="D42" s="202">
         <v>1</v>
       </c>
-      <c r="E42" s="203">
-        <v>256</v>
+      <c r="E42" s="254">
+        <v>256.5</v>
       </c>
       <c r="F42" s="218"/>
       <c r="G42" s="223" t="s">
@@ -4209,7 +4215,7 @@
       <c r="M42" s="98"/>
       <c r="N42" s="98"/>
     </row>
-    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="210" t="s">
         <v>28</v>
       </c>
@@ -4247,7 +4253,7 @@
       <c r="M43" s="102"/>
       <c r="N43" s="102"/>
     </row>
-    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="210" t="s">
         <v>10</v>
       </c>
@@ -4260,7 +4266,7 @@
       <c r="D44" s="202">
         <v>1</v>
       </c>
-      <c r="E44" s="203">
+      <c r="E44" s="254">
         <v>220</v>
       </c>
       <c r="F44" s="218"/>
@@ -4283,7 +4289,7 @@
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
     </row>
-    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="210" t="s">
         <v>29</v>
       </c>
@@ -4296,7 +4302,7 @@
       <c r="D45" s="202">
         <v>12.214</v>
       </c>
-      <c r="E45" s="203">
+      <c r="E45" s="254">
         <v>580</v>
       </c>
       <c r="F45" s="218"/>
@@ -4321,7 +4327,7 @@
       <c r="M45" s="102"/>
       <c r="N45" s="102"/>
     </row>
-    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="210" t="s">
         <v>11</v>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="M46" s="102"/>
       <c r="N46" s="102"/>
     </row>
-    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="210" t="s">
         <v>26</v>
       </c>
@@ -4395,7 +4401,7 @@
       <c r="M47" s="102"/>
       <c r="N47" s="102"/>
     </row>
-    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="210" t="s">
         <v>26</v>
       </c>
@@ -4433,7 +4439,7 @@
       <c r="M48" s="102"/>
       <c r="N48" s="102"/>
     </row>
-    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="210" t="s">
         <v>29</v>
       </c>
@@ -4471,7 +4477,7 @@
       <c r="M49" s="102"/>
       <c r="N49" s="102"/>
     </row>
-    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="210" t="s">
         <v>18</v>
       </c>
@@ -4507,7 +4513,7 @@
       <c r="M50" s="102"/>
       <c r="N50" s="102"/>
     </row>
-    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="210" t="s">
         <v>21</v>
       </c>
@@ -4543,7 +4549,7 @@
       <c r="M51" s="102"/>
       <c r="N51" s="102"/>
     </row>
-    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" s="183" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="210" t="s">
         <v>22</v>
       </c>
@@ -4581,7 +4587,7 @@
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
     </row>
-    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="210" t="s">
         <v>22</v>
       </c>
@@ -4617,7 +4623,7 @@
       <c r="M53" s="102"/>
       <c r="N53" s="102"/>
     </row>
-    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="210" t="s">
         <v>11</v>
       </c>
@@ -4655,7 +4661,7 @@
       <c r="M54" s="102"/>
       <c r="N54" s="102"/>
     </row>
-    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="210" t="s">
         <v>23</v>
       </c>
@@ -4693,7 +4699,7 @@
       <c r="M55" s="102"/>
       <c r="N55" s="102"/>
     </row>
-    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="210" t="s">
         <v>29</v>
       </c>
@@ -4731,7 +4737,7 @@
       <c r="M56" s="102"/>
       <c r="N56" s="102"/>
     </row>
-    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="210" t="s">
         <v>11</v>
       </c>
@@ -4767,7 +4773,7 @@
       <c r="M57" s="102"/>
       <c r="N57" s="102"/>
     </row>
-    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="210" t="s">
         <v>29</v>
       </c>
@@ -4805,7 +4811,7 @@
       <c r="M58" s="102"/>
       <c r="N58" s="102"/>
     </row>
-    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="210" t="s">
         <v>12</v>
       </c>
@@ -4841,7 +4847,7 @@
       <c r="M59" s="102"/>
       <c r="N59" s="102"/>
     </row>
-    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="210" t="s">
         <v>12</v>
       </c>
@@ -4877,7 +4883,7 @@
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
     </row>
-    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="210" t="s">
         <v>26</v>
       </c>
@@ -4915,7 +4921,7 @@
       <c r="M61" s="102"/>
       <c r="N61" s="102"/>
     </row>
-    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="210" t="s">
         <v>13</v>
       </c>
@@ -4951,7 +4957,7 @@
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
     </row>
-    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="210" t="s">
         <v>13</v>
       </c>
@@ -4987,7 +4993,7 @@
       <c r="M63" s="102"/>
       <c r="N63" s="102"/>
     </row>
-    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="210" t="s">
         <v>31</v>
       </c>
@@ -5025,7 +5031,7 @@
       <c r="M64" s="102"/>
       <c r="N64" s="102"/>
     </row>
-    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="210" t="s">
         <v>14</v>
       </c>
@@ -5061,7 +5067,7 @@
       <c r="M65" s="102"/>
       <c r="N65" s="102"/>
     </row>
-    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="210" t="s">
         <v>14</v>
       </c>
@@ -5097,7 +5103,7 @@
       <c r="M66" s="102"/>
       <c r="N66" s="102"/>
     </row>
-    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="210" t="s">
         <v>31</v>
       </c>
@@ -5135,7 +5141,7 @@
       <c r="M67" s="102"/>
       <c r="N67" s="102"/>
     </row>
-    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="210" t="s">
         <v>23</v>
       </c>
@@ -5173,7 +5179,7 @@
       <c r="M68" s="102"/>
       <c r="N68" s="102"/>
     </row>
-    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="210" t="s">
         <v>31</v>
       </c>
@@ -5211,7 +5217,7 @@
       <c r="M69" s="102"/>
       <c r="N69" s="102"/>
     </row>
-    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>15</v>
       </c>
@@ -5247,7 +5253,7 @@
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
     </row>
-    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="210" t="s">
         <v>31</v>
       </c>
@@ -5285,7 +5291,7 @@
       <c r="M71" s="102"/>
       <c r="N71" s="102"/>
     </row>
-    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="224" t="s">
         <v>35</v>
       </c>
@@ -5321,7 +5327,7 @@
       <c r="M72" s="102"/>
       <c r="N72" s="102"/>
     </row>
-    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="210" t="s">
         <v>15</v>
       </c>
@@ -5357,7 +5363,7 @@
       <c r="M73" s="102"/>
       <c r="N73" s="102"/>
     </row>
-    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="210" t="s">
         <v>15</v>
       </c>
@@ -5393,7 +5399,7 @@
       <c r="M74" s="102"/>
       <c r="N74" s="102"/>
     </row>
-    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="210" t="s">
         <v>19</v>
       </c>
@@ -5429,7 +5435,7 @@
       <c r="M75" s="102"/>
       <c r="N75" s="102"/>
     </row>
-    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="210" t="s">
         <v>31</v>
       </c>
@@ -5467,7 +5473,7 @@
       <c r="M76" s="102"/>
       <c r="N76" s="102"/>
     </row>
-    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="210" t="s">
         <v>23</v>
       </c>
@@ -5503,7 +5509,7 @@
       <c r="M77" s="102"/>
       <c r="N77" s="102"/>
     </row>
-    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="210" t="s">
         <v>24</v>
       </c>
@@ -5539,7 +5545,7 @@
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
     </row>
-    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="210" t="s">
         <v>26</v>
       </c>
@@ -5577,7 +5583,7 @@
       <c r="M79" s="102"/>
       <c r="N79" s="102"/>
     </row>
-    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="210" t="s">
         <v>26</v>
       </c>
@@ -5615,7 +5621,7 @@
       <c r="M80" s="102"/>
       <c r="N80" s="102"/>
     </row>
-    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="210" t="s">
         <v>35</v>
       </c>
@@ -5651,7 +5657,7 @@
       <c r="M81" s="102"/>
       <c r="N81" s="102"/>
     </row>
-    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="210" t="s">
         <v>35</v>
       </c>
@@ -5687,7 +5693,7 @@
       <c r="M82" s="102"/>
       <c r="N82" s="102"/>
     </row>
-    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="210" t="s">
         <v>35</v>
       </c>
@@ -5723,7 +5729,7 @@
       <c r="M83" s="102"/>
       <c r="N83" s="102"/>
     </row>
-    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="210" t="s">
         <v>18</v>
       </c>
@@ -5759,7 +5765,7 @@
       <c r="M84" s="102"/>
       <c r="N84" s="102"/>
     </row>
-    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="210" t="s">
         <v>18</v>
       </c>
@@ -5795,7 +5801,7 @@
       <c r="M85" s="102"/>
       <c r="N85" s="102"/>
     </row>
-    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="210" t="s">
         <v>19</v>
       </c>
@@ -5831,7 +5837,7 @@
       <c r="M86" s="102"/>
       <c r="N86" s="102"/>
     </row>
-    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="210" t="s">
         <v>21</v>
       </c>
@@ -5867,7 +5873,7 @@
       <c r="M87" s="102"/>
       <c r="N87" s="102"/>
     </row>
-    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="210" t="s">
         <v>23</v>
       </c>
@@ -5903,7 +5909,7 @@
       <c r="M88" s="102"/>
       <c r="N88" s="102"/>
     </row>
-    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="210" t="s">
         <v>23</v>
       </c>
@@ -5939,7 +5945,7 @@
       <c r="M89" s="102"/>
       <c r="N89" s="102"/>
     </row>
-    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="210" t="s">
         <v>15</v>
       </c>
@@ -5952,8 +5958,8 @@
       <c r="D90" s="202">
         <v>1</v>
       </c>
-      <c r="E90" s="203">
-        <v>225</v>
+      <c r="E90" s="254">
+        <v>355.6</v>
       </c>
       <c r="F90" s="218"/>
       <c r="G90" s="223" t="s">
@@ -5975,7 +5981,7 @@
       <c r="M90" s="102"/>
       <c r="N90" s="102"/>
     </row>
-    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="210" t="s">
         <v>16</v>
       </c>
@@ -5988,8 +5994,8 @@
       <c r="D91" s="202">
         <v>1</v>
       </c>
-      <c r="E91" s="203">
-        <v>160</v>
+      <c r="E91" s="254">
+        <v>208.09</v>
       </c>
       <c r="F91" s="218"/>
       <c r="G91" s="223" t="s">
@@ -6011,7 +6017,7 @@
       <c r="M91" s="102"/>
       <c r="N91" s="102"/>
     </row>
-    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="210" t="s">
         <v>33</v>
       </c>
@@ -6024,8 +6030,8 @@
       <c r="D92" s="202">
         <v>10</v>
       </c>
-      <c r="E92" s="203">
-        <v>463.48</v>
+      <c r="E92" s="254">
+        <v>310.69</v>
       </c>
       <c r="F92" s="218"/>
       <c r="G92" s="223" t="s">
@@ -6049,7 +6055,7 @@
       <c r="M92" s="102"/>
       <c r="N92" s="102"/>
     </row>
-    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="210" t="s">
         <v>389</v>
       </c>
@@ -6062,8 +6068,8 @@
       <c r="D93" s="202">
         <v>5</v>
       </c>
-      <c r="E93" s="203">
-        <v>125</v>
+      <c r="E93" s="254">
+        <v>139.1</v>
       </c>
       <c r="F93" s="230"/>
       <c r="G93" s="223" t="s">
@@ -6085,7 +6091,7 @@
       <c r="M93" s="102"/>
       <c r="N93" s="102"/>
     </row>
-    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="224" t="s">
         <v>35</v>
       </c>
@@ -6121,7 +6127,7 @@
       <c r="M94" s="102"/>
       <c r="N94" s="102"/>
     </row>
-    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="210" t="s">
         <v>19</v>
       </c>
@@ -6157,7 +6163,7 @@
       <c r="M95" s="102"/>
       <c r="N95" s="102"/>
     </row>
-    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="210" t="s">
         <v>24</v>
       </c>
@@ -6193,7 +6199,7 @@
       <c r="M96" s="102"/>
       <c r="N96" s="102"/>
     </row>
-    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="210" t="s">
         <v>26</v>
       </c>
@@ -6231,7 +6237,7 @@
       <c r="M97" s="102"/>
       <c r="N97" s="102"/>
     </row>
-    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="210" t="s">
         <v>33</v>
       </c>
@@ -6269,7 +6275,7 @@
       <c r="M98" s="102"/>
       <c r="N98" s="102"/>
     </row>
-    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="210" t="s">
         <v>35</v>
       </c>
@@ -6305,7 +6311,7 @@
       <c r="M99" s="102"/>
       <c r="N99" s="102"/>
     </row>
-    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="210" t="s">
         <v>16</v>
       </c>
@@ -6341,7 +6347,7 @@
       <c r="M100" s="102"/>
       <c r="N100" s="102"/>
     </row>
-    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="210" t="s">
         <v>20</v>
       </c>
@@ -6377,7 +6383,7 @@
       <c r="M101" s="102"/>
       <c r="N101" s="102"/>
     </row>
-    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="210" t="s">
         <v>27</v>
       </c>
@@ -6415,7 +6421,7 @@
       <c r="M102" s="102"/>
       <c r="N102" s="102"/>
     </row>
-    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="210" t="s">
         <v>33</v>
       </c>
@@ -6453,7 +6459,7 @@
       <c r="M103" s="102"/>
       <c r="N103" s="102"/>
     </row>
-    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="210" t="s">
         <v>33</v>
       </c>
@@ -6491,7 +6497,7 @@
       <c r="M104" s="102"/>
       <c r="N104" s="102"/>
     </row>
-    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="210" t="s">
         <v>35</v>
       </c>
@@ -6527,7 +6533,7 @@
       <c r="M105" s="102"/>
       <c r="N105" s="102"/>
     </row>
-    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="210" t="s">
         <v>16</v>
       </c>
@@ -6563,7 +6569,7 @@
       <c r="M106" s="102"/>
       <c r="N106" s="102"/>
     </row>
-    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="210" t="s">
         <v>20</v>
       </c>
@@ -6599,7 +6605,7 @@
       <c r="M107" s="102"/>
       <c r="N107" s="102"/>
     </row>
-    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="210" t="s">
         <v>24</v>
       </c>
@@ -6635,7 +6641,7 @@
       <c r="M108" s="102"/>
       <c r="N108" s="102"/>
     </row>
-    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="210" t="s">
         <v>25</v>
       </c>
@@ -6671,7 +6677,7 @@
       <c r="M109" s="102"/>
       <c r="N109" s="102"/>
     </row>
-    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="210" t="s">
         <v>27</v>
       </c>
@@ -6709,7 +6715,7 @@
       <c r="M110" s="102"/>
       <c r="N110" s="102"/>
     </row>
-    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="210" t="s">
         <v>27</v>
       </c>
@@ -6747,7 +6753,7 @@
       <c r="M111" s="102"/>
       <c r="N111" s="102"/>
     </row>
-    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="210" t="s">
         <v>34</v>
       </c>
@@ -6785,7 +6791,7 @@
       <c r="M112" s="102"/>
       <c r="N112" s="102"/>
     </row>
-    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="210" t="s">
         <v>17</v>
       </c>
@@ -6821,7 +6827,7 @@
       <c r="M113" s="102"/>
       <c r="N113" s="102"/>
     </row>
-    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="210" t="s">
         <v>17</v>
       </c>
@@ -6857,7 +6863,7 @@
       <c r="M114" s="102"/>
       <c r="N114" s="102"/>
     </row>
-    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" s="180" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="210" t="s">
         <v>20</v>
       </c>
@@ -6893,7 +6899,7 @@
       <c r="M115" s="102"/>
       <c r="N115" s="102"/>
     </row>
-    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="210" t="s">
         <v>26</v>
       </c>
@@ -6929,7 +6935,7 @@
       <c r="M116" s="98"/>
       <c r="N116" s="98"/>
     </row>
-    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="210" t="s">
         <v>26</v>
       </c>
@@ -6965,7 +6971,7 @@
       <c r="M117" s="98"/>
       <c r="N117" s="98"/>
     </row>
-    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="233" t="s">
         <v>352</v>
       </c>
@@ -6976,10 +6982,10 @@
         <v>61</v>
       </c>
       <c r="D118" s="209">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E118" s="209">
-        <v>1618</v>
+        <v>1050</v>
       </c>
       <c r="F118" s="234"/>
       <c r="G118" s="235" t="s">
@@ -7001,7 +7007,7 @@
       <c r="M118" s="98"/>
       <c r="N118" s="98"/>
     </row>
-    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="210" t="s">
         <v>371</v>
       </c>
@@ -7037,7 +7043,7 @@
       <c r="M119" s="98"/>
       <c r="N119" s="98"/>
     </row>
-    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="210" t="s">
         <v>31</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>2.3809999999999998</v>
       </c>
       <c r="E120" s="254">
-        <v>1568.75</v>
+        <v>1469.83</v>
       </c>
       <c r="F120" s="253" t="s">
         <v>402</v>
@@ -7075,7 +7081,7 @@
       <c r="M120" s="98"/>
       <c r="N120" s="98"/>
     </row>
-    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="210" t="s">
         <v>31</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>2.66</v>
       </c>
       <c r="E121" s="254">
-        <v>1392.89</v>
+        <v>1122.28</v>
       </c>
       <c r="F121" s="253" t="s">
         <v>350</v>
@@ -7113,7 +7119,7 @@
       <c r="M121" s="98"/>
       <c r="N121" s="98"/>
     </row>
-    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="210" t="s">
         <v>32</v>
       </c>
@@ -7127,7 +7133,7 @@
         <v>2.6539999999999999</v>
       </c>
       <c r="E122" s="254">
-        <v>1780.92</v>
+        <v>1563.73</v>
       </c>
       <c r="F122" s="239" t="s">
         <v>351</v>
@@ -7151,7 +7157,7 @@
       <c r="M122" s="98"/>
       <c r="N122" s="98"/>
     </row>
-    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="210" t="s">
         <v>29</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>2.2749999999999999</v>
       </c>
       <c r="E123" s="254">
-        <v>1742.12</v>
+        <v>1742.1</v>
       </c>
       <c r="F123" s="239" t="s">
         <v>351</v>
@@ -7189,7 +7195,7 @@
       <c r="M123" s="98"/>
       <c r="N123" s="98"/>
     </row>
-    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="210" t="s">
         <v>400</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>2.206</v>
       </c>
       <c r="E124" s="254">
-        <v>1359.16</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="F124" s="239" t="s">
         <v>403</v>
@@ -7227,7 +7233,7 @@
       <c r="M124" s="98"/>
       <c r="N124" s="98"/>
     </row>
-    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="210" t="s">
         <v>399</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>1.5449999999999999</v>
       </c>
       <c r="E125" s="254">
-        <v>1533.42</v>
+        <v>914.62</v>
       </c>
       <c r="F125" s="239" t="s">
         <v>397</v>
@@ -7265,7 +7271,7 @@
       <c r="M125" s="98"/>
       <c r="N125" s="98"/>
     </row>
-    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="210" t="s">
         <v>398</v>
       </c>
@@ -7303,7 +7309,7 @@
       <c r="M126" s="98"/>
       <c r="N126" s="98"/>
     </row>
-    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="210" t="s">
         <v>394</v>
       </c>
@@ -7339,7 +7345,7 @@
       <c r="M127" s="98"/>
       <c r="N127" s="98"/>
     </row>
-    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="210" t="s">
         <v>394</v>
       </c>
@@ -7375,7 +7381,7 @@
       <c r="M128" s="98"/>
       <c r="N128" s="98"/>
     </row>
-    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="210" t="s">
         <v>396</v>
       </c>
@@ -7411,7 +7417,7 @@
       <c r="M129" s="98"/>
       <c r="N129" s="98"/>
     </row>
-    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="210" t="s">
         <v>46</v>
       </c>
@@ -7447,7 +7453,7 @@
       <c r="M130" s="98"/>
       <c r="N130" s="98"/>
     </row>
-    <row r="131" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="210" t="s">
         <v>46</v>
       </c>
@@ -7485,7 +7491,7 @@
       <c r="M131" s="98"/>
       <c r="N131" s="98"/>
     </row>
-    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="210" t="s">
         <v>44</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="210" t="s">
         <v>45</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="210" t="s">
         <v>45</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="210" t="s">
         <v>43</v>
       </c>
@@ -7629,7 +7635,7 @@
       <c r="M135" s="98"/>
       <c r="N135" s="98"/>
     </row>
-    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="210" t="s">
         <v>45</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="210" t="s">
         <v>46</v>
       </c>
@@ -7699,7 +7705,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="210" t="s">
         <v>48</v>
       </c>
@@ -7733,7 +7739,7 @@
       <c r="M138" s="98"/>
       <c r="N138" s="98"/>
     </row>
-    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="210" t="s">
         <v>49</v>
       </c>
@@ -7767,7 +7773,7 @@
       <c r="M139" s="98"/>
       <c r="N139" s="98"/>
     </row>
-    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="210" t="s">
         <v>49</v>
       </c>
@@ -7801,7 +7807,7 @@
       <c r="M140" s="98"/>
       <c r="N140" s="98"/>
     </row>
-    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="210" t="s">
         <v>45</v>
       </c>
@@ -7839,7 +7845,7 @@
       <c r="M141" s="98"/>
       <c r="N141" s="98"/>
     </row>
-    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="210" t="s">
         <v>45</v>
       </c>
@@ -7877,7 +7883,7 @@
       <c r="M142" s="98"/>
       <c r="N142" s="98"/>
     </row>
-    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="210" t="s">
         <v>47</v>
       </c>
@@ -7915,7 +7921,7 @@
       <c r="M143" s="98"/>
       <c r="N143" s="98"/>
     </row>
-    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="210" t="s">
         <v>49</v>
       </c>
@@ -7949,7 +7955,7 @@
       <c r="M144" s="98"/>
       <c r="N144" s="98"/>
     </row>
-    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="210" t="s">
         <v>49</v>
       </c>
@@ -7983,7 +7989,7 @@
       <c r="M145" s="98"/>
       <c r="N145" s="98"/>
     </row>
-    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="210" t="s">
         <v>43</v>
       </c>
@@ -8019,7 +8025,7 @@
       <c r="M146" s="98"/>
       <c r="N146" s="98"/>
     </row>
-    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="210" t="s">
         <v>43</v>
       </c>
@@ -8055,7 +8061,7 @@
       <c r="M147" s="98"/>
       <c r="N147" s="98"/>
     </row>
-    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="210" t="s">
         <v>47</v>
       </c>
@@ -8093,7 +8099,7 @@
       <c r="M148" s="98"/>
       <c r="N148" s="98"/>
     </row>
-    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="210" t="s">
         <v>42</v>
       </c>
@@ -8129,7 +8135,7 @@
       <c r="M149" s="98"/>
       <c r="N149" s="98"/>
     </row>
-    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="210" t="s">
         <v>44</v>
       </c>
@@ -8165,7 +8171,7 @@
       <c r="M150" s="98"/>
       <c r="N150" s="98"/>
     </row>
-    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="210" t="s">
         <v>44</v>
       </c>
@@ -8203,7 +8209,7 @@
       <c r="M151" s="98"/>
       <c r="N151" s="98"/>
     </row>
-    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="210" t="s">
         <v>47</v>
       </c>
@@ -8239,7 +8245,7 @@
       <c r="M152" s="98"/>
       <c r="N152" s="98"/>
     </row>
-    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="210" t="s">
         <v>44</v>
       </c>
@@ -8277,7 +8283,7 @@
       <c r="M153" s="98"/>
       <c r="N153" s="98"/>
     </row>
-    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="210" t="s">
         <v>42</v>
       </c>
@@ -8313,7 +8319,7 @@
       <c r="M154" s="98"/>
       <c r="N154" s="98"/>
     </row>
-    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="210" t="s">
         <v>44</v>
       </c>
@@ -8349,7 +8355,7 @@
       <c r="M155" s="98"/>
       <c r="N155" s="98"/>
     </row>
-    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="210" t="s">
         <v>44</v>
       </c>
@@ -8385,7 +8391,7 @@
       <c r="M156" s="98"/>
       <c r="N156" s="98"/>
     </row>
-    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="210" t="s">
         <v>47</v>
       </c>
@@ -8421,7 +8427,7 @@
       <c r="M157" s="98"/>
       <c r="N157" s="98"/>
     </row>
-    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="210" t="s">
         <v>50</v>
       </c>
@@ -8457,7 +8463,7 @@
       <c r="M158" s="98"/>
       <c r="N158" s="98"/>
     </row>
-    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="210" t="s">
         <v>52</v>
       </c>
@@ -8493,7 +8499,7 @@
       <c r="M159" s="98"/>
       <c r="N159" s="98"/>
     </row>
-    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="210" t="s">
         <v>54</v>
       </c>
@@ -8533,7 +8539,7 @@
       <c r="M160" s="98"/>
       <c r="N160" s="98"/>
     </row>
-    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="210" t="s">
         <v>368</v>
       </c>
@@ -8573,7 +8579,7 @@
       <c r="M161" s="98"/>
       <c r="N161" s="98"/>
     </row>
-    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="210" t="s">
         <v>55</v>
       </c>
@@ -8611,7 +8617,7 @@
       <c r="M162" s="98"/>
       <c r="N162" s="98"/>
     </row>
-    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="210" t="s">
         <v>51</v>
       </c>
@@ -8647,7 +8653,7 @@
       <c r="M163" s="98"/>
       <c r="N163" s="98"/>
     </row>
-    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="210" t="s">
         <v>52</v>
       </c>
@@ -8683,7 +8689,7 @@
       <c r="M164" s="98"/>
       <c r="N164" s="98"/>
     </row>
-    <row r="165" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" s="178" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="210" t="s">
         <v>54</v>
       </c>
@@ -8719,7 +8725,7 @@
       <c r="M165" s="98"/>
       <c r="N165" s="98"/>
     </row>
-    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="210" t="s">
         <v>54</v>
       </c>
@@ -8755,7 +8761,7 @@
       <c r="M166" s="194"/>
       <c r="N166" s="194"/>
     </row>
-    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="210" t="s">
         <v>55</v>
       </c>
@@ -8791,7 +8797,7 @@
       <c r="M167" s="194"/>
       <c r="N167" s="194"/>
     </row>
-    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="210" t="s">
         <v>50</v>
       </c>
@@ -8827,7 +8833,7 @@
       <c r="M168" s="194"/>
       <c r="N168" s="194"/>
     </row>
-    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="210" t="s">
         <v>50</v>
       </c>
@@ -8863,7 +8869,7 @@
       <c r="M169" s="194"/>
       <c r="N169" s="194"/>
     </row>
-    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="210" t="s">
         <v>52</v>
       </c>
@@ -8899,7 +8905,7 @@
       <c r="M170" s="194"/>
       <c r="N170" s="194"/>
     </row>
-    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="210" t="s">
         <v>53</v>
       </c>
@@ -8935,7 +8941,7 @@
       <c r="M171" s="194"/>
       <c r="N171" s="194"/>
     </row>
-    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="210" t="s">
         <v>50</v>
       </c>
@@ -8971,7 +8977,7 @@
       <c r="M172" s="194"/>
       <c r="N172" s="194"/>
     </row>
-    <row r="173" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" s="181" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="210" t="s">
         <v>52</v>
       </c>
@@ -9007,7 +9013,7 @@
       <c r="M173" s="194"/>
       <c r="N173" s="194"/>
     </row>
-    <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="210" t="s">
         <v>54</v>
       </c>
@@ -9043,7 +9049,7 @@
       <c r="M174" s="195"/>
       <c r="N174" s="195"/>
     </row>
-    <row r="175" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" s="182" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="210" t="s">
         <v>395</v>
       </c>
@@ -9053,11 +9059,11 @@
       <c r="C175" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="D175" s="205">
-        <v>3.51</v>
-      </c>
-      <c r="E175" s="206">
-        <v>1562.44</v>
+      <c r="D175" s="265">
+        <v>3.44</v>
+      </c>
+      <c r="E175" s="266">
+        <v>1170.07</v>
       </c>
       <c r="F175" s="239"/>
       <c r="G175" s="210" t="s">
@@ -9079,7 +9085,7 @@
       <c r="M175" s="195"/>
       <c r="N175" s="195"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E176" s="177"/>
     </row>
   </sheetData>
@@ -9099,9 +9105,9 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>25.44</v>
       </c>
@@ -9117,7 +9123,7 @@
         <v>800.11005780346818</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5.7</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>179.26994219653179</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>SUM(B1:B2)</f>
         <v>31.14</v>
@@ -9143,7 +9149,7 @@
         <v>979.38</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="252">
         <v>4</v>
       </c>
@@ -9159,7 +9165,7 @@
         <v>10.366153846153846</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="252">
         <v>9</v>
       </c>
@@ -9186,7 +9192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9200,33 +9206,33 @@
       <selection activeCell="R2" sqref="R2:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="17.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -9288,7 +9294,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>36</v>
       </c>
@@ -9338,7 +9344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="54" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>36</v>
       </c>
@@ -9432,7 +9438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="54" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
         <v>36</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="54" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>37</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="58" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>37</v>
       </c>
@@ -9674,7 +9680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="54" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
@@ -9724,7 +9730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="54" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
@@ -9774,7 +9780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>39</v>
       </c>
@@ -9822,7 +9828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
@@ -9870,7 +9876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
         <v>39</v>
       </c>
@@ -9918,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>1280.79</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="54" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>40</v>
       </c>
@@ -10006,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
         <v>40</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
         <v>40</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
         <v>40</v>
       </c>
@@ -10152,7 +10158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>41</v>
       </c>
@@ -10200,7 +10206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
         <v>41</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
         <v>41</v>
       </c>
@@ -10296,95 +10302,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -10407,33 +10413,33 @@
       <selection activeCell="R2" sqref="R2:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="18.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="18.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -10495,7 +10501,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>42</v>
       </c>
@@ -10541,7 +10547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
         <v>43</v>
       </c>
@@ -10587,7 +10593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>44</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>44</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>45</v>
       </c>
@@ -10725,7 +10731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>45</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
         <v>46</v>
       </c>
@@ -10819,7 +10825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
         <v>46</v>
       </c>
@@ -10865,7 +10871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
         <v>46</v>
       </c>
@@ -10911,7 +10917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>47</v>
       </c>
@@ -10957,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
         <v>47</v>
       </c>
@@ -11003,7 +11009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
         <v>47</v>
       </c>
@@ -11049,7 +11055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
         <v>47</v>
       </c>
@@ -11095,7 +11101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
@@ -11141,7 +11147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
         <v>49</v>
       </c>
@@ -11187,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
         <v>49</v>
       </c>
@@ -11233,7 +11239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
         <v>49</v>
       </c>
@@ -11279,7 +11285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74" t="s">
         <v>49</v>
       </c>
@@ -11325,93 +11331,93 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:T19">
     <sortCondition ref="R2:R19"/>
@@ -11437,32 +11443,32 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -11524,7 +11530,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>50</v>
       </c>
@@ -11572,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>50</v>
       </c>
@@ -11620,7 +11626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
         <v>50</v>
       </c>
@@ -11670,7 +11676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
         <v>50</v>
       </c>
@@ -11720,7 +11726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>51</v>
       </c>
@@ -11768,7 +11774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="74" t="s">
         <v>52</v>
       </c>
@@ -11816,7 +11822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="74" t="s">
         <v>52</v>
       </c>
@@ -11864,7 +11870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>52</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74" t="s">
         <v>52</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
         <v>53</v>
       </c>
@@ -12008,7 +12014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74" t="s">
         <v>54</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="74" t="s">
         <v>54</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="74" t="s">
         <v>54</v>
       </c>
@@ -12152,7 +12158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="74" t="s">
         <v>54</v>
       </c>
@@ -12200,7 +12206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
         <v>55</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="74" t="s">
         <v>55</v>
       </c>
@@ -12296,7 +12302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="91" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74" t="s">
         <v>55</v>
       </c>
@@ -12344,98 +12350,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" s="92"/>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:T18">
     <sortCondition ref="R2:R18"/>
@@ -12458,7 +12464,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12472,34 +12478,34 @@
       <selection activeCell="R2" sqref="R2:T79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="23" width="15.6640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="1"/>
+    <col min="22" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
@@ -12570,7 +12576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
@@ -12621,7 +12627,7 @@
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
     </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="22" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
@@ -12672,7 +12678,7 @@
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
     </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>35</v>
       </c>
@@ -12723,7 +12729,7 @@
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
     </row>
-    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
@@ -12774,7 +12780,7 @@
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
     </row>
-    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>9</v>
       </c>
@@ -12825,7 +12831,7 @@
       <c r="V6" s="35"/>
       <c r="W6" s="35"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
@@ -12876,7 +12882,7 @@
       <c r="V7" s="35"/>
       <c r="W7" s="35"/>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
@@ -12927,7 +12933,7 @@
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
     </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
@@ -12978,7 +12984,7 @@
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
     </row>
-    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="20" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
@@ -13029,7 +13035,7 @@
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -13080,7 +13086,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
     </row>
-    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
@@ -13131,7 +13137,7 @@
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
     </row>
-    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
@@ -13182,7 +13188,7 @@
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
     </row>
-    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
@@ -13233,7 +13239,7 @@
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
     </row>
-    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
@@ -13284,7 +13290,7 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
     </row>
-    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>13</v>
       </c>
@@ -13335,7 +13341,7 @@
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
     </row>
-    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
@@ -13386,7 +13392,7 @@
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
     </row>
-    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
@@ -13437,7 +13443,7 @@
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
     </row>
-    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
@@ -13490,7 +13496,7 @@
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
     </row>
-    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="20" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
@@ -13541,7 +13547,7 @@
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
     </row>
-    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
@@ -13594,7 +13600,7 @@
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
     </row>
-    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>16</v>
       </c>
@@ -13647,7 +13653,7 @@
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
     </row>
-    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>16</v>
       </c>
@@ -13698,7 +13704,7 @@
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
     </row>
-    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
@@ -13749,7 +13755,7 @@
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
     </row>
-    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
@@ -13800,7 +13806,7 @@
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
     </row>
-    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
@@ -13851,7 +13857,7 @@
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
     </row>
-    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
@@ -13902,7 +13908,7 @@
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>18</v>
       </c>
@@ -13953,7 +13959,7 @@
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
     </row>
-    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>19</v>
       </c>
@@ -14004,7 +14010,7 @@
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
     </row>
-    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
@@ -14055,7 +14061,7 @@
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
     </row>
-    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
@@ -14106,7 +14112,7 @@
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
     </row>
-    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>20</v>
       </c>
@@ -14157,7 +14163,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
     </row>
-    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>20</v>
       </c>
@@ -14208,7 +14214,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
     </row>
-    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>20</v>
       </c>
@@ -14259,7 +14265,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
     </row>
-    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>21</v>
       </c>
@@ -14312,7 +14318,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
     </row>
-    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="20" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>21</v>
       </c>
@@ -14363,7 +14369,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
     </row>
-    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>22</v>
       </c>
@@ -14414,7 +14420,7 @@
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
     </row>
-    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>22</v>
       </c>
@@ -14465,7 +14471,7 @@
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
     </row>
-    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>23</v>
       </c>
@@ -14516,7 +14522,7 @@
       <c r="V39" s="38"/>
       <c r="W39" s="38"/>
     </row>
-    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>23</v>
       </c>
@@ -14567,7 +14573,7 @@
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
     </row>
-    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>23</v>
       </c>
@@ -14618,7 +14624,7 @@
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
     </row>
-    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>23</v>
       </c>
@@ -14669,7 +14675,7 @@
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
     </row>
-    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>23</v>
       </c>
@@ -14720,7 +14726,7 @@
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
     </row>
-    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>24</v>
       </c>
@@ -14771,7 +14777,7 @@
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
     </row>
-    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
@@ -14822,7 +14828,7 @@
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
     </row>
-    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>24</v>
       </c>
@@ -14873,7 +14879,7 @@
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
     </row>
-    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="20" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
         <v>25</v>
       </c>
@@ -14924,7 +14930,7 @@
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
     </row>
-    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>26</v>
       </c>
@@ -14975,7 +14981,7 @@
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
     </row>
-    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>26</v>
       </c>
@@ -15026,7 +15032,7 @@
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
     </row>
-    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>26</v>
       </c>
@@ -15077,7 +15083,7 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
     </row>
-    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>27</v>
       </c>
@@ -15128,7 +15134,7 @@
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
     </row>
-    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>27</v>
       </c>
@@ -15179,7 +15185,7 @@
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
     </row>
-    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>27</v>
       </c>
@@ -15230,7 +15236,7 @@
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
     </row>
-    <row r="54" spans="1:23" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>27</v>
       </c>
@@ -15281,7 +15287,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
     </row>
-    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>28</v>
       </c>
@@ -15332,7 +15338,7 @@
       <c r="V55" s="38"/>
       <c r="W55" s="38"/>
     </row>
-    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>28</v>
       </c>
@@ -15383,7 +15389,7 @@
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
     </row>
-    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>28</v>
       </c>
@@ -15434,7 +15440,7 @@
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
     </row>
-    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>28</v>
       </c>
@@ -15485,7 +15491,7 @@
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
     </row>
-    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>28</v>
       </c>
@@ -15536,7 +15542,7 @@
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
     </row>
-    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>29</v>
       </c>
@@ -15587,7 +15593,7 @@
       <c r="V60" s="38"/>
       <c r="W60" s="38"/>
     </row>
-    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>29</v>
       </c>
@@ -15638,7 +15644,7 @@
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
     </row>
-    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>29</v>
       </c>
@@ -15689,7 +15695,7 @@
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
     </row>
-    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>29</v>
       </c>
@@ -15740,7 +15746,7 @@
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
     </row>
-    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>29</v>
       </c>
@@ -15791,7 +15797,7 @@
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
     </row>
-    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>30</v>
       </c>
@@ -15842,7 +15848,7 @@
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
     </row>
-    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>31</v>
       </c>
@@ -15899,7 +15905,7 @@
       </c>
       <c r="W66" s="35"/>
     </row>
-    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>31</v>
       </c>
@@ -15950,7 +15956,7 @@
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
     </row>
-    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>31</v>
       </c>
@@ -16001,7 +16007,7 @@
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
     </row>
-    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>31</v>
       </c>
@@ -16052,7 +16058,7 @@
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
     </row>
-    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>31</v>
       </c>
@@ -16103,7 +16109,7 @@
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
     </row>
-    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="20" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>31</v>
       </c>
@@ -16154,7 +16160,7 @@
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
     </row>
-    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>32</v>
       </c>
@@ -16205,7 +16211,7 @@
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
     </row>
-    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="20" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>32</v>
       </c>
@@ -16256,7 +16262,7 @@
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
     </row>
-    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="20" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
         <v>33</v>
       </c>
@@ -16307,7 +16313,7 @@
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
     </row>
-    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
         <v>33</v>
       </c>
@@ -16358,7 +16364,7 @@
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
     </row>
-    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
         <v>33</v>
       </c>
@@ -16409,7 +16415,7 @@
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
     </row>
-    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
         <v>33</v>
       </c>
@@ -16460,7 +16466,7 @@
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
     </row>
-    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
         <v>33</v>
       </c>
@@ -16511,7 +16517,7 @@
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
     </row>
-    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="42" t="s">
         <v>34</v>
       </c>
@@ -16562,7 +16568,7 @@
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
     </row>
-    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -16570,95 +16576,95 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="G2:T79">
     <sortCondition ref="R2:R79"/>
@@ -16699,13 +16705,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>315</v>
       </c>
@@ -16713,7 +16719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="191" t="s">
         <v>185</v>
       </c>
@@ -16721,7 +16727,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="191" t="s">
         <v>187</v>
       </c>
@@ -16729,7 +16735,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="191" t="s">
         <v>188</v>
       </c>
@@ -16737,7 +16743,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="197" t="s">
         <v>189</v>
       </c>
@@ -16745,7 +16751,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="199" t="s">
         <v>190</v>
       </c>
@@ -16753,7 +16759,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="197" t="s">
         <v>191</v>
       </c>
@@ -16761,7 +16767,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="197" t="s">
         <v>192</v>
       </c>
@@ -16769,7 +16775,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="197" t="s">
         <v>193</v>
       </c>
@@ -16777,7 +16783,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="191" t="s">
         <v>195</v>
       </c>
@@ -16785,7 +16791,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="191" t="s">
         <v>197</v>
       </c>
@@ -16793,7 +16799,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="191" t="s">
         <v>199</v>
       </c>
@@ -16801,7 +16807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="191" t="s">
         <v>201</v>
       </c>
@@ -16809,7 +16815,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="191" t="s">
         <v>203</v>
       </c>
@@ -16817,7 +16823,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="191" t="s">
         <v>205</v>
       </c>
@@ -16825,7 +16831,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="191" t="s">
         <v>206</v>
       </c>
@@ -16833,7 +16839,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="191" t="s">
         <v>207</v>
       </c>
@@ -16841,7 +16847,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="191" t="s">
         <v>208</v>
       </c>
@@ -16849,7 +16855,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="191" t="s">
         <v>209</v>
       </c>
@@ -16857,7 +16863,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="191" t="s">
         <v>210</v>
       </c>
@@ -16865,7 +16871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="191" t="s">
         <v>211</v>
       </c>
@@ -16873,7 +16879,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="191" t="s">
         <v>212</v>
       </c>
@@ -16881,7 +16887,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="191" t="s">
         <v>213</v>
       </c>
@@ -16889,7 +16895,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="191" t="s">
         <v>214</v>
       </c>
@@ -16897,7 +16903,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="191" t="s">
         <v>215</v>
       </c>
@@ -16905,7 +16911,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="191" t="s">
         <v>216</v>
       </c>
@@ -16913,7 +16919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="191" t="s">
         <v>217</v>
       </c>
@@ -16921,7 +16927,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="191" t="s">
         <v>218</v>
       </c>
@@ -16929,7 +16935,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="191" t="s">
         <v>219</v>
       </c>
@@ -16937,7 +16943,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="191" t="s">
         <v>220</v>
       </c>
@@ -16945,7 +16951,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="192" t="s">
         <v>387</v>
       </c>
@@ -16967,28 +16973,28 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -16998,26 +17004,26 @@
       <c r="C1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="265" t="s">
+      <c r="D1" s="267" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265" t="s">
+      <c r="E1" s="267"/>
+      <c r="F1" s="267" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265" t="s">
+      <c r="G1" s="267"/>
+      <c r="H1" s="267" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265" t="s">
+      <c r="I1" s="267"/>
+      <c r="J1" s="267" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265" t="s">
+      <c r="K1" s="267"/>
+      <c r="L1" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="265"/>
+      <c r="M1" s="267"/>
       <c r="N1" s="63" t="s">
         <v>303</v>
       </c>
@@ -17032,7 +17038,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -17074,7 +17080,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>178</v>
       </c>
@@ -17143,7 +17149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>182</v>
       </c>
@@ -17212,7 +17218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>157</v>
       </c>
@@ -17281,7 +17287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>180</v>
       </c>
@@ -17350,7 +17356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>158</v>
       </c>
@@ -17419,7 +17425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>162</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>170</v>
       </c>
@@ -17569,7 +17575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>171</v>
       </c>
@@ -17638,7 +17644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>175</v>
       </c>
@@ -17707,7 +17713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>161</v>
       </c>
@@ -17776,7 +17782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="198" t="s">
         <v>160</v>
       </c>
@@ -17845,7 +17851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>181</v>
       </c>
@@ -17914,7 +17920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="173" t="s">
         <v>283</v>
       </c>
@@ -17942,7 +17948,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="173" t="s">
         <v>357</v>
       </c>
@@ -17970,7 +17976,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>173</v>
       </c>
@@ -18039,7 +18045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>380</v>
       </c>
@@ -18067,7 +18073,7 @@
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>381</v>
       </c>
@@ -18095,7 +18101,7 @@
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>239</v>
       </c>
@@ -18128,7 +18134,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>SUM(E3:E17)</f>
         <v>23586.120000000003</v>
@@ -18165,18 +18171,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>304</v>
       </c>
@@ -18205,7 +18211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>36</v>
       </c>
@@ -18237,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
         <v>36</v>
       </c>
@@ -18267,7 +18273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
         <v>36</v>
       </c>
@@ -18299,7 +18305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
         <v>36</v>
       </c>
@@ -18329,7 +18335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120" t="s">
         <v>36</v>
       </c>
@@ -18361,7 +18367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
         <v>37</v>
       </c>
@@ -18393,7 +18399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>37</v>
       </c>
@@ -18423,7 +18429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
         <v>37</v>
       </c>
@@ -18453,7 +18459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
         <v>37</v>
       </c>
@@ -18485,7 +18491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
         <v>38</v>
       </c>
@@ -18517,7 +18523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>39</v>
       </c>
@@ -18547,7 +18553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
         <v>39</v>
       </c>
@@ -18577,7 +18583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="120" t="s">
         <v>39</v>
       </c>
@@ -18607,7 +18613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="120" t="s">
         <v>39</v>
       </c>
@@ -18637,7 +18643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120" t="s">
         <v>40</v>
       </c>
@@ -18667,7 +18673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="120" t="s">
         <v>40</v>
       </c>
@@ -18699,7 +18705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="120" t="s">
         <v>40</v>
       </c>
@@ -18729,7 +18735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="120" t="s">
         <v>40</v>
       </c>
@@ -18759,7 +18765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="120" t="s">
         <v>41</v>
       </c>
@@ -18789,7 +18795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="120" t="s">
         <v>41</v>
       </c>
@@ -18819,7 +18825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="120" t="s">
         <v>41</v>
       </c>
@@ -18849,7 +18855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
         <v>35</v>
       </c>
@@ -18879,7 +18885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
         <v>35</v>
       </c>
@@ -18909,7 +18915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="132" t="s">
         <v>35</v>
       </c>
@@ -18939,7 +18945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="132" t="s">
         <v>9</v>
       </c>
@@ -18969,7 +18975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="132" t="s">
         <v>9</v>
       </c>
@@ -18999,7 +19005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="132" t="s">
         <v>9</v>
       </c>
@@ -19029,7 +19035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="132" t="s">
         <v>10</v>
       </c>
@@ -19059,7 +19065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="132" t="s">
         <v>10</v>
       </c>
@@ -19089,7 +19095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="132" t="s">
         <v>11</v>
       </c>
@@ -19119,7 +19125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="132" t="s">
         <v>11</v>
       </c>
@@ -19149,7 +19155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="132" t="s">
         <v>11</v>
       </c>
@@ -19179,7 +19185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="132" t="s">
         <v>12</v>
       </c>
@@ -19209,7 +19215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="132" t="s">
         <v>12</v>
       </c>
@@ -19239,7 +19245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="132" t="s">
         <v>13</v>
       </c>
@@ -19269,7 +19275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="132" t="s">
         <v>13</v>
       </c>
@@ -19299,7 +19305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="132" t="s">
         <v>14</v>
       </c>
@@ -19329,7 +19335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="132" t="s">
         <v>14</v>
       </c>
@@ -19359,7 +19365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="132" t="s">
         <v>15</v>
       </c>
@@ -19391,7 +19397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="132" t="s">
         <v>15</v>
       </c>
@@ -19421,7 +19427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="132" t="s">
         <v>16</v>
       </c>
@@ -19453,7 +19459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="132" t="s">
         <v>16</v>
       </c>
@@ -19485,7 +19491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="132" t="s">
         <v>16</v>
       </c>
@@ -19515,7 +19521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="132" t="s">
         <v>17</v>
       </c>
@@ -19545,7 +19551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="132" t="s">
         <v>17</v>
       </c>
@@ -19575,7 +19581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="132" t="s">
         <v>18</v>
       </c>
@@ -19605,7 +19611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="132" t="s">
         <v>18</v>
       </c>
@@ -19635,7 +19641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="132" t="s">
         <v>18</v>
       </c>
@@ -19665,7 +19671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="132" t="s">
         <v>19</v>
       </c>
@@ -19695,7 +19701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="132" t="s">
         <v>19</v>
       </c>
@@ -19725,7 +19731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="132" t="s">
         <v>19</v>
       </c>
@@ -19755,7 +19761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="132" t="s">
         <v>20</v>
       </c>
@@ -19785,7 +19791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="132" t="s">
         <v>20</v>
       </c>
@@ -19815,7 +19821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="132" t="s">
         <v>20</v>
       </c>
@@ -19845,7 +19851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="132" t="s">
         <v>21</v>
       </c>
@@ -19877,7 +19883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="132" t="s">
         <v>21</v>
       </c>
@@ -19907,7 +19913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="132" t="s">
         <v>22</v>
       </c>
@@ -19937,7 +19943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="132" t="s">
         <v>22</v>
       </c>
@@ -19967,7 +19973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="132" t="s">
         <v>23</v>
       </c>
@@ -19997,7 +20003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="132" t="s">
         <v>23</v>
       </c>
@@ -20027,7 +20033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="132" t="s">
         <v>23</v>
       </c>
@@ -20057,7 +20063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="132" t="s">
         <v>23</v>
       </c>
@@ -20087,7 +20093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="132" t="s">
         <v>23</v>
       </c>
@@ -20117,7 +20123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="132" t="s">
         <v>24</v>
       </c>
@@ -20147,7 +20153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="132" t="s">
         <v>24</v>
       </c>
@@ -20177,7 +20183,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="132" t="s">
         <v>24</v>
       </c>
@@ -20207,7 +20213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="136" t="s">
         <v>25</v>
       </c>
@@ -20237,7 +20243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="132" t="s">
         <v>26</v>
       </c>
@@ -20267,7 +20273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="132" t="s">
         <v>26</v>
       </c>
@@ -20297,7 +20303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="132" t="s">
         <v>26</v>
       </c>
@@ -20327,7 +20333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="132" t="s">
         <v>27</v>
       </c>
@@ -20357,7 +20363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="132" t="s">
         <v>27</v>
       </c>
@@ -20387,7 +20393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="132" t="s">
         <v>27</v>
       </c>
@@ -20417,7 +20423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="132" t="s">
         <v>27</v>
       </c>
@@ -20447,7 +20453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="132" t="s">
         <v>28</v>
       </c>
@@ -20477,7 +20483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="132" t="s">
         <v>28</v>
       </c>
@@ -20507,7 +20513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="132" t="s">
         <v>28</v>
       </c>
@@ -20537,7 +20543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="132" t="s">
         <v>28</v>
       </c>
@@ -20567,7 +20573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="132" t="s">
         <v>28</v>
       </c>
@@ -20597,7 +20603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="132" t="s">
         <v>29</v>
       </c>
@@ -20627,7 +20633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="132" t="s">
         <v>29</v>
       </c>
@@ -20657,7 +20663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="132" t="s">
         <v>29</v>
       </c>
@@ -20687,7 +20693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="132" t="s">
         <v>29</v>
       </c>
@@ -20717,7 +20723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="132" t="s">
         <v>29</v>
       </c>
@@ -20747,7 +20753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="132" t="s">
         <v>30</v>
       </c>
@@ -20777,7 +20783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="132" t="s">
         <v>31</v>
       </c>
@@ -20807,7 +20813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="132" t="s">
         <v>31</v>
       </c>
@@ -20837,7 +20843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="132" t="s">
         <v>31</v>
       </c>
@@ -20867,7 +20873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="132" t="s">
         <v>31</v>
       </c>
@@ -20897,7 +20903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="132" t="s">
         <v>31</v>
       </c>
@@ -20927,7 +20933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="132" t="s">
         <v>31</v>
       </c>
@@ -20957,7 +20963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="132" t="s">
         <v>32</v>
       </c>
@@ -20987,7 +20993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="132" t="s">
         <v>32</v>
       </c>
@@ -21017,7 +21023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="132" t="s">
         <v>33</v>
       </c>
@@ -21047,7 +21053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="132" t="s">
         <v>33</v>
       </c>
@@ -21077,7 +21083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="132" t="s">
         <v>33</v>
       </c>
@@ -21107,7 +21113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="132" t="s">
         <v>33</v>
       </c>
@@ -21137,7 +21143,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="132" t="s">
         <v>33</v>
       </c>
@@ -21167,7 +21173,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="136" t="s">
         <v>34</v>
       </c>
@@ -21197,7 +21203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="132" t="s">
         <v>42</v>
       </c>
@@ -21227,7 +21233,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="132" t="s">
         <v>43</v>
       </c>
@@ -21257,7 +21263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="132" t="s">
         <v>44</v>
       </c>
@@ -21287,7 +21293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="132" t="s">
         <v>44</v>
       </c>
@@ -21317,7 +21323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A105" s="132" t="s">
         <v>45</v>
       </c>
@@ -21347,7 +21353,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="132" t="s">
         <v>45</v>
       </c>
@@ -21379,7 +21385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="132" t="s">
         <v>46</v>
       </c>
@@ -21409,7 +21415,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="132" t="s">
         <v>46</v>
       </c>
@@ -21439,7 +21445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="132" t="s">
         <v>46</v>
       </c>
@@ -21469,7 +21475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="132" t="s">
         <v>47</v>
       </c>
@@ -21499,7 +21505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="132" t="s">
         <v>47</v>
       </c>
@@ -21529,7 +21535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="132" t="s">
         <v>47</v>
       </c>
@@ -21559,7 +21565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="132" t="s">
         <v>47</v>
       </c>
@@ -21589,7 +21595,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="132" t="s">
         <v>48</v>
       </c>
@@ -21619,7 +21625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="132" t="s">
         <v>49</v>
       </c>
@@ -21649,7 +21655,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="132" t="s">
         <v>49</v>
       </c>
@@ -21679,7 +21685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="132" t="s">
         <v>49</v>
       </c>
@@ -21709,7 +21715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="132" t="s">
         <v>49</v>
       </c>
@@ -21739,7 +21745,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="132" t="s">
         <v>50</v>
       </c>
@@ -21769,7 +21775,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="132" t="s">
         <v>50</v>
       </c>
@@ -21799,7 +21805,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="132" t="s">
         <v>50</v>
       </c>
@@ -21831,7 +21837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="132" t="s">
         <v>50</v>
       </c>
@@ -21863,7 +21869,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="132" t="s">
         <v>51</v>
       </c>
@@ -21893,7 +21899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="132" t="s">
         <v>52</v>
       </c>
@@ -21923,7 +21929,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="132" t="s">
         <v>52</v>
       </c>
@@ -21953,7 +21959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="132" t="s">
         <v>52</v>
       </c>
@@ -21983,7 +21989,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="132" t="s">
         <v>52</v>
       </c>
@@ -22013,7 +22019,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="132" t="s">
         <v>53</v>
       </c>
@@ -22043,7 +22049,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="132" t="s">
         <v>54</v>
       </c>
@@ -22073,7 +22079,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="132" t="s">
         <v>54</v>
       </c>
@@ -22103,7 +22109,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="132" t="s">
         <v>54</v>
       </c>
@@ -22133,7 +22139,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="132" t="s">
         <v>54</v>
       </c>
@@ -22163,7 +22169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="132" t="s">
         <v>55</v>
       </c>
@@ -22193,7 +22199,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="132" t="s">
         <v>55</v>
       </c>
@@ -22223,7 +22229,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="132" t="s">
         <v>55</v>
       </c>
@@ -22270,18 +22276,18 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>304</v>
       </c>
@@ -22310,7 +22316,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="101" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="152" t="s">
         <v>36</v>
       </c>
@@ -22338,7 +22344,7 @@
       </c>
       <c r="J2" s="169"/>
     </row>
-    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
         <v>40</v>
       </c>
@@ -22366,7 +22372,7 @@
       </c>
       <c r="J3" s="169"/>
     </row>
-    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="164" t="s">
         <v>23</v>
       </c>
@@ -22394,7 +22400,7 @@
       </c>
       <c r="J4" s="169"/>
     </row>
-    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="101" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
         <v>26</v>
       </c>
@@ -22422,7 +22428,7 @@
       </c>
       <c r="J5" s="170"/>
     </row>
-    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="164" t="s">
         <v>28</v>
       </c>
@@ -22450,7 +22456,7 @@
       </c>
       <c r="J6" s="169"/>
     </row>
-    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="164" t="s">
         <v>29</v>
       </c>
@@ -22478,7 +22484,7 @@
       </c>
       <c r="J7" s="169"/>
     </row>
-    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="164" t="s">
         <v>31</v>
       </c>
@@ -22506,7 +22512,7 @@
       </c>
       <c r="J8" s="169"/>
     </row>
-    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="164" t="s">
         <v>47</v>
       </c>
@@ -22534,7 +22540,7 @@
       </c>
       <c r="J9" s="169"/>
     </row>
-    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="101" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="164" t="s">
         <v>49</v>
       </c>
@@ -22562,7 +22568,7 @@
       </c>
       <c r="J10" s="169"/>
     </row>
-    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="164" t="s">
         <v>50</v>
       </c>
@@ -22590,7 +22596,7 @@
       </c>
       <c r="J11" s="169"/>
     </row>
-    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="164" t="s">
         <v>55</v>
       </c>
@@ -22618,7 +22624,7 @@
       </c>
       <c r="J12" s="169"/>
     </row>
-    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="152" t="s">
         <v>36</v>
       </c>
@@ -22648,7 +22654,7 @@
       </c>
       <c r="J13" s="169"/>
     </row>
-    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="164" t="s">
         <v>35</v>
       </c>
@@ -22676,7 +22682,7 @@
       </c>
       <c r="J14" s="169"/>
     </row>
-    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="164" t="s">
         <v>44</v>
       </c>
@@ -22704,7 +22710,7 @@
       </c>
       <c r="J15" s="169"/>
     </row>
-    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="152" t="s">
         <v>39</v>
       </c>
@@ -22732,7 +22738,7 @@
       </c>
       <c r="J16" s="169"/>
     </row>
-    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="152" t="s">
         <v>39</v>
       </c>
@@ -22760,7 +22766,7 @@
       </c>
       <c r="J17" s="169"/>
     </row>
-    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="152" t="s">
         <v>39</v>
       </c>
@@ -22788,7 +22794,7 @@
       </c>
       <c r="J18" s="169"/>
     </row>
-    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="164" t="s">
         <v>9</v>
       </c>
@@ -22816,7 +22822,7 @@
       </c>
       <c r="J19" s="169"/>
     </row>
-    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="164" t="s">
         <v>10</v>
       </c>
@@ -22844,7 +22850,7 @@
       </c>
       <c r="J20" s="169"/>
     </row>
-    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="101" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="164" t="s">
         <v>11</v>
       </c>
@@ -22872,7 +22878,7 @@
       </c>
       <c r="J21" s="169"/>
     </row>
-    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="101" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="164" t="s">
         <v>11</v>
       </c>
@@ -22900,7 +22906,7 @@
       </c>
       <c r="J22" s="169"/>
     </row>
-    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="164" t="s">
         <v>12</v>
       </c>
@@ -22928,7 +22934,7 @@
       </c>
       <c r="J23" s="169"/>
     </row>
-    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="164" t="s">
         <v>13</v>
       </c>
@@ -22956,7 +22962,7 @@
       </c>
       <c r="J24" s="169"/>
     </row>
-    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="164" t="s">
         <v>16</v>
       </c>
@@ -22986,7 +22992,7 @@
       </c>
       <c r="J25" s="169"/>
     </row>
-    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="164" t="s">
         <v>17</v>
       </c>
@@ -23014,7 +23020,7 @@
       </c>
       <c r="J26" s="169"/>
     </row>
-    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="164" t="s">
         <v>18</v>
       </c>
@@ -23042,7 +23048,7 @@
       </c>
       <c r="J27" s="169"/>
     </row>
-    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="164" t="s">
         <v>18</v>
       </c>
@@ -23070,7 +23076,7 @@
       </c>
       <c r="J28" s="169"/>
     </row>
-    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="164" t="s">
         <v>19</v>
       </c>
@@ -23098,7 +23104,7 @@
       </c>
       <c r="J29" s="169"/>
     </row>
-    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="164" t="s">
         <v>19</v>
       </c>
@@ -23126,7 +23132,7 @@
       </c>
       <c r="J30" s="169"/>
     </row>
-    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="164" t="s">
         <v>20</v>
       </c>
@@ -23154,7 +23160,7 @@
       </c>
       <c r="J31" s="169"/>
     </row>
-    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="164" t="s">
         <v>20</v>
       </c>
@@ -23182,7 +23188,7 @@
       </c>
       <c r="J32" s="169"/>
     </row>
-    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="164" t="s">
         <v>21</v>
       </c>
@@ -23212,7 +23218,7 @@
       </c>
       <c r="J33" s="169"/>
     </row>
-    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="164" t="s">
         <v>22</v>
       </c>
@@ -23240,7 +23246,7 @@
       </c>
       <c r="J34" s="169"/>
     </row>
-    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="164" t="s">
         <v>23</v>
       </c>
@@ -23268,7 +23274,7 @@
       </c>
       <c r="J35" s="169"/>
     </row>
-    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="164" t="s">
         <v>23</v>
       </c>
@@ -23296,7 +23302,7 @@
       </c>
       <c r="J36" s="169"/>
     </row>
-    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="164" t="s">
         <v>27</v>
       </c>
@@ -23324,7 +23330,7 @@
       </c>
       <c r="J37" s="169"/>
     </row>
-    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="164" t="s">
         <v>27</v>
       </c>
@@ -23352,7 +23358,7 @@
       </c>
       <c r="J38" s="169"/>
     </row>
-    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="164" t="s">
         <v>29</v>
       </c>
@@ -23380,7 +23386,7 @@
       </c>
       <c r="J39" s="169"/>
     </row>
-    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
@@ -23408,7 +23414,7 @@
       </c>
       <c r="J40" s="169"/>
     </row>
-    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="164" t="s">
         <v>33</v>
       </c>
@@ -23436,7 +23442,7 @@
       </c>
       <c r="J41" s="169"/>
     </row>
-    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="98" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="164" t="s">
         <v>33</v>
       </c>
@@ -23464,7 +23470,7 @@
       </c>
       <c r="J42" s="169"/>
     </row>
-    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="102" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="164" t="s">
         <v>46</v>
       </c>
@@ -23492,7 +23498,7 @@
       </c>
       <c r="J43" s="169"/>
     </row>
-    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="164" t="s">
         <v>46</v>
       </c>
@@ -23520,7 +23526,7 @@
       </c>
       <c r="J44" s="169"/>
     </row>
-    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="164" t="s">
         <v>49</v>
       </c>
@@ -23548,7 +23554,7 @@
       </c>
       <c r="J45" s="169"/>
     </row>
-    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="164" t="s">
         <v>52</v>
       </c>
@@ -23576,7 +23582,7 @@
       </c>
       <c r="J46" s="169"/>
     </row>
-    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="164" t="s">
         <v>52</v>
       </c>
@@ -23604,7 +23610,7 @@
       </c>
       <c r="J47" s="169"/>
     </row>
-    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="164" t="s">
         <v>54</v>
       </c>
@@ -23632,7 +23638,7 @@
       </c>
       <c r="J48" s="169"/>
     </row>
-    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="164" t="s">
         <v>54</v>
       </c>
@@ -23660,7 +23666,7 @@
       </c>
       <c r="J49" s="169"/>
     </row>
-    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="152" t="s">
         <v>37</v>
       </c>
@@ -23688,7 +23694,7 @@
       </c>
       <c r="J50" s="169"/>
     </row>
-    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="152" t="s">
         <v>40</v>
       </c>
@@ -23718,7 +23724,7 @@
       </c>
       <c r="J51" s="169"/>
     </row>
-    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="164" t="s">
         <v>23</v>
       </c>
@@ -23746,7 +23752,7 @@
       </c>
       <c r="J52" s="169"/>
     </row>
-    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="164" t="s">
         <v>26</v>
       </c>
@@ -23774,7 +23780,7 @@
       </c>
       <c r="J53" s="169"/>
     </row>
-    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="164" t="s">
         <v>28</v>
       </c>
@@ -23802,7 +23808,7 @@
       </c>
       <c r="J54" s="169"/>
     </row>
-    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="164" t="s">
         <v>29</v>
       </c>
@@ -23830,7 +23836,7 @@
       </c>
       <c r="J55" s="169"/>
     </row>
-    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="164" t="s">
         <v>31</v>
       </c>
@@ -23858,7 +23864,7 @@
       </c>
       <c r="J56" s="169"/>
     </row>
-    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="164" t="s">
         <v>33</v>
       </c>
@@ -23886,7 +23892,7 @@
       </c>
       <c r="J57" s="169"/>
     </row>
-    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="164" t="s">
         <v>47</v>
       </c>
@@ -23914,7 +23920,7 @@
       </c>
       <c r="J58" s="169"/>
     </row>
-    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="164" t="s">
         <v>49</v>
       </c>
@@ -23942,7 +23948,7 @@
       </c>
       <c r="J59" s="169"/>
     </row>
-    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="164" t="s">
         <v>50</v>
       </c>
@@ -23970,7 +23976,7 @@
       </c>
       <c r="J60" s="169"/>
     </row>
-    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="164" t="s">
         <v>55</v>
       </c>
@@ -23998,7 +24004,7 @@
       </c>
       <c r="J61" s="169"/>
     </row>
-    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="152" t="s">
         <v>36</v>
       </c>
@@ -24028,7 +24034,7 @@
       </c>
       <c r="J62" s="169"/>
     </row>
-    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="152" t="s">
         <v>37</v>
       </c>
@@ -24058,7 +24064,7 @@
       </c>
       <c r="J63" s="169"/>
     </row>
-    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="152" t="s">
         <v>39</v>
       </c>
@@ -24086,7 +24092,7 @@
       </c>
       <c r="J64" s="169"/>
     </row>
-    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="152" t="s">
         <v>40</v>
       </c>
@@ -24114,7 +24120,7 @@
       </c>
       <c r="J65" s="169"/>
     </row>
-    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="152" t="s">
         <v>40</v>
       </c>
@@ -24142,7 +24148,7 @@
       </c>
       <c r="J66" s="169"/>
     </row>
-    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="164" t="s">
         <v>15</v>
       </c>
@@ -24172,7 +24178,7 @@
       </c>
       <c r="J67" s="169"/>
     </row>
-    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="164" t="s">
         <v>15</v>
       </c>
@@ -24200,7 +24206,7 @@
       </c>
       <c r="J68" s="169"/>
     </row>
-    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="164" t="s">
         <v>16</v>
       </c>
@@ -24230,7 +24236,7 @@
       </c>
       <c r="J69" s="169"/>
     </row>
-    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="164" t="s">
         <v>24</v>
       </c>
@@ -24258,7 +24264,7 @@
       </c>
       <c r="J70" s="169"/>
     </row>
-    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="164" t="s">
         <v>24</v>
       </c>
@@ -24286,7 +24292,7 @@
       </c>
       <c r="J71" s="169"/>
     </row>
-    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="164" t="s">
         <v>26</v>
       </c>
@@ -24314,7 +24320,7 @@
       </c>
       <c r="J72" s="169"/>
     </row>
-    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="164" t="s">
         <v>28</v>
       </c>
@@ -24342,7 +24348,7 @@
       </c>
       <c r="J73" s="169"/>
     </row>
-    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="164" t="s">
         <v>31</v>
       </c>
@@ -24370,7 +24376,7 @@
       </c>
       <c r="J74" s="169"/>
     </row>
-    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="164" t="s">
         <v>31</v>
       </c>
@@ -24398,7 +24404,7 @@
       </c>
       <c r="J75" s="169"/>
     </row>
-    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="164" t="s">
         <v>33</v>
       </c>
@@ -24426,7 +24432,7 @@
       </c>
       <c r="J76" s="169"/>
     </row>
-    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="164" t="s">
         <v>33</v>
       </c>
@@ -24454,7 +24460,7 @@
       </c>
       <c r="J77" s="169"/>
     </row>
-    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="164" t="s">
         <v>52</v>
       </c>
@@ -24482,7 +24488,7 @@
       </c>
       <c r="J78" s="169"/>
     </row>
-    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="164" t="s">
         <v>52</v>
       </c>
@@ -24510,7 +24516,7 @@
       </c>
       <c r="J79" s="169"/>
     </row>
-    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="164" t="s">
         <v>54</v>
       </c>
@@ -24538,7 +24544,7 @@
       </c>
       <c r="J80" s="169"/>
     </row>
-    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="164" t="s">
         <v>54</v>
       </c>
@@ -24566,7 +24572,7 @@
       </c>
       <c r="J81" s="169"/>
     </row>
-    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="152" t="s">
         <v>41</v>
       </c>
@@ -24594,7 +24600,7 @@
       </c>
       <c r="J82" s="169"/>
     </row>
-    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="152" t="s">
         <v>41</v>
       </c>
@@ -24622,7 +24628,7 @@
       </c>
       <c r="J83" s="169"/>
     </row>
-    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="164" t="s">
         <v>9</v>
       </c>
@@ -24650,7 +24656,7 @@
       </c>
       <c r="J84" s="169"/>
     </row>
-    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="102" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="164" t="s">
         <v>13</v>
       </c>
@@ -24678,7 +24684,7 @@
       </c>
       <c r="J85" s="169"/>
     </row>
-    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="164" t="s">
         <v>14</v>
       </c>
@@ -24706,7 +24712,7 @@
       </c>
       <c r="J86" s="169"/>
     </row>
-    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="164" t="s">
         <v>18</v>
       </c>
@@ -24734,7 +24740,7 @@
       </c>
       <c r="J87" s="169"/>
     </row>
-    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="164" t="s">
         <v>24</v>
       </c>
@@ -24762,7 +24768,7 @@
       </c>
       <c r="J88" s="169"/>
     </row>
-    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="168" t="s">
         <v>25</v>
       </c>
@@ -24790,7 +24796,7 @@
       </c>
       <c r="J89" s="169"/>
     </row>
-    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="164" t="s">
         <v>28</v>
       </c>
@@ -24818,7 +24824,7 @@
       </c>
       <c r="J90" s="169"/>
     </row>
-    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="164" t="s">
         <v>29</v>
       </c>
@@ -24846,7 +24852,7 @@
       </c>
       <c r="J91" s="169"/>
     </row>
-    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="164" t="s">
         <v>31</v>
       </c>
@@ -24874,7 +24880,7 @@
       </c>
       <c r="J92" s="169"/>
     </row>
-    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="164" t="s">
         <v>32</v>
       </c>
@@ -24902,7 +24908,7 @@
       </c>
       <c r="J93" s="169"/>
     </row>
-    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="164" t="s">
         <v>47</v>
       </c>
@@ -24930,7 +24936,7 @@
       </c>
       <c r="J94" s="170"/>
     </row>
-    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="164" t="s">
         <v>48</v>
       </c>
@@ -24958,7 +24964,7 @@
       </c>
       <c r="J95" s="169"/>
     </row>
-    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="164" t="s">
         <v>50</v>
       </c>
@@ -24988,7 +24994,7 @@
       </c>
       <c r="J96" s="169"/>
     </row>
-    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="164" t="s">
         <v>51</v>
       </c>
@@ -25016,7 +25022,7 @@
       </c>
       <c r="J97" s="169"/>
     </row>
-    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="164" t="s">
         <v>55</v>
       </c>
@@ -25044,7 +25050,7 @@
       </c>
       <c r="J98" s="169"/>
     </row>
-    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="152" t="s">
         <v>36</v>
       </c>
@@ -25072,7 +25078,7 @@
       </c>
       <c r="J99" s="169"/>
     </row>
-    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="103" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="152" t="s">
         <v>37</v>
       </c>
@@ -25100,7 +25106,7 @@
       </c>
       <c r="J100" s="169"/>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="100" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="164" t="s">
         <v>35</v>
       </c>
@@ -25128,7 +25134,7 @@
       </c>
       <c r="J101" s="169"/>
     </row>
-    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="164" t="s">
         <v>43</v>
       </c>
@@ -25156,7 +25162,7 @@
       </c>
       <c r="J102" s="169"/>
     </row>
-    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="164" t="s">
         <v>45</v>
       </c>
@@ -25184,7 +25190,7 @@
       </c>
       <c r="J103" s="169"/>
     </row>
-    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="164" t="s">
         <v>35</v>
       </c>
@@ -25212,7 +25218,7 @@
       </c>
       <c r="J104" s="169"/>
     </row>
-    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="98" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="164" t="s">
         <v>42</v>
       </c>
@@ -25240,7 +25246,7 @@
       </c>
       <c r="J105" s="169"/>
     </row>
-    <row r="106" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="164" t="s">
         <v>44</v>
       </c>
@@ -25268,7 +25274,7 @@
       </c>
       <c r="J106" s="169"/>
     </row>
-    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="152" t="s">
         <v>36</v>
       </c>
@@ -25298,7 +25304,7 @@
       </c>
       <c r="J107" s="169"/>
     </row>
-    <row r="108" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A108" s="152" t="s">
         <v>37</v>
       </c>
@@ -25328,7 +25334,7 @@
       </c>
       <c r="J108" s="169"/>
     </row>
-    <row r="109" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="164" t="s">
         <v>44</v>
       </c>
@@ -25356,7 +25362,7 @@
       </c>
       <c r="J109" s="169"/>
     </row>
-    <row r="110" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A110" s="164" t="s">
         <v>45</v>
       </c>
@@ -25386,7 +25392,7 @@
       </c>
       <c r="J110" s="169"/>
     </row>
-    <row r="111" spans="1:10" s="98" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="98" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="152" t="s">
         <v>38</v>
       </c>
@@ -25416,7 +25422,7 @@
       </c>
       <c r="J111" s="169"/>
     </row>
-    <row r="112" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="164" t="s">
         <v>9</v>
       </c>
@@ -25444,7 +25450,7 @@
       </c>
       <c r="J112" s="169"/>
     </row>
-    <row r="113" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="164" t="s">
         <v>10</v>
       </c>
@@ -25472,7 +25478,7 @@
       </c>
       <c r="J113" s="169"/>
     </row>
-    <row r="114" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="164" t="s">
         <v>11</v>
       </c>
@@ -25500,7 +25506,7 @@
       </c>
       <c r="J114" s="169"/>
     </row>
-    <row r="115" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="164" t="s">
         <v>12</v>
       </c>
@@ -25528,7 +25534,7 @@
       </c>
       <c r="J115" s="169"/>
     </row>
-    <row r="116" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="164" t="s">
         <v>14</v>
       </c>
@@ -25556,7 +25562,7 @@
       </c>
       <c r="J116" s="169"/>
     </row>
-    <row r="117" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="164" t="s">
         <v>16</v>
       </c>
@@ -25584,7 +25590,7 @@
       </c>
       <c r="J117" s="169"/>
     </row>
-    <row r="118" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="164" t="s">
         <v>17</v>
       </c>
@@ -25612,7 +25618,7 @@
       </c>
       <c r="J118" s="169"/>
     </row>
-    <row r="119" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="164" t="s">
         <v>19</v>
       </c>
@@ -25640,7 +25646,7 @@
       </c>
       <c r="J119" s="169"/>
     </row>
-    <row r="120" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="164" t="s">
         <v>20</v>
       </c>
@@ -25668,7 +25674,7 @@
       </c>
       <c r="J120" s="169"/>
     </row>
-    <row r="121" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="164" t="s">
         <v>21</v>
       </c>
@@ -25696,7 +25702,7 @@
       </c>
       <c r="J121" s="169"/>
     </row>
-    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="164" t="s">
         <v>22</v>
       </c>
@@ -25724,7 +25730,7 @@
       </c>
       <c r="J122" s="169"/>
     </row>
-    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="98" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="164" t="s">
         <v>23</v>
       </c>
@@ -25752,7 +25758,7 @@
       </c>
       <c r="J123" s="169"/>
     </row>
-    <row r="124" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="164" t="s">
         <v>27</v>
       </c>
@@ -25780,7 +25786,7 @@
       </c>
       <c r="J124" s="169"/>
     </row>
-    <row r="125" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="164" t="s">
         <v>28</v>
       </c>
@@ -25808,7 +25814,7 @@
       </c>
       <c r="J125" s="169"/>
     </row>
-    <row r="126" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="164" t="s">
         <v>29</v>
       </c>
@@ -25836,7 +25842,7 @@
       </c>
       <c r="J126" s="169"/>
     </row>
-    <row r="127" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="164" t="s">
         <v>30</v>
       </c>
@@ -25864,7 +25870,7 @@
       </c>
       <c r="J127" s="169"/>
     </row>
-    <row r="128" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="164" t="s">
         <v>32</v>
       </c>
@@ -25892,7 +25898,7 @@
       </c>
       <c r="J128" s="169"/>
     </row>
-    <row r="129" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="164" t="s">
         <v>46</v>
       </c>
@@ -25920,7 +25926,7 @@
       </c>
       <c r="J129" s="169"/>
     </row>
-    <row r="130" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="164" t="s">
         <v>49</v>
       </c>
@@ -25948,7 +25954,7 @@
       </c>
       <c r="J130" s="169"/>
     </row>
-    <row r="131" spans="1:10" s="98" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="98" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A131" s="164" t="s">
         <v>50</v>
       </c>
@@ -25978,7 +25984,7 @@
       </c>
       <c r="J131" s="169"/>
     </row>
-    <row r="132" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="164" t="s">
         <v>53</v>
       </c>
@@ -26006,7 +26012,7 @@
       </c>
       <c r="J132" s="169"/>
     </row>
-    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="152" t="s">
         <v>41</v>
       </c>
@@ -26034,7 +26040,7 @@
       </c>
       <c r="J133" s="169"/>
     </row>
-    <row r="134" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="164" t="s">
         <v>27</v>
       </c>
@@ -26062,7 +26068,7 @@
       </c>
       <c r="J134" s="169"/>
     </row>
-    <row r="135" spans="1:10" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="98" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="164" t="s">
         <v>47</v>
       </c>
@@ -26090,7 +26096,7 @@
       </c>
       <c r="J135" s="169"/>
     </row>
-    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="98" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="168" t="s">
         <v>34</v>
       </c>
@@ -26135,9 +26141,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26152,17 +26158,17 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="94" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>273</v>
       </c>
@@ -26182,7 +26188,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>274</v>
       </c>
@@ -26209,7 +26215,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>275</v>
       </c>
@@ -26236,7 +26242,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>276</v>
       </c>
@@ -26263,7 +26269,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>277</v>
       </c>
@@ -26290,7 +26296,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>278</v>
       </c>
@@ -26317,7 +26323,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>279</v>
       </c>
@@ -26344,7 +26350,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>280</v>
       </c>
@@ -26371,7 +26377,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>281</v>
       </c>
@@ -26398,7 +26404,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>282</v>
       </c>
@@ -26425,7 +26431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>283</v>
       </c>
@@ -26452,7 +26458,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>290</v>
       </c>
@@ -26479,7 +26485,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
         <v>284</v>
       </c>
@@ -26504,7 +26510,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>239</v>
       </c>
@@ -26538,15 +26544,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>183</v>
       </c>
@@ -26560,7 +26566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>28</v>
       </c>
@@ -26574,7 +26580,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>29</v>
       </c>
@@ -26588,7 +26594,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>10</v>
       </c>
@@ -26602,7 +26608,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>19</v>
       </c>
@@ -26616,7 +26622,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -26630,7 +26636,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>21</v>
       </c>
@@ -26644,7 +26650,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>22</v>
       </c>
@@ -26658,7 +26664,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -26672,7 +26678,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -26686,7 +26692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -26700,7 +26706,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -26714,7 +26720,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -26728,7 +26734,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -26742,7 +26748,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -26756,7 +26762,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -26770,7 +26776,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -26784,7 +26790,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -26798,7 +26804,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>8</v>
       </c>
@@ -26812,7 +26818,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>9</v>
       </c>
@@ -26826,7 +26832,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -26840,7 +26846,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>11</v>
       </c>
@@ -26854,7 +26860,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -26868,7 +26874,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -26882,7 +26888,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -26896,7 +26902,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -26910,7 +26916,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -26924,7 +26930,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -26938,7 +26944,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -26952,7 +26958,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>12</v>
       </c>
